--- a/BPA_Static_Characterization_Test/20mm_ForceLengthPressure/PulseTestResults.xlsx
+++ b/BPA_Static_Characterization_Test/20mm_ForceLengthPressure/PulseTestResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ME masters project\github\Muscle_Sensory\BPA_Static_Characterization_Test\20mm_ForceLengthPressure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A1D2F5-3D63-403A-92D0-0C94A3D61171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3B45015-F968-4D58-97CE-47090C7CB51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{7781AE6A-A05B-4E08-9903-F8A9B7CCFEB8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="47">
   <si>
     <t>Pulse duration (ms)</t>
   </si>
@@ -173,6 +173,15 @@
   <si>
     <t>*</t>
   </si>
+  <si>
+    <t>day3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">length </t>
+  </si>
+  <si>
+    <t>note: this is done for the uno board</t>
+  </si>
 </sst>
 </file>
 
@@ -187,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +263,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -293,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -311,6 +332,8 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1404,6 +1427,388 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
+            <c:v>digital pressure readings day 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.35222156605424321"/>
+                  <c:y val="2.736111111111111E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$M$4:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>580</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$4:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3174-48C6-8B77-013DA9ACE21C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="847011560"/>
+        <c:axId val="847011920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="847011560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="847011920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="847011920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="847011560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
             <c:v>pressure vs strain</c:v>
           </c:tx>
           <c:spPr>
@@ -1922,6 +2327,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2955,6 +3400,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3544,6 +4505,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A07253D4-B4FF-1CC1-A29C-10995746BECC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3551,15 +4548,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>80010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>80010</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4113,10 +5110,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A98E28B-6B90-4D08-A0E5-BC3784CAF441}">
-  <dimension ref="A2:I15"/>
+  <dimension ref="A2:N15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4125,17 +5122,23 @@
     <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
       <c r="G2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -4154,8 +5157,14 @@
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -4171,8 +5180,14 @@
       <c r="H4">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>200</v>
       </c>
@@ -4185,8 +5200,14 @@
       <c r="H5">
         <v>132</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>200</v>
+      </c>
+      <c r="M5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>300</v>
       </c>
@@ -4199,8 +5220,14 @@
       <c r="H6">
         <v>242</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>300</v>
+      </c>
+      <c r="M6">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>400</v>
       </c>
@@ -4213,8 +5240,14 @@
       <c r="H7">
         <v>411</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <v>400</v>
+      </c>
+      <c r="M7">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>500</v>
       </c>
@@ -4227,8 +5260,14 @@
       <c r="H8">
         <v>548</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <v>500</v>
+      </c>
+      <c r="M8">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>600</v>
       </c>
@@ -4241,8 +5280,14 @@
       <c r="H9">
         <v>675</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>600</v>
+      </c>
+      <c r="M9">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>620</v>
       </c>
@@ -4255,8 +5300,14 @@
       <c r="H10">
         <v>820</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>650</v>
+      </c>
+      <c r="M10">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>700</v>
       </c>
@@ -4270,20 +5321,29 @@
         <v>947</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>363</v>
       </c>
       <c r="G15">
         <v>300</v>
+      </c>
+      <c r="L15">
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -4296,8 +5356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2708FD-2F43-4DD2-A436-851B1200C17D}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4525,12 +5585,15 @@
         <v>598</v>
       </c>
       <c r="E12" s="4">
-        <v>1100</v>
+        <v>1232</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4">
         <v>1</v>
       </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
@@ -4548,11 +5611,14 @@
         <v>624</v>
       </c>
       <c r="E13" s="4">
-        <v>1100</v>
+        <v>1289</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -5440,8 +6506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A16763-ED46-4079-BBBB-F27EBF19559A}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6505,10 +7571,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBF1152-E7B1-408E-98FD-CDD3D8B4640C}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6590,14 +7656,14 @@
         <f>B6/$B$3</f>
         <v>1</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>620</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>0</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
@@ -6611,14 +7677,14 @@
         <f t="shared" ref="C7:C11" si="1">B7/$B$3</f>
         <v>0.95161290322580649</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>500</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>0</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
@@ -6632,14 +7698,14 @@
         <f t="shared" si="1"/>
         <v>0.87903225806451613</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>394</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>0</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
@@ -6653,14 +7719,14 @@
         <f t="shared" si="1"/>
         <v>0.77419354838709675</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>295</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>0</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
@@ -6674,14 +7740,14 @@
         <f t="shared" si="1"/>
         <v>0.5161290322580645</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>191</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>0</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
@@ -6695,14 +7761,14 @@
         <f t="shared" si="1"/>
         <v>0.16935483870967744</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>95</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>0</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -6729,114 +7795,1047 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="B13" s="11">
         <f>($B$1-A13)/$B$1</f>
-        <v>4.7151277013752456E-2</v>
+        <v>1.9646365422396856E-2</v>
       </c>
       <c r="C13" s="11">
         <f>B13/$B$3</f>
-        <v>0.19354838709677419</v>
+        <v>8.0645161290322578E-2</v>
       </c>
       <c r="D13" s="11">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="E13" s="11">
-        <v>1057</v>
+        <v>1316</v>
       </c>
       <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+      <c r="A14" s="11">
+        <v>501</v>
+      </c>
       <c r="B14" s="11">
-        <f t="shared" ref="B14:B19" si="2">($B$1-A14)/$B$1</f>
-        <v>1</v>
+        <f t="shared" ref="B14:B21" si="2">($B$1-A14)/$B$1</f>
+        <v>1.5717092337917484E-2</v>
       </c>
       <c r="C14" s="11">
-        <f t="shared" ref="C14:C19" si="3">B14/$B$3</f>
-        <v>4.104838709677419</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+        <f t="shared" ref="C14:C21" si="3">B14/$B$3</f>
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="D14" s="11">
+        <v>600</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1259</v>
+      </c>
       <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="G14" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
+      <c r="A15" s="11">
+        <v>502</v>
+      </c>
       <c r="B15" s="11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.37524557956778E-2</v>
       </c>
       <c r="C15" s="11">
         <f t="shared" si="3"/>
-        <v>4.104838709677419</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+        <v>5.6451612903225812E-2</v>
+      </c>
+      <c r="D15" s="11">
+        <v>495</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1013</v>
+      </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="G15" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+      <c r="A16" s="11">
+        <v>504</v>
+      </c>
       <c r="B16" s="11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>9.823182711198428E-3</v>
       </c>
       <c r="C16" s="11">
         <f t="shared" si="3"/>
-        <v>4.104838709677419</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+        <v>4.0322580645161289E-2</v>
+      </c>
+      <c r="D16" s="11">
+        <v>403</v>
+      </c>
+      <c r="E16" s="11">
+        <v>811</v>
+      </c>
       <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
+      <c r="A17" s="11">
+        <v>505</v>
+      </c>
       <c r="B17" s="11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>7.8585461689587421E-3</v>
       </c>
       <c r="C17" s="11">
         <f t="shared" si="3"/>
-        <v>4.104838709677419</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="D17" s="11">
+        <v>305</v>
+      </c>
+      <c r="E17" s="11">
+        <v>588</v>
+      </c>
       <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
+      <c r="A18" s="11">
+        <v>505</v>
+      </c>
       <c r="B18" s="11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>7.8585461689587421E-3</v>
       </c>
       <c r="C18" s="11">
         <f t="shared" si="3"/>
-        <v>4.104838709677419</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="D18" s="11">
+        <v>202</v>
+      </c>
+      <c r="E18" s="11">
+        <v>355</v>
+      </c>
       <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
+      <c r="A19" s="11">
+        <v>506</v>
+      </c>
       <c r="B19" s="11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5.893909626719057E-3</v>
       </c>
       <c r="C19" s="11">
         <f t="shared" si="3"/>
-        <v>4.104838709677419</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+        <v>2.4193548387096774E-2</v>
+      </c>
+      <c r="D19" s="11">
+        <v>90</v>
+      </c>
+      <c r="E19" s="11">
+        <v>106</v>
+      </c>
       <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>506</v>
+      </c>
+      <c r="B20" s="11">
+        <f t="shared" si="2"/>
+        <v>5.893909626719057E-3</v>
+      </c>
+      <c r="C20" s="11">
+        <f t="shared" si="3"/>
+        <v>2.4193548387096774E-2</v>
+      </c>
+      <c r="D20" s="11">
+        <v>240</v>
+      </c>
+      <c r="E20" s="11">
+        <v>444</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>503</v>
+      </c>
+      <c r="B21" s="11">
+        <f t="shared" si="2"/>
+        <v>1.1787819253438114E-2</v>
+      </c>
+      <c r="C21" s="11">
+        <f t="shared" si="3"/>
+        <v>4.8387096774193547E-2</v>
+      </c>
+      <c r="D21" s="11">
+        <v>355</v>
+      </c>
+      <c r="E21" s="11">
+        <v>704</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>419</v>
+      </c>
+      <c r="B23" s="8">
+        <f>($B$1-A23)/$B$1</f>
+        <v>0.17681728880157171</v>
+      </c>
+      <c r="C23" s="8">
+        <f>B23/$B$3</f>
+        <v>0.72580645161290325</v>
+      </c>
+      <c r="D23" s="8">
+        <v>335</v>
+      </c>
+      <c r="E23" s="8">
+        <v>5</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>416</v>
+      </c>
+      <c r="B24" s="8">
+        <f>($B$1-A24)/$B$1</f>
+        <v>0.18271119842829076</v>
+      </c>
+      <c r="C24" s="8">
+        <f>B24/$B$3</f>
+        <v>0.75</v>
+      </c>
+      <c r="D24" s="8">
+        <v>403</v>
+      </c>
+      <c r="E24" s="8">
+        <v>101</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>416</v>
+      </c>
+      <c r="B25" s="8">
+        <f>($B$1-A25)/$B$1</f>
+        <v>0.18271119842829076</v>
+      </c>
+      <c r="C25" s="8">
+        <f>B25/$B$3</f>
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="8">
+        <v>500</v>
+      </c>
+      <c r="E25" s="8">
+        <v>207</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>414</v>
+      </c>
+      <c r="B26" s="8">
+        <f>($B$1-A26)/$B$1</f>
+        <v>0.18664047151277013</v>
+      </c>
+      <c r="C26" s="8">
+        <f>B26/$B$3</f>
+        <v>0.7661290322580645</v>
+      </c>
+      <c r="D26" s="8">
+        <v>550</v>
+      </c>
+      <c r="E26" s="8">
+        <v>263</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>414</v>
+      </c>
+      <c r="B27" s="8">
+        <f>($B$1-A27)/$B$1</f>
+        <v>0.18664047151277013</v>
+      </c>
+      <c r="C27" s="8">
+        <f>B27/$B$3</f>
+        <v>0.7661290322580645</v>
+      </c>
+      <c r="D27" s="8">
+        <v>600</v>
+      </c>
+      <c r="E27" s="8">
+        <v>316</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>414</v>
+      </c>
+      <c r="B28" s="8">
+        <f>($B$1-A28)/$B$1</f>
+        <v>0.18664047151277013</v>
+      </c>
+      <c r="C28" s="8">
+        <f>B28/$B$3</f>
+        <v>0.7661290322580645</v>
+      </c>
+      <c r="D28" s="8">
+        <v>620</v>
+      </c>
+      <c r="E28" s="8">
+        <v>340</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>417</v>
+      </c>
+      <c r="B29" s="8">
+        <f>($B$1-A29)/$B$1</f>
+        <v>0.18074656188605109</v>
+      </c>
+      <c r="C29" s="8">
+        <f>B29/$B$3</f>
+        <v>0.74193548387096786</v>
+      </c>
+      <c r="D29" s="8">
+        <v>447</v>
+      </c>
+      <c r="E29" s="8">
+        <v>163</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>417</v>
+      </c>
+      <c r="B30" s="8">
+        <f>($B$1-A30)/$B$1</f>
+        <v>0.18074656188605109</v>
+      </c>
+      <c r="C30" s="8">
+        <f>B30/$B$3</f>
+        <v>0.74193548387096786</v>
+      </c>
+      <c r="D30" s="8">
+        <v>376</v>
+      </c>
+      <c r="E30" s="8">
+        <v>90</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="15">
+        <v>458</v>
+      </c>
+      <c r="B32" s="15">
+        <f>($B$1-A32)/$B$1</f>
+        <v>0.10019646365422397</v>
+      </c>
+      <c r="C32" s="15">
+        <f>B32/$B$3</f>
+        <v>0.41129032258064518</v>
+      </c>
+      <c r="D32" s="15">
+        <v>187</v>
+      </c>
+      <c r="E32" s="15">
+        <v>4</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="15">
+        <v>456</v>
+      </c>
+      <c r="B33" s="15">
+        <f t="shared" ref="B33:B43" si="4">($B$1-A33)/$B$1</f>
+        <v>0.10412573673870335</v>
+      </c>
+      <c r="C33" s="15">
+        <f t="shared" ref="C33:C43" si="5">B33/$B$3</f>
+        <v>0.42741935483870969</v>
+      </c>
+      <c r="D33" s="15">
+        <v>252</v>
+      </c>
+      <c r="E33" s="15">
+        <v>113</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="15">
+        <v>455</v>
+      </c>
+      <c r="B34" s="15">
+        <f t="shared" si="4"/>
+        <v>0.10609037328094302</v>
+      </c>
+      <c r="C34" s="15">
+        <f t="shared" si="5"/>
+        <v>0.43548387096774194</v>
+      </c>
+      <c r="D34" s="15">
+        <v>300</v>
+      </c>
+      <c r="E34" s="15">
+        <v>194</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="15">
+        <v>454</v>
+      </c>
+      <c r="B35" s="15">
+        <f t="shared" si="4"/>
+        <v>0.10805500982318271</v>
+      </c>
+      <c r="C35" s="15">
+        <f t="shared" si="5"/>
+        <v>0.44354838709677419</v>
+      </c>
+      <c r="D35" s="15">
+        <v>400</v>
+      </c>
+      <c r="E35" s="15">
+        <v>360</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="15">
+        <v>454</v>
+      </c>
+      <c r="B36" s="15">
+        <f t="shared" si="4"/>
+        <v>0.10805500982318271</v>
+      </c>
+      <c r="C36" s="15">
+        <f t="shared" si="5"/>
+        <v>0.44354838709677419</v>
+      </c>
+      <c r="D36" s="15">
+        <v>501</v>
+      </c>
+      <c r="E36" s="15">
+        <v>525</v>
+      </c>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="15">
+        <v>452</v>
+      </c>
+      <c r="B37" s="15">
+        <f t="shared" si="4"/>
+        <v>0.11198428290766209</v>
+      </c>
+      <c r="C37" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45967741935483875</v>
+      </c>
+      <c r="D37" s="15">
+        <v>550</v>
+      </c>
+      <c r="E37" s="15">
+        <v>604</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="15">
+        <v>452</v>
+      </c>
+      <c r="B38" s="15">
+        <f t="shared" si="4"/>
+        <v>0.11198428290766209</v>
+      </c>
+      <c r="C38" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45967741935483875</v>
+      </c>
+      <c r="D38" s="15">
+        <v>601</v>
+      </c>
+      <c r="E38" s="15">
+        <v>688</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="15">
+        <v>452</v>
+      </c>
+      <c r="B39" s="15">
+        <f t="shared" si="4"/>
+        <v>0.11198428290766209</v>
+      </c>
+      <c r="C39" s="15">
+        <f t="shared" si="5"/>
+        <v>0.45967741935483875</v>
+      </c>
+      <c r="D39" s="15">
+        <v>622</v>
+      </c>
+      <c r="E39" s="15">
+        <v>720</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="15">
+        <v>455</v>
+      </c>
+      <c r="B40" s="15">
+        <f t="shared" si="4"/>
+        <v>0.10609037328094302</v>
+      </c>
+      <c r="C40" s="15">
+        <f t="shared" si="5"/>
+        <v>0.43548387096774194</v>
+      </c>
+      <c r="D40" s="15">
+        <v>525</v>
+      </c>
+      <c r="E40" s="15">
+        <v>566</v>
+      </c>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="15">
+        <v>455</v>
+      </c>
+      <c r="B41" s="15">
+        <f t="shared" si="4"/>
+        <v>0.10609037328094302</v>
+      </c>
+      <c r="C41" s="15">
+        <f t="shared" si="5"/>
+        <v>0.43548387096774194</v>
+      </c>
+      <c r="D41" s="15">
+        <v>349</v>
+      </c>
+      <c r="E41" s="15">
+        <v>282</v>
+      </c>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="15">
+        <v>457</v>
+      </c>
+      <c r="B42" s="15">
+        <f t="shared" si="4"/>
+        <v>0.10216110019646366</v>
+      </c>
+      <c r="C42" s="15">
+        <f t="shared" si="5"/>
+        <v>0.41935483870967744</v>
+      </c>
+      <c r="D42" s="15">
+        <v>201</v>
+      </c>
+      <c r="E42" s="15">
+        <v>39</v>
+      </c>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="15">
+        <v>455</v>
+      </c>
+      <c r="B43" s="15">
+        <f t="shared" si="4"/>
+        <v>0.10609037328094302</v>
+      </c>
+      <c r="C43" s="15">
+        <f t="shared" si="5"/>
+        <v>0.43548387096774194</v>
+      </c>
+      <c r="D43" s="15">
+        <v>450</v>
+      </c>
+      <c r="E43" s="15">
+        <v>446</v>
+      </c>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="16">
+        <v>482</v>
+      </c>
+      <c r="B45" s="16">
+        <f>($B$1-A45)/$B$1</f>
+        <v>5.304518664047151E-2</v>
+      </c>
+      <c r="C45" s="16">
+        <f>B45/$B$3</f>
+        <v>0.21774193548387097</v>
+      </c>
+      <c r="D45" s="16">
+        <v>130</v>
+      </c>
+      <c r="E45" s="16">
+        <v>4.3</v>
+      </c>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="16">
+        <v>481</v>
+      </c>
+      <c r="B46" s="16">
+        <f>($B$1-A46)/$B$1</f>
+        <v>5.50098231827112E-2</v>
+      </c>
+      <c r="C46" s="16">
+        <f>B46/$B$3</f>
+        <v>0.22580645161290325</v>
+      </c>
+      <c r="D46" s="16">
+        <v>201</v>
+      </c>
+      <c r="E46" s="16">
+        <v>149</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="16">
+        <v>481</v>
+      </c>
+      <c r="B47" s="16">
+        <f>($B$1-A47)/$B$1</f>
+        <v>5.50098231827112E-2</v>
+      </c>
+      <c r="C47" s="16">
+        <f>B47/$B$3</f>
+        <v>0.22580645161290325</v>
+      </c>
+      <c r="D47" s="16">
+        <v>299</v>
+      </c>
+      <c r="E47" s="16">
+        <v>356</v>
+      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="16">
+        <v>480</v>
+      </c>
+      <c r="B48" s="16">
+        <f>($B$1-A48)/$B$1</f>
+        <v>5.6974459724950882E-2</v>
+      </c>
+      <c r="C48" s="16">
+        <f>B48/$B$3</f>
+        <v>0.23387096774193547</v>
+      </c>
+      <c r="D48" s="16">
+        <v>402</v>
+      </c>
+      <c r="E48" s="16">
+        <v>563</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="16">
+        <v>479</v>
+      </c>
+      <c r="B49" s="16">
+        <f>($B$1-A49)/$B$1</f>
+        <v>5.8939096267190572E-2</v>
+      </c>
+      <c r="C49" s="16">
+        <f>B49/$B$3</f>
+        <v>0.24193548387096775</v>
+      </c>
+      <c r="D49" s="16">
+        <v>450</v>
+      </c>
+      <c r="E49" s="16">
+        <v>622</v>
+      </c>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="16">
+        <v>479</v>
+      </c>
+      <c r="B50" s="16">
+        <f>($B$1-A50)/$B$1</f>
+        <v>5.8939096267190572E-2</v>
+      </c>
+      <c r="C50" s="16">
+        <f>B50/$B$3</f>
+        <v>0.24193548387096775</v>
+      </c>
+      <c r="D50" s="16">
+        <v>501</v>
+      </c>
+      <c r="E50" s="16">
+        <v>762</v>
+      </c>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="16">
+        <v>478</v>
+      </c>
+      <c r="B51" s="16">
+        <f>($B$1-A51)/$B$1</f>
+        <v>6.0903732809430254E-2</v>
+      </c>
+      <c r="C51" s="16">
+        <f>B51/$B$3</f>
+        <v>0.25</v>
+      </c>
+      <c r="D51" s="16">
+        <v>603</v>
+      </c>
+      <c r="E51" s="16">
+        <v>967</v>
+      </c>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="16">
+        <v>478</v>
+      </c>
+      <c r="B52" s="16">
+        <f>($B$1-A52)/$B$1</f>
+        <v>6.0903732809430254E-2</v>
+      </c>
+      <c r="C52" s="16">
+        <f>B52/$B$3</f>
+        <v>0.25</v>
+      </c>
+      <c r="D52" s="16">
+        <v>622</v>
+      </c>
+      <c r="E52" s="16">
+        <v>1006</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="16">
+        <v>478</v>
+      </c>
+      <c r="B53" s="16">
+        <f>($B$1-A53)/$B$1</f>
+        <v>6.0903732809430254E-2</v>
+      </c>
+      <c r="C53" s="16">
+        <f>B53/$B$3</f>
+        <v>0.25</v>
+      </c>
+      <c r="D53" s="16">
+        <v>553</v>
+      </c>
+      <c r="E53" s="16">
+        <v>868</v>
+      </c>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="16">
+        <v>479</v>
+      </c>
+      <c r="B54" s="16">
+        <f>($B$1-A54)/$B$1</f>
+        <v>5.8939096267190572E-2</v>
+      </c>
+      <c r="C54" s="16">
+        <f>B54/$B$3</f>
+        <v>0.24193548387096775</v>
+      </c>
+      <c r="D54" s="16">
+        <v>348</v>
+      </c>
+      <c r="E54" s="16">
+        <v>456</v>
+      </c>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="16">
+        <v>480</v>
+      </c>
+      <c r="B55" s="16">
+        <f>($B$1-A55)/$B$1</f>
+        <v>5.6974459724950882E-2</v>
+      </c>
+      <c r="C55" s="16">
+        <f>B55/$B$3</f>
+        <v>0.23387096774193547</v>
+      </c>
+      <c r="D55" s="16">
+        <v>252</v>
+      </c>
+      <c r="E55" s="16">
+        <v>261</v>
+      </c>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="16">
+        <v>480</v>
+      </c>
+      <c r="B56" s="16">
+        <f>($B$1-A56)/$B$1</f>
+        <v>5.6974459724950882E-2</v>
+      </c>
+      <c r="C56" s="16">
+        <f>B56/$B$3</f>
+        <v>0.23387096774193547</v>
+      </c>
+      <c r="D56" s="16">
+        <v>376</v>
+      </c>
+      <c r="E56" s="16">
+        <v>515</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="16">
+        <v>478</v>
+      </c>
+      <c r="B57" s="16">
+        <f>($B$1-A57)/$B$1</f>
+        <v>6.0903732809430254E-2</v>
+      </c>
+      <c r="C57" s="16">
+        <f>B57/$B$3</f>
+        <v>0.25</v>
+      </c>
+      <c r="D57" s="16">
+        <v>476</v>
+      </c>
+      <c r="E57" s="16">
+        <v>714</v>
+      </c>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BPA_Static_Characterization_Test/20mm_ForceLengthPressure/PulseTestResults.xlsx
+++ b/BPA_Static_Characterization_Test/20mm_ForceLengthPressure/PulseTestResults.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ME masters project\github\Muscle_Sensory\BPA_Static_Characterization_Test\20mm_ForceLengthPressure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3B45015-F968-4D58-97CE-47090C7CB51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B55DE7-26A7-4BD4-A12B-B82B54E7AF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{7781AE6A-A05B-4E08-9903-F8A9B7CCFEB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{7781AE6A-A05B-4E08-9903-F8A9B7CCFEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="369mm" sheetId="3" r:id="rId3"/>
-    <sheet name="300mm" sheetId="4" r:id="rId4"/>
+    <sheet name="300mm" sheetId="4" r:id="rId3"/>
+    <sheet name="369mm" sheetId="3" r:id="rId4"/>
     <sheet name="509mm" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="56">
   <si>
     <t>Pulse duration (ms)</t>
   </si>
@@ -182,6 +182,33 @@
   <si>
     <t>note: this is done for the uno board</t>
   </si>
+  <si>
+    <t>day4</t>
+  </si>
+  <si>
+    <t>changed cap reading</t>
+  </si>
+  <si>
+    <t>note: this is done for the duo board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new resting length </t>
+  </si>
+  <si>
+    <t>max contracted</t>
+  </si>
+  <si>
+    <t>changed cap</t>
+  </si>
+  <si>
+    <t>new resting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max contracted </t>
+  </si>
+  <si>
+    <t>new length</t>
+  </si>
 </sst>
 </file>
 
@@ -196,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,8 +302,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -310,11 +343,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -334,6 +447,24 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1770,6 +1901,530 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>digital pressure readings day 4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>digital pressure readings day 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.35222156605424321"/>
+                  <c:y val="2.736111111111111E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$R$4:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>580</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$Q$4:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BAB4-41ED-9871-2B3B52725819}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="847011560"/>
+        <c:axId val="847011920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="847011560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Digital Pressure readings</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="847011920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="847011920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dial pressure readings (kPa)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="847011560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2367,6 +3022,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3916,6 +4611,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4507,16 +5718,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4536,6 +5747,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2049780</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC45DD18-75DA-4654-B519-FB580EF812BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5110,241 +6359,411 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A98E28B-6B90-4D08-A0E5-BC3784CAF441}">
-  <dimension ref="A2:N15"/>
+  <dimension ref="A2:S15"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView topLeftCell="N13" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="G2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="L2" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="L2" s="17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="Q2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="D3" s="19"/>
+      <c r="G3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="N3" s="17"/>
+      <c r="Q3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="20"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="19">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="19">
         <v>35</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="19">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="D4" s="19"/>
+      <c r="G4" s="18">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="18">
         <v>34</v>
       </c>
-      <c r="L4">
+      <c r="I4" s="18"/>
+      <c r="L4" s="17">
         <v>0</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="17">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="N4" s="17"/>
+      <c r="Q4" s="20">
+        <v>0</v>
+      </c>
+      <c r="R4" s="20">
+        <v>22</v>
+      </c>
+      <c r="S4" s="20"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
         <v>200</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="19">
         <v>259</v>
       </c>
-      <c r="G5">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="G5" s="18">
         <v>100</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="18">
         <v>132</v>
       </c>
-      <c r="L5">
+      <c r="I5" s="18"/>
+      <c r="L5" s="17">
         <v>200</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="17">
         <v>176</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="N5" s="17"/>
+      <c r="Q5" s="20">
+        <v>200</v>
+      </c>
+      <c r="R5" s="20">
+        <v>168</v>
+      </c>
+      <c r="S5" s="20"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
         <v>300</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="19">
         <v>399</v>
       </c>
-      <c r="G6">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="G6" s="18">
         <v>180</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="18">
         <v>242</v>
       </c>
-      <c r="L6">
+      <c r="I6" s="18"/>
+      <c r="L6" s="17">
         <v>300</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="17">
         <v>257</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="N6" s="17"/>
+      <c r="Q6" s="20">
+        <v>300</v>
+      </c>
+      <c r="R6" s="20">
+        <v>261</v>
+      </c>
+      <c r="S6" s="20"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
         <v>400</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="19">
         <v>555</v>
       </c>
-      <c r="G7">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="G7" s="18">
         <v>300</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="18">
         <v>411</v>
       </c>
-      <c r="L7">
+      <c r="I7" s="18"/>
+      <c r="L7" s="17">
         <v>400</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="17">
         <v>346</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="N7" s="17"/>
+      <c r="Q7" s="20">
+        <v>400</v>
+      </c>
+      <c r="R7" s="20">
+        <v>349</v>
+      </c>
+      <c r="S7" s="20"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
         <v>500</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="19">
         <v>683</v>
       </c>
-      <c r="G8">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="G8" s="18">
         <v>405</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="18">
         <v>548</v>
       </c>
-      <c r="L8">
+      <c r="I8" s="18"/>
+      <c r="L8" s="17">
         <v>500</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="17">
         <v>444</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="N8" s="17"/>
+      <c r="Q8" s="20">
+        <v>500</v>
+      </c>
+      <c r="R8" s="20">
+        <v>446</v>
+      </c>
+      <c r="S8" s="20"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
         <v>600</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="19">
         <v>814</v>
       </c>
-      <c r="G9">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="G9" s="18">
         <v>500</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="18">
         <v>675</v>
       </c>
-      <c r="L9">
+      <c r="I9" s="18"/>
+      <c r="L9" s="17">
         <v>600</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="17">
         <v>536</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="N9" s="17"/>
+      <c r="Q9" s="20">
+        <v>600</v>
+      </c>
+      <c r="R9" s="20">
+        <v>529</v>
+      </c>
+      <c r="S9" s="20"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
         <v>620</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="19">
         <v>836</v>
       </c>
-      <c r="G10">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="G10" s="18">
         <v>605</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="18">
         <v>820</v>
       </c>
-      <c r="L10">
+      <c r="I10" s="18"/>
+      <c r="L10" s="17">
         <v>650</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="17">
         <v>580</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="N10" s="17"/>
+      <c r="Q10" s="20">
+        <v>650</v>
+      </c>
+      <c r="R10" s="20">
+        <v>580</v>
+      </c>
+      <c r="S10" s="20"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
         <v>700</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="19">
         <v>946</v>
       </c>
-      <c r="G11">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="G11" s="18">
         <v>700</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="18">
         <v>947</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="I11" s="18"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G14" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="G14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="L14" t="s">
+      <c r="H14" s="18"/>
+      <c r="I14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="N14" t="s">
+      <c r="M14" s="17"/>
+      <c r="N14" s="17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="Q14" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
         <v>363</v>
       </c>
-      <c r="G15">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="G15" s="18">
         <v>300</v>
       </c>
-      <c r="L15">
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="L15" s="17">
         <v>509</v>
       </c>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="Q15" s="20">
+        <v>509</v>
+      </c>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5353,11 +6772,1116 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A16763-ED46-4079-BBBB-F27EBF19559A}">
+  <dimension ref="A1:K50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1">
+        <v>297</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>225</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <f>(B1-B2)/B1</f>
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7">
+        <v>299</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="J6" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="22"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>272</v>
+      </c>
+      <c r="B7" s="7">
+        <f>($B$1-A7)/$B$1</f>
+        <v>8.4175084175084181E-2</v>
+      </c>
+      <c r="C7" s="7">
+        <f>B7/$B$3</f>
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="D7" s="7">
+        <v>206</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>252</v>
+      </c>
+      <c r="B8" s="7">
+        <f t="shared" ref="B8:B12" si="0">($B$1-A8)/$B$1</f>
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" ref="C8:C12" si="1">B8/$B$3</f>
+        <v>0.625</v>
+      </c>
+      <c r="D8" s="7">
+        <v>301</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="25">
+        <v>310</v>
+      </c>
+      <c r="K8" s="24">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>240</v>
+      </c>
+      <c r="B9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.19191919191919191</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D9" s="7">
+        <v>399</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>233</v>
+      </c>
+      <c r="B10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.21548821548821548</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D10" s="7">
+        <v>501</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>226</v>
+      </c>
+      <c r="B11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.23905723905723905</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="1"/>
+        <v>0.98611111111111105</v>
+      </c>
+      <c r="D11" s="7">
+        <v>605</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>225</v>
+      </c>
+      <c r="B12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>623</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="33">
+        <v>623</v>
+      </c>
+      <c r="K13" s="30">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>297</v>
+      </c>
+      <c r="B14" s="8">
+        <f t="shared" ref="B14:B21" si="2">($B$1-A14)/$B$1</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" ref="C14:C21" si="3">B14/$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
+        <v>625</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1122</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>297</v>
+      </c>
+      <c r="B15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <v>389</v>
+      </c>
+      <c r="E15" s="8">
+        <v>743</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>298</v>
+      </c>
+      <c r="B16" s="8">
+        <f t="shared" si="2"/>
+        <v>-3.3670033670033669E-3</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" si="3"/>
+        <v>-1.3888888888888888E-2</v>
+      </c>
+      <c r="D16" s="8">
+        <v>92</v>
+      </c>
+      <c r="E16" s="8">
+        <v>123</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>295</v>
+      </c>
+      <c r="B17" s="8">
+        <f t="shared" si="2"/>
+        <v>6.7340067340067337E-3</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" si="3"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D17" s="8">
+        <v>190</v>
+      </c>
+      <c r="E17" s="8">
+        <v>325</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>295</v>
+      </c>
+      <c r="B18" s="8">
+        <f t="shared" si="2"/>
+        <v>6.7340067340067337E-3</v>
+      </c>
+      <c r="C18" s="8">
+        <f t="shared" si="3"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D18" s="8">
+        <v>401</v>
+      </c>
+      <c r="E18" s="8">
+        <v>771</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>293</v>
+      </c>
+      <c r="B19" s="8">
+        <f t="shared" si="2"/>
+        <v>1.3468013468013467E-2</v>
+      </c>
+      <c r="C19" s="8">
+        <f t="shared" si="3"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="D19" s="8">
+        <v>510</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1001</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>295</v>
+      </c>
+      <c r="B20" s="8">
+        <f t="shared" si="2"/>
+        <v>6.7340067340067337E-3</v>
+      </c>
+      <c r="C20" s="8">
+        <f t="shared" si="3"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D20" s="8">
+        <v>305</v>
+      </c>
+      <c r="E20" s="8">
+        <v>564</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>297</v>
+      </c>
+      <c r="B21" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <v>98</v>
+      </c>
+      <c r="E21" s="8">
+        <v>126</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>281</v>
+      </c>
+      <c r="B24" s="10">
+        <f>($B$1-A24)/$B$1</f>
+        <v>5.387205387205387E-2</v>
+      </c>
+      <c r="C24" s="10">
+        <f>B24/$B$3</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D24" s="10">
+        <v>175</v>
+      </c>
+      <c r="E24" s="10">
+        <v>50</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>280</v>
+      </c>
+      <c r="B25" s="10">
+        <f t="shared" ref="B25:B30" si="4">($B$1-A25)/$B$1</f>
+        <v>5.7239057239057242E-2</v>
+      </c>
+      <c r="C25" s="10">
+        <f t="shared" ref="C25:C30" si="5">B25/$B$3</f>
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="D25" s="10">
+        <v>196</v>
+      </c>
+      <c r="E25" s="10">
+        <v>92</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>280</v>
+      </c>
+      <c r="B26" s="10">
+        <f t="shared" si="4"/>
+        <v>5.7239057239057242E-2</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" si="5"/>
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="D26" s="10">
+        <v>402</v>
+      </c>
+      <c r="E26" s="10">
+        <v>480</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <v>281</v>
+      </c>
+      <c r="B27" s="10">
+        <f t="shared" si="4"/>
+        <v>5.387205387205387E-2</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="5"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D27" s="10">
+        <v>409</v>
+      </c>
+      <c r="E27" s="10">
+        <v>497</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>279</v>
+      </c>
+      <c r="B28" s="10">
+        <f t="shared" si="4"/>
+        <v>6.0606060606060608E-2</v>
+      </c>
+      <c r="C28" s="10">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="D28" s="10">
+        <v>613</v>
+      </c>
+      <c r="E28" s="10">
+        <v>865</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <v>278</v>
+      </c>
+      <c r="B29" s="10">
+        <f t="shared" si="4"/>
+        <v>6.3973063973063973E-2</v>
+      </c>
+      <c r="C29" s="10">
+        <f t="shared" si="5"/>
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="D29" s="10">
+        <v>605</v>
+      </c>
+      <c r="E29" s="10">
+        <v>851</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>280</v>
+      </c>
+      <c r="B30" s="10">
+        <f t="shared" si="4"/>
+        <v>5.7239057239057242E-2</v>
+      </c>
+      <c r="C30" s="10">
+        <f t="shared" si="5"/>
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="D30" s="10">
+        <v>285</v>
+      </c>
+      <c r="E30" s="10">
+        <v>273</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>277</v>
+      </c>
+      <c r="B31" s="10">
+        <f>($B$1-A31)/$B$1</f>
+        <v>6.7340067340067339E-2</v>
+      </c>
+      <c r="C31" s="10">
+        <f>B31/$B$3</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="D31" s="10">
+        <v>505</v>
+      </c>
+      <c r="E31" s="10">
+        <v>676</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>282</v>
+      </c>
+      <c r="B32" s="10">
+        <f>($B$1-A32)/$B$1</f>
+        <v>5.0505050505050504E-2</v>
+      </c>
+      <c r="C32" s="10">
+        <f>B32/$B$3</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="D32" s="10">
+        <v>91</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>254</v>
+      </c>
+      <c r="B34" s="11">
+        <f t="shared" ref="B34:B40" si="6">($B$1-A34)/$B$1</f>
+        <v>0.14478114478114479</v>
+      </c>
+      <c r="C34" s="11">
+        <f t="shared" ref="C34:C40" si="7">B34/$B$3</f>
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D34" s="11">
+        <v>277</v>
+      </c>
+      <c r="E34" s="11">
+        <v>30</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
+        <v>253</v>
+      </c>
+      <c r="B35" s="11">
+        <f t="shared" si="6"/>
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="C35" s="11">
+        <f t="shared" si="7"/>
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D35" s="11">
+        <v>400</v>
+      </c>
+      <c r="E35" s="11">
+        <v>177</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
+        <v>253</v>
+      </c>
+      <c r="B36" s="11">
+        <f t="shared" si="6"/>
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="C36" s="11">
+        <f t="shared" si="7"/>
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D36" s="11">
+        <v>290</v>
+      </c>
+      <c r="E36" s="11">
+        <v>49</v>
+      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
+        <v>252</v>
+      </c>
+      <c r="B37" s="11">
+        <f t="shared" si="6"/>
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="C37" s="11">
+        <f t="shared" si="7"/>
+        <v>0.625</v>
+      </c>
+      <c r="D37" s="11">
+        <v>611</v>
+      </c>
+      <c r="E37" s="11">
+        <v>423</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
+        <v>252</v>
+      </c>
+      <c r="B38" s="11">
+        <f t="shared" si="6"/>
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="C38" s="11">
+        <f t="shared" si="7"/>
+        <v>0.625</v>
+      </c>
+      <c r="D38" s="11">
+        <v>492</v>
+      </c>
+      <c r="E38" s="11">
+        <v>292</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="11">
+        <v>254</v>
+      </c>
+      <c r="B39" s="11">
+        <f t="shared" si="6"/>
+        <v>0.14478114478114479</v>
+      </c>
+      <c r="C39" s="11">
+        <f t="shared" si="7"/>
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D39" s="11">
+        <v>353</v>
+      </c>
+      <c r="E39" s="11">
+        <v>135</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="11">
+        <v>252</v>
+      </c>
+      <c r="B40" s="11">
+        <f t="shared" si="6"/>
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="C40" s="11">
+        <f t="shared" si="7"/>
+        <v>0.625</v>
+      </c>
+      <c r="D40" s="11">
+        <v>598</v>
+      </c>
+      <c r="E40" s="11">
+        <v>416</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
+        <v>241</v>
+      </c>
+      <c r="B42" s="12">
+        <f t="shared" ref="B42:B48" si="8">($B$1-A42)/$B$1</f>
+        <v>0.18855218855218855</v>
+      </c>
+      <c r="C42" s="12">
+        <f t="shared" ref="C42:C48" si="9">B42/$B$3</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D42" s="12">
+        <v>609</v>
+      </c>
+      <c r="E42" s="12">
+        <v>258</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
+        <v>241</v>
+      </c>
+      <c r="B43" s="12">
+        <f t="shared" si="8"/>
+        <v>0.18855218855218855</v>
+      </c>
+      <c r="C43" s="12">
+        <f t="shared" si="9"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D43" s="12">
+        <v>626</v>
+      </c>
+      <c r="E43" s="12">
+        <v>279</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
+        <v>241</v>
+      </c>
+      <c r="B44" s="12">
+        <f t="shared" si="8"/>
+        <v>0.18855218855218855</v>
+      </c>
+      <c r="C44" s="12">
+        <f t="shared" si="9"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D44" s="12">
+        <v>494</v>
+      </c>
+      <c r="E44" s="12">
+        <v>166</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
+        <v>242</v>
+      </c>
+      <c r="B45" s="12">
+        <f t="shared" si="8"/>
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="C45" s="12">
+        <f t="shared" si="9"/>
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D45" s="12">
+        <v>298</v>
+      </c>
+      <c r="E45" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
+        <v>242</v>
+      </c>
+      <c r="B46" s="12">
+        <f t="shared" si="8"/>
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="C46" s="12">
+        <f t="shared" si="9"/>
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D46" s="12">
+        <v>400</v>
+      </c>
+      <c r="E46" s="12">
+        <v>86</v>
+      </c>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
+        <v>240</v>
+      </c>
+      <c r="B47" s="12">
+        <f t="shared" si="8"/>
+        <v>0.19191919191919191</v>
+      </c>
+      <c r="C47" s="12">
+        <f t="shared" si="9"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D47" s="12">
+        <v>350</v>
+      </c>
+      <c r="E47" s="12">
+        <v>44</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
+        <v>242</v>
+      </c>
+      <c r="B48" s="12">
+        <f t="shared" si="8"/>
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="C48" s="12">
+        <f t="shared" si="9"/>
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D48" s="12">
+        <v>330</v>
+      </c>
+      <c r="E48" s="12">
+        <v>25</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2708FD-2F43-4DD2-A436-851B1200C17D}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5367,9 +7891,11 @@
     <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -5383,7 +7909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -5394,7 +7920,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -5406,7 +7932,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -5428,8 +7958,12 @@
       <c r="G5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="24"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>275</v>
       </c>
@@ -5453,8 +7987,14 @@
       <c r="G6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>368</v>
       </c>
@@ -5476,8 +8016,14 @@
       <c r="G7" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="26">
+        <v>624</v>
+      </c>
+      <c r="J7" s="27">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>367</v>
       </c>
@@ -5499,8 +8045,12 @@
       <c r="G8" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>366</v>
       </c>
@@ -5522,8 +8072,12 @@
       <c r="G9" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="28">
+        <v>369</v>
+      </c>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>365</v>
       </c>
@@ -5545,8 +8099,12 @@
       <c r="G10" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>365</v>
       </c>
@@ -5568,8 +8126,12 @@
       <c r="G11" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="29">
+        <v>275</v>
+      </c>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>365</v>
       </c>
@@ -5595,7 +8157,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>365</v>
       </c>
@@ -5621,7 +8183,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>366</v>
       </c>
@@ -5644,7 +8206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>368</v>
       </c>
@@ -5667,7 +8229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>365</v>
       </c>
@@ -6502,12 +9064,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A16763-ED46-4079-BBBB-F27EBF19559A}">
-  <dimension ref="A1:H50"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBF1152-E7B1-408E-98FD-CDD3D8B4640C}">
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6515,14 +9077,16 @@
     <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1">
-        <v>297</v>
+        <v>509</v>
       </c>
       <c r="D1" t="s">
         <v>34</v>
@@ -6531,1085 +9095,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2">
-        <v>225</v>
+        <v>385</v>
       </c>
       <c r="H2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <f>(B1-B2)/B1</f>
-        <v>0.24242424242424243</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7">
-        <v>299</v>
-      </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>272</v>
-      </c>
-      <c r="B7" s="7">
-        <f>($B$1-A7)/$B$1</f>
-        <v>8.4175084175084181E-2</v>
-      </c>
-      <c r="C7" s="7">
-        <f>B7/$B$3</f>
-        <v>0.34722222222222221</v>
-      </c>
-      <c r="D7" s="7">
-        <v>206</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>252</v>
-      </c>
-      <c r="B8" s="7">
-        <f t="shared" ref="B8:B12" si="0">($B$1-A8)/$B$1</f>
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="C8" s="7">
-        <f t="shared" ref="C8:C12" si="1">B8/$B$3</f>
-        <v>0.625</v>
-      </c>
-      <c r="D8" s="7">
-        <v>301</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>240</v>
-      </c>
-      <c r="B9" s="7">
-        <f t="shared" si="0"/>
-        <v>0.19191919191919191</v>
-      </c>
-      <c r="C9" s="7">
-        <f t="shared" si="1"/>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D9" s="7">
-        <v>399</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>233</v>
-      </c>
-      <c r="B10" s="7">
-        <f t="shared" si="0"/>
-        <v>0.21548821548821548</v>
-      </c>
-      <c r="C10" s="7">
-        <f t="shared" si="1"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="D10" s="7">
-        <v>501</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>226</v>
-      </c>
-      <c r="B11" s="7">
-        <f t="shared" si="0"/>
-        <v>0.23905723905723905</v>
-      </c>
-      <c r="C11" s="7">
-        <f t="shared" si="1"/>
-        <v>0.98611111111111105</v>
-      </c>
-      <c r="D11" s="7">
-        <v>605</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>225</v>
-      </c>
-      <c r="B12" s="7">
-        <f t="shared" si="0"/>
-        <v>0.24242424242424243</v>
-      </c>
-      <c r="C12" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>623</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <v>297</v>
-      </c>
-      <c r="B14" s="8">
-        <f>($B$1-A14)/$B$1</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="8">
-        <f>B14/$B$3</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
-        <v>625</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1122</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <v>297</v>
-      </c>
-      <c r="B15" s="8">
-        <f>($B$1-A15)/$B$1</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="8">
-        <f>B15/$B$3</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="8">
-        <v>389</v>
-      </c>
-      <c r="E15" s="8">
-        <v>743</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <v>298</v>
-      </c>
-      <c r="B16" s="8">
-        <f>($B$1-A16)/$B$1</f>
-        <v>-3.3670033670033669E-3</v>
-      </c>
-      <c r="C16" s="8">
-        <f>B16/$B$3</f>
-        <v>-1.3888888888888888E-2</v>
-      </c>
-      <c r="D16" s="8">
-        <v>92</v>
-      </c>
-      <c r="E16" s="8">
-        <v>123</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>295</v>
-      </c>
-      <c r="B17" s="8">
-        <f>($B$1-A17)/$B$1</f>
-        <v>6.7340067340067337E-3</v>
-      </c>
-      <c r="C17" s="8">
-        <f>B17/$B$3</f>
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="D17" s="8">
-        <v>190</v>
-      </c>
-      <c r="E17" s="8">
-        <v>325</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>295</v>
-      </c>
-      <c r="B18" s="8">
-        <f>($B$1-A18)/$B$1</f>
-        <v>6.7340067340067337E-3</v>
-      </c>
-      <c r="C18" s="8">
-        <f>B18/$B$3</f>
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="D18" s="8">
-        <v>401</v>
-      </c>
-      <c r="E18" s="8">
-        <v>771</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <v>293</v>
-      </c>
-      <c r="B19" s="8">
-        <f>($B$1-A19)/$B$1</f>
-        <v>1.3468013468013467E-2</v>
-      </c>
-      <c r="C19" s="8">
-        <f>B19/$B$3</f>
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="D19" s="8">
-        <v>510</v>
-      </c>
-      <c r="E19" s="8">
-        <v>1001</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>295</v>
-      </c>
-      <c r="B20" s="8">
-        <f>($B$1-A20)/$B$1</f>
-        <v>6.7340067340067337E-3</v>
-      </c>
-      <c r="C20" s="8">
-        <f>B20/$B$3</f>
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="D20" s="8">
-        <v>305</v>
-      </c>
-      <c r="E20" s="8">
-        <v>564</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>297</v>
-      </c>
-      <c r="B21" s="8">
-        <f>($B$1-A21)/$B$1</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="8">
-        <f>B21/$B$3</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="8">
-        <v>98</v>
-      </c>
-      <c r="E21" s="8">
-        <v>126</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
-        <v>281</v>
-      </c>
-      <c r="B24" s="10">
-        <f>($B$1-A24)/$B$1</f>
-        <v>5.387205387205387E-2</v>
-      </c>
-      <c r="C24" s="10">
-        <f>B24/$B$3</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="D24" s="10">
-        <v>175</v>
-      </c>
-      <c r="E24" s="10">
-        <v>50</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
-        <v>280</v>
-      </c>
-      <c r="B25" s="10">
-        <f t="shared" ref="B25:B30" si="2">($B$1-A25)/$B$1</f>
-        <v>5.7239057239057242E-2</v>
-      </c>
-      <c r="C25" s="10">
-        <f t="shared" ref="C25:C30" si="3">B25/$B$3</f>
-        <v>0.2361111111111111</v>
-      </c>
-      <c r="D25" s="10">
-        <v>196</v>
-      </c>
-      <c r="E25" s="10">
-        <v>92</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
-        <v>280</v>
-      </c>
-      <c r="B26" s="10">
-        <f t="shared" si="2"/>
-        <v>5.7239057239057242E-2</v>
-      </c>
-      <c r="C26" s="10">
-        <f t="shared" si="3"/>
-        <v>0.2361111111111111</v>
-      </c>
-      <c r="D26" s="10">
-        <v>402</v>
-      </c>
-      <c r="E26" s="10">
-        <v>480</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
-        <v>281</v>
-      </c>
-      <c r="B27" s="10">
-        <f t="shared" si="2"/>
-        <v>5.387205387205387E-2</v>
-      </c>
-      <c r="C27" s="10">
-        <f t="shared" si="3"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="D27" s="10">
-        <v>409</v>
-      </c>
-      <c r="E27" s="10">
-        <v>497</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
-        <v>279</v>
-      </c>
-      <c r="B28" s="10">
-        <f t="shared" si="2"/>
-        <v>6.0606060606060608E-2</v>
-      </c>
-      <c r="C28" s="10">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-      <c r="D28" s="10">
-        <v>613</v>
-      </c>
-      <c r="E28" s="10">
-        <v>865</v>
-      </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
-        <v>278</v>
-      </c>
-      <c r="B29" s="10">
-        <f t="shared" si="2"/>
-        <v>6.3973063973063973E-2</v>
-      </c>
-      <c r="C29" s="10">
-        <f t="shared" si="3"/>
-        <v>0.2638888888888889</v>
-      </c>
-      <c r="D29" s="10">
-        <v>605</v>
-      </c>
-      <c r="E29" s="10">
-        <v>851</v>
-      </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
-        <v>280</v>
-      </c>
-      <c r="B30" s="10">
-        <f t="shared" si="2"/>
-        <v>5.7239057239057242E-2</v>
-      </c>
-      <c r="C30" s="10">
-        <f t="shared" si="3"/>
-        <v>0.2361111111111111</v>
-      </c>
-      <c r="D30" s="10">
-        <v>285</v>
-      </c>
-      <c r="E30" s="10">
-        <v>273</v>
-      </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
-        <v>277</v>
-      </c>
-      <c r="B31" s="10">
-        <f>($B$1-A31)/$B$1</f>
-        <v>6.7340067340067339E-2</v>
-      </c>
-      <c r="C31" s="10">
-        <f>B31/$B$3</f>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="D31" s="10">
-        <v>505</v>
-      </c>
-      <c r="E31" s="10">
-        <v>676</v>
-      </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
-        <v>282</v>
-      </c>
-      <c r="B32" s="10">
-        <f>($B$1-A32)/$B$1</f>
-        <v>5.0505050505050504E-2</v>
-      </c>
-      <c r="C32" s="10">
-        <f>B32/$B$3</f>
-        <v>0.20833333333333331</v>
-      </c>
-      <c r="D32" s="10">
-        <v>91</v>
-      </c>
-      <c r="E32" s="10">
-        <v>0</v>
-      </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
-        <v>254</v>
-      </c>
-      <c r="B34" s="11">
-        <f>($B$1-A34)/$B$1</f>
-        <v>0.14478114478114479</v>
-      </c>
-      <c r="C34" s="11">
-        <f>B34/$B$3</f>
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="D34" s="11">
-        <v>277</v>
-      </c>
-      <c r="E34" s="11">
-        <v>30</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
-        <v>253</v>
-      </c>
-      <c r="B35" s="11">
-        <f>($B$1-A35)/$B$1</f>
-        <v>0.14814814814814814</v>
-      </c>
-      <c r="C35" s="11">
-        <f>B35/$B$3</f>
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="D35" s="11">
-        <v>400</v>
-      </c>
-      <c r="E35" s="11">
-        <v>177</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="11">
-        <v>253</v>
-      </c>
-      <c r="B36" s="11">
-        <f>($B$1-A36)/$B$1</f>
-        <v>0.14814814814814814</v>
-      </c>
-      <c r="C36" s="11">
-        <f>B36/$B$3</f>
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="D36" s="11">
-        <v>290</v>
-      </c>
-      <c r="E36" s="11">
-        <v>49</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
-        <v>252</v>
-      </c>
-      <c r="B37" s="11">
-        <f>($B$1-A37)/$B$1</f>
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="C37" s="11">
-        <f>B37/$B$3</f>
-        <v>0.625</v>
-      </c>
-      <c r="D37" s="11">
-        <v>611</v>
-      </c>
-      <c r="E37" s="11">
-        <v>423</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
-        <v>252</v>
-      </c>
-      <c r="B38" s="11">
-        <f>($B$1-A38)/$B$1</f>
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="C38" s="11">
-        <f>B38/$B$3</f>
-        <v>0.625</v>
-      </c>
-      <c r="D38" s="11">
-        <v>492</v>
-      </c>
-      <c r="E38" s="11">
-        <v>292</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
-        <v>254</v>
-      </c>
-      <c r="B39" s="11">
-        <f>($B$1-A39)/$B$1</f>
-        <v>0.14478114478114479</v>
-      </c>
-      <c r="C39" s="11">
-        <f>B39/$B$3</f>
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="D39" s="11">
-        <v>353</v>
-      </c>
-      <c r="E39" s="11">
-        <v>135</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="11">
-        <v>252</v>
-      </c>
-      <c r="B40" s="11">
-        <f>($B$1-A40)/$B$1</f>
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="C40" s="11">
-        <f>B40/$B$3</f>
-        <v>0.625</v>
-      </c>
-      <c r="D40" s="11">
-        <v>598</v>
-      </c>
-      <c r="E40" s="11">
-        <v>416</v>
-      </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="12">
-        <v>241</v>
-      </c>
-      <c r="B42" s="12">
-        <f>($B$1-A42)/$B$1</f>
-        <v>0.18855218855218855</v>
-      </c>
-      <c r="C42" s="12">
-        <f>B42/$B$3</f>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="D42" s="12">
-        <v>609</v>
-      </c>
-      <c r="E42" s="12">
-        <v>258</v>
-      </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="12">
-        <v>241</v>
-      </c>
-      <c r="B43" s="12">
-        <f>($B$1-A43)/$B$1</f>
-        <v>0.18855218855218855</v>
-      </c>
-      <c r="C43" s="12">
-        <f>B43/$B$3</f>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="D43" s="12">
-        <v>626</v>
-      </c>
-      <c r="E43" s="12">
-        <v>279</v>
-      </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="12">
-        <v>241</v>
-      </c>
-      <c r="B44" s="12">
-        <f>($B$1-A44)/$B$1</f>
-        <v>0.18855218855218855</v>
-      </c>
-      <c r="C44" s="12">
-        <f>B44/$B$3</f>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="D44" s="12">
-        <v>494</v>
-      </c>
-      <c r="E44" s="12">
-        <v>166</v>
-      </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="12">
-        <v>242</v>
-      </c>
-      <c r="B45" s="12">
-        <f>($B$1-A45)/$B$1</f>
-        <v>0.18518518518518517</v>
-      </c>
-      <c r="C45" s="12">
-        <f>B45/$B$3</f>
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="D45" s="12">
-        <v>298</v>
-      </c>
-      <c r="E45" s="12">
-        <v>2.25</v>
-      </c>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="12">
-        <v>242</v>
-      </c>
-      <c r="B46" s="12">
-        <f>($B$1-A46)/$B$1</f>
-        <v>0.18518518518518517</v>
-      </c>
-      <c r="C46" s="12">
-        <f>B46/$B$3</f>
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="D46" s="12">
-        <v>400</v>
-      </c>
-      <c r="E46" s="12">
-        <v>86</v>
-      </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
-        <v>240</v>
-      </c>
-      <c r="B47" s="12">
-        <f>($B$1-A47)/$B$1</f>
-        <v>0.19191919191919191</v>
-      </c>
-      <c r="C47" s="12">
-        <f>B47/$B$3</f>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D47" s="12">
-        <v>350</v>
-      </c>
-      <c r="E47" s="12">
-        <v>44</v>
-      </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="12">
-        <v>242</v>
-      </c>
-      <c r="B48" s="12">
-        <f>($B$1-A48)/$B$1</f>
-        <v>0.18518518518518517</v>
-      </c>
-      <c r="C48" s="12">
-        <f>B48/$B$3</f>
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="D48" s="12">
-        <v>330</v>
-      </c>
-      <c r="E48" s="12">
-        <v>25</v>
-      </c>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBF1152-E7B1-408E-98FD-CDD3D8B4640C}">
-  <dimension ref="A1:H58"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K54" sqref="K54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1">
-        <v>509</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>385</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -7621,7 +9118,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J4" s="21"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>24</v>
       </c>
@@ -7643,8 +9151,19 @@
       <c r="G5" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J5" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32">
+        <v>509</v>
+      </c>
+      <c r="N5" s="24">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>385</v>
       </c>
@@ -7664,8 +9183,17 @@
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="24"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>391</v>
       </c>
@@ -7685,8 +9213,17 @@
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J7" s="33">
+        <v>626</v>
+      </c>
+      <c r="K7" s="34">
+        <v>1302</v>
+      </c>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="30"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>400</v>
       </c>
@@ -7707,7 +9244,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>413</v>
       </c>
@@ -7728,7 +9265,7 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>445</v>
       </c>
@@ -7749,7 +9286,7 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>488</v>
       </c>
@@ -7770,7 +9307,7 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>24</v>
       </c>
@@ -7793,7 +9330,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>499</v>
       </c>
@@ -7816,7 +9353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>501</v>
       </c>
@@ -7839,7 +9376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>502</v>
       </c>
@@ -7862,7 +9399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>504</v>
       </c>
@@ -8028,11 +9565,11 @@
         <v>419</v>
       </c>
       <c r="B23" s="8">
-        <f>($B$1-A23)/$B$1</f>
+        <f t="shared" ref="B23:B30" si="4">($B$1-A23)/$B$1</f>
         <v>0.17681728880157171</v>
       </c>
       <c r="C23" s="8">
-        <f>B23/$B$3</f>
+        <f t="shared" ref="C23:C30" si="5">B23/$B$3</f>
         <v>0.72580645161290325</v>
       </c>
       <c r="D23" s="8">
@@ -8051,11 +9588,11 @@
         <v>416</v>
       </c>
       <c r="B24" s="8">
-        <f>($B$1-A24)/$B$1</f>
+        <f t="shared" si="4"/>
         <v>0.18271119842829076</v>
       </c>
       <c r="C24" s="8">
-        <f>B24/$B$3</f>
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
       <c r="D24" s="8">
@@ -8074,11 +9611,11 @@
         <v>416</v>
       </c>
       <c r="B25" s="8">
-        <f>($B$1-A25)/$B$1</f>
+        <f t="shared" si="4"/>
         <v>0.18271119842829076</v>
       </c>
       <c r="C25" s="8">
-        <f>B25/$B$3</f>
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
       <c r="D25" s="8">
@@ -8097,11 +9634,11 @@
         <v>414</v>
       </c>
       <c r="B26" s="8">
-        <f>($B$1-A26)/$B$1</f>
+        <f t="shared" si="4"/>
         <v>0.18664047151277013</v>
       </c>
       <c r="C26" s="8">
-        <f>B26/$B$3</f>
+        <f t="shared" si="5"/>
         <v>0.7661290322580645</v>
       </c>
       <c r="D26" s="8">
@@ -8120,11 +9657,11 @@
         <v>414</v>
       </c>
       <c r="B27" s="8">
-        <f>($B$1-A27)/$B$1</f>
+        <f t="shared" si="4"/>
         <v>0.18664047151277013</v>
       </c>
       <c r="C27" s="8">
-        <f>B27/$B$3</f>
+        <f t="shared" si="5"/>
         <v>0.7661290322580645</v>
       </c>
       <c r="D27" s="8">
@@ -8143,11 +9680,11 @@
         <v>414</v>
       </c>
       <c r="B28" s="8">
-        <f>($B$1-A28)/$B$1</f>
+        <f t="shared" si="4"/>
         <v>0.18664047151277013</v>
       </c>
       <c r="C28" s="8">
-        <f>B28/$B$3</f>
+        <f t="shared" si="5"/>
         <v>0.7661290322580645</v>
       </c>
       <c r="D28" s="8">
@@ -8166,11 +9703,11 @@
         <v>417</v>
       </c>
       <c r="B29" s="8">
-        <f>($B$1-A29)/$B$1</f>
+        <f t="shared" si="4"/>
         <v>0.18074656188605109</v>
       </c>
       <c r="C29" s="8">
-        <f>B29/$B$3</f>
+        <f t="shared" si="5"/>
         <v>0.74193548387096786</v>
       </c>
       <c r="D29" s="8">
@@ -8189,11 +9726,11 @@
         <v>417</v>
       </c>
       <c r="B30" s="8">
-        <f>($B$1-A30)/$B$1</f>
+        <f t="shared" si="4"/>
         <v>0.18074656188605109</v>
       </c>
       <c r="C30" s="8">
-        <f>B30/$B$3</f>
+        <f t="shared" si="5"/>
         <v>0.74193548387096786</v>
       </c>
       <c r="D30" s="8">
@@ -8258,11 +9795,11 @@
         <v>456</v>
       </c>
       <c r="B33" s="15">
-        <f t="shared" ref="B33:B43" si="4">($B$1-A33)/$B$1</f>
+        <f t="shared" ref="B33:B43" si="6">($B$1-A33)/$B$1</f>
         <v>0.10412573673870335</v>
       </c>
       <c r="C33" s="15">
-        <f t="shared" ref="C33:C43" si="5">B33/$B$3</f>
+        <f t="shared" ref="C33:C43" si="7">B33/$B$3</f>
         <v>0.42741935483870969</v>
       </c>
       <c r="D33" s="15">
@@ -8281,11 +9818,11 @@
         <v>455</v>
       </c>
       <c r="B34" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.10609037328094302</v>
       </c>
       <c r="C34" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.43548387096774194</v>
       </c>
       <c r="D34" s="15">
@@ -8304,11 +9841,11 @@
         <v>454</v>
       </c>
       <c r="B35" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.10805500982318271</v>
       </c>
       <c r="C35" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.44354838709677419</v>
       </c>
       <c r="D35" s="15">
@@ -8327,11 +9864,11 @@
         <v>454</v>
       </c>
       <c r="B36" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.10805500982318271</v>
       </c>
       <c r="C36" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.44354838709677419</v>
       </c>
       <c r="D36" s="15">
@@ -8350,11 +9887,11 @@
         <v>452</v>
       </c>
       <c r="B37" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.11198428290766209</v>
       </c>
       <c r="C37" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.45967741935483875</v>
       </c>
       <c r="D37" s="15">
@@ -8373,11 +9910,11 @@
         <v>452</v>
       </c>
       <c r="B38" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.11198428290766209</v>
       </c>
       <c r="C38" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.45967741935483875</v>
       </c>
       <c r="D38" s="15">
@@ -8396,11 +9933,11 @@
         <v>452</v>
       </c>
       <c r="B39" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.11198428290766209</v>
       </c>
       <c r="C39" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.45967741935483875</v>
       </c>
       <c r="D39" s="15">
@@ -8419,11 +9956,11 @@
         <v>455</v>
       </c>
       <c r="B40" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.10609037328094302</v>
       </c>
       <c r="C40" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.43548387096774194</v>
       </c>
       <c r="D40" s="15">
@@ -8442,11 +9979,11 @@
         <v>455</v>
       </c>
       <c r="B41" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.10609037328094302</v>
       </c>
       <c r="C41" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.43548387096774194</v>
       </c>
       <c r="D41" s="15">
@@ -8465,11 +10002,11 @@
         <v>457</v>
       </c>
       <c r="B42" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.10216110019646366</v>
       </c>
       <c r="C42" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.41935483870967744</v>
       </c>
       <c r="D42" s="15">
@@ -8488,11 +10025,11 @@
         <v>455</v>
       </c>
       <c r="B43" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.10609037328094302</v>
       </c>
       <c r="C43" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.43548387096774194</v>
       </c>
       <c r="D43" s="15">
@@ -8534,11 +10071,11 @@
         <v>482</v>
       </c>
       <c r="B45" s="16">
-        <f>($B$1-A45)/$B$1</f>
+        <f t="shared" ref="B45:B57" si="8">($B$1-A45)/$B$1</f>
         <v>5.304518664047151E-2</v>
       </c>
       <c r="C45" s="16">
-        <f>B45/$B$3</f>
+        <f t="shared" ref="C45:C57" si="9">B45/$B$3</f>
         <v>0.21774193548387097</v>
       </c>
       <c r="D45" s="16">
@@ -8557,11 +10094,11 @@
         <v>481</v>
       </c>
       <c r="B46" s="16">
-        <f>($B$1-A46)/$B$1</f>
+        <f t="shared" si="8"/>
         <v>5.50098231827112E-2</v>
       </c>
       <c r="C46" s="16">
-        <f>B46/$B$3</f>
+        <f t="shared" si="9"/>
         <v>0.22580645161290325</v>
       </c>
       <c r="D46" s="16">
@@ -8580,11 +10117,11 @@
         <v>481</v>
       </c>
       <c r="B47" s="16">
-        <f>($B$1-A47)/$B$1</f>
+        <f t="shared" si="8"/>
         <v>5.50098231827112E-2</v>
       </c>
       <c r="C47" s="16">
-        <f>B47/$B$3</f>
+        <f t="shared" si="9"/>
         <v>0.22580645161290325</v>
       </c>
       <c r="D47" s="16">
@@ -8603,11 +10140,11 @@
         <v>480</v>
       </c>
       <c r="B48" s="16">
-        <f>($B$1-A48)/$B$1</f>
+        <f t="shared" si="8"/>
         <v>5.6974459724950882E-2</v>
       </c>
       <c r="C48" s="16">
-        <f>B48/$B$3</f>
+        <f t="shared" si="9"/>
         <v>0.23387096774193547</v>
       </c>
       <c r="D48" s="16">
@@ -8626,11 +10163,11 @@
         <v>479</v>
       </c>
       <c r="B49" s="16">
-        <f>($B$1-A49)/$B$1</f>
+        <f t="shared" si="8"/>
         <v>5.8939096267190572E-2</v>
       </c>
       <c r="C49" s="16">
-        <f>B49/$B$3</f>
+        <f t="shared" si="9"/>
         <v>0.24193548387096775</v>
       </c>
       <c r="D49" s="16">
@@ -8649,11 +10186,11 @@
         <v>479</v>
       </c>
       <c r="B50" s="16">
-        <f>($B$1-A50)/$B$1</f>
+        <f t="shared" si="8"/>
         <v>5.8939096267190572E-2</v>
       </c>
       <c r="C50" s="16">
-        <f>B50/$B$3</f>
+        <f t="shared" si="9"/>
         <v>0.24193548387096775</v>
       </c>
       <c r="D50" s="16">
@@ -8672,11 +10209,11 @@
         <v>478</v>
       </c>
       <c r="B51" s="16">
-        <f>($B$1-A51)/$B$1</f>
+        <f t="shared" si="8"/>
         <v>6.0903732809430254E-2</v>
       </c>
       <c r="C51" s="16">
-        <f>B51/$B$3</f>
+        <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
       <c r="D51" s="16">
@@ -8695,11 +10232,11 @@
         <v>478</v>
       </c>
       <c r="B52" s="16">
-        <f>($B$1-A52)/$B$1</f>
+        <f t="shared" si="8"/>
         <v>6.0903732809430254E-2</v>
       </c>
       <c r="C52" s="16">
-        <f>B52/$B$3</f>
+        <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
       <c r="D52" s="16">
@@ -8718,11 +10255,11 @@
         <v>478</v>
       </c>
       <c r="B53" s="16">
-        <f>($B$1-A53)/$B$1</f>
+        <f t="shared" si="8"/>
         <v>6.0903732809430254E-2</v>
       </c>
       <c r="C53" s="16">
-        <f>B53/$B$3</f>
+        <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
       <c r="D53" s="16">
@@ -8741,11 +10278,11 @@
         <v>479</v>
       </c>
       <c r="B54" s="16">
-        <f>($B$1-A54)/$B$1</f>
+        <f t="shared" si="8"/>
         <v>5.8939096267190572E-2</v>
       </c>
       <c r="C54" s="16">
-        <f>B54/$B$3</f>
+        <f t="shared" si="9"/>
         <v>0.24193548387096775</v>
       </c>
       <c r="D54" s="16">
@@ -8764,11 +10301,11 @@
         <v>480</v>
       </c>
       <c r="B55" s="16">
-        <f>($B$1-A55)/$B$1</f>
+        <f t="shared" si="8"/>
         <v>5.6974459724950882E-2</v>
       </c>
       <c r="C55" s="16">
-        <f>B55/$B$3</f>
+        <f t="shared" si="9"/>
         <v>0.23387096774193547</v>
       </c>
       <c r="D55" s="16">
@@ -8787,11 +10324,11 @@
         <v>480</v>
       </c>
       <c r="B56" s="16">
-        <f>($B$1-A56)/$B$1</f>
+        <f t="shared" si="8"/>
         <v>5.6974459724950882E-2</v>
       </c>
       <c r="C56" s="16">
-        <f>B56/$B$3</f>
+        <f t="shared" si="9"/>
         <v>0.23387096774193547</v>
       </c>
       <c r="D56" s="16">
@@ -8810,11 +10347,11 @@
         <v>478</v>
       </c>
       <c r="B57" s="16">
-        <f>($B$1-A57)/$B$1</f>
+        <f t="shared" si="8"/>
         <v>6.0903732809430254E-2</v>
       </c>
       <c r="C57" s="16">
-        <f>B57/$B$3</f>
+        <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
       <c r="D57" s="16">

--- a/BPA_Static_Characterization_Test/20mm_ForceLengthPressure/PulseTestResults.xlsx
+++ b/BPA_Static_Characterization_Test/20mm_ForceLengthPressure/PulseTestResults.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ME masters project\github\Muscle_Sensory\BPA_Static_Characterization_Test\20mm_ForceLengthPressure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B55DE7-26A7-4BD4-A12B-B82B54E7AF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FD56B5-47F4-4DA2-A045-257A28D24764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{7781AE6A-A05B-4E08-9903-F8A9B7CCFEB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{7781AE6A-A05B-4E08-9903-F8A9B7CCFEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="300mm" sheetId="4" r:id="rId3"/>
-    <sheet name="369mm" sheetId="3" r:id="rId4"/>
-    <sheet name="509mm" sheetId="5" r:id="rId5"/>
+    <sheet name="pressure calibration graph" sheetId="2" r:id="rId2"/>
+    <sheet name="force calibration graph" sheetId="7" r:id="rId3"/>
+    <sheet name="300mm" sheetId="4" r:id="rId4"/>
+    <sheet name="369mm" sheetId="3" r:id="rId5"/>
+    <sheet name="451mm" sheetId="6" r:id="rId6"/>
+    <sheet name="509mm" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="61">
   <si>
     <t>Pulse duration (ms)</t>
   </si>
@@ -209,12 +211,27 @@
   <si>
     <t>new length</t>
   </si>
+  <si>
+    <t xml:space="preserve">day1 </t>
+  </si>
+  <si>
+    <t>actual weight (N)</t>
+  </si>
+  <si>
+    <t>digital weight reading (N)</t>
+  </si>
+  <si>
+    <t>true_f_value = (f_value * 0.17204 - 0.5161) * 9.81</t>
+  </si>
+  <si>
+    <t>^Note for Ben: correct this for 451 and 509 mm readings</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,8 +239,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,6 +327,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -465,6 +499,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,7 +577,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$3</c:f>
+              <c:f>'pressure calibration graph'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -620,7 +660,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$B$4:$B$11</c:f>
+              <c:f>'pressure calibration graph'!$B$4:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -653,7 +693,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$A$4:$A$11</c:f>
+              <c:f>'pressure calibration graph'!$A$4:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1136,7 +1176,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$H$4:$H$11</c:f>
+              <c:f>'pressure calibration graph'!$H$4:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1169,7 +1209,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$G$4:$G$11</c:f>
+              <c:f>'pressure calibration graph'!$G$4:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1634,7 +1674,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$M$4:$M$10</c:f>
+              <c:f>'pressure calibration graph'!$M$4:$M$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1664,7 +1704,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$L$4:$L$10</c:f>
+              <c:f>'pressure calibration graph'!$L$4:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2041,7 +2081,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$R$4:$R$10</c:f>
+              <c:f>'pressure calibration graph'!$R$4:$R$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2071,7 +2111,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$Q$4:$Q$10</c:f>
+              <c:f>'pressure calibration graph'!$Q$4:$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2411,6 +2451,530 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>digital pressure readings day 5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>digital pressure readings day 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.35222156605424321"/>
+                  <c:y val="2.736111111111111E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pressure calibration graph'!$V$4:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>580</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'pressure calibration graph'!$U$4:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CE96-4B09-914C-F65F276D5204}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="847011560"/>
+        <c:axId val="847011920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="847011560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Digital Pressure readings</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="847011920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="847011920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dial pressure readings (kPa)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="847011560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3062,6 +3626,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5127,6 +5731,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5785,6 +6905,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>144333</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>115197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>8966</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>115196</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B666C41F-2561-4A86-9970-6B52EE2B55BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6359,10 +7517,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A98E28B-6B90-4D08-A0E5-BC3784CAF441}">
-  <dimension ref="A2:S15"/>
+  <dimension ref="A2:W15"/>
   <sheetViews>
-    <sheetView topLeftCell="N13" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6379,9 +7537,12 @@
     <col min="17" max="17" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>37</v>
       </c>
@@ -6403,8 +7564,13 @@
       </c>
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U2" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>17</v>
       </c>
@@ -6438,8 +7604,15 @@
         <v>40</v>
       </c>
       <c r="S3" s="20"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U3" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="35"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>0</v>
       </c>
@@ -6471,8 +7644,15 @@
         <v>22</v>
       </c>
       <c r="S4" s="20"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U4" s="35">
+        <v>0</v>
+      </c>
+      <c r="V4" s="35">
+        <v>22</v>
+      </c>
+      <c r="W4" s="35"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>200</v>
       </c>
@@ -6502,8 +7682,15 @@
         <v>168</v>
       </c>
       <c r="S5" s="20"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U5" s="35">
+        <v>200</v>
+      </c>
+      <c r="V5" s="35">
+        <v>174</v>
+      </c>
+      <c r="W5" s="35"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>300</v>
       </c>
@@ -6533,8 +7720,15 @@
         <v>261</v>
       </c>
       <c r="S6" s="20"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U6" s="35">
+        <v>300</v>
+      </c>
+      <c r="V6" s="35">
+        <v>262</v>
+      </c>
+      <c r="W6" s="35"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>400</v>
       </c>
@@ -6564,8 +7758,15 @@
         <v>349</v>
       </c>
       <c r="S7" s="20"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U7" s="35">
+        <v>400</v>
+      </c>
+      <c r="V7" s="35">
+        <v>347</v>
+      </c>
+      <c r="W7" s="35"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>500</v>
       </c>
@@ -6595,8 +7796,15 @@
         <v>446</v>
       </c>
       <c r="S8" s="20"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U8" s="35">
+        <v>500</v>
+      </c>
+      <c r="V8" s="35">
+        <v>432</v>
+      </c>
+      <c r="W8" s="35"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>600</v>
       </c>
@@ -6626,8 +7834,15 @@
         <v>529</v>
       </c>
       <c r="S9" s="20"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U9" s="35">
+        <v>600</v>
+      </c>
+      <c r="V9" s="35">
+        <v>535</v>
+      </c>
+      <c r="W9" s="35"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>620</v>
       </c>
@@ -6657,8 +7872,15 @@
         <v>580</v>
       </c>
       <c r="S10" s="20"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U10" s="35">
+        <v>650</v>
+      </c>
+      <c r="V10" s="35">
+        <v>580</v>
+      </c>
+      <c r="W10" s="35"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>700</v>
       </c>
@@ -6680,8 +7902,11 @@
       <c r="Q11" s="20"/>
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -6695,8 +7920,11 @@
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -6710,8 +7938,11 @@
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>20</v>
       </c>
@@ -6741,8 +7972,15 @@
       <c r="S14" s="20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U14" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>363</v>
       </c>
@@ -6764,6 +8002,11 @@
       </c>
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
+      <c r="U15" s="35">
+        <v>451</v>
+      </c>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6772,11 +8015,102 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E08DF4-79F7-441A-B832-864DEA632AF7}">
+  <dimension ref="C3:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <f>16*9.81</f>
+        <v>156.96</v>
+      </c>
+      <c r="D6">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <f>17*9.81</f>
+        <v>166.77</v>
+      </c>
+      <c r="D7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <f>18*9.81</f>
+        <v>176.58</v>
+      </c>
+      <c r="D8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <f>19*9.81</f>
+        <v>186.39000000000001</v>
+      </c>
+      <c r="D9">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <f>20*9.81</f>
+        <v>196.20000000000002</v>
+      </c>
+      <c r="D10">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A16763-ED46-4079-BBBB-F27EBF19559A}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7876,12 +9210,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2708FD-2F43-4DD2-A436-851B1200C17D}">
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9064,12 +10398,1313 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E1E9D2-B33D-45CD-A68E-D7F65B100D82}">
+  <dimension ref="A1:G58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1">
+        <v>451</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>334</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <f>(B1-B2)/B1</f>
+        <v>0.25942350332594233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="36">
+        <v>334</v>
+      </c>
+      <c r="B6" s="36">
+        <f>($B$1-A6)/$B$1</f>
+        <v>0.25942350332594233</v>
+      </c>
+      <c r="C6" s="36">
+        <f>B6/$B$3</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="36">
+        <v>620</v>
+      </c>
+      <c r="E6" s="36">
+        <v>0</v>
+      </c>
+      <c r="F6" s="36">
+        <v>451</v>
+      </c>
+      <c r="G6" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="36">
+        <v>340</v>
+      </c>
+      <c r="B7" s="36">
+        <f t="shared" ref="B7:B11" si="0">($B$1-A7)/$B$1</f>
+        <v>0.24611973392461198</v>
+      </c>
+      <c r="C7" s="36">
+        <f t="shared" ref="C7:C11" si="1">B7/$B$3</f>
+        <v>0.94871794871794879</v>
+      </c>
+      <c r="D7" s="36">
+        <v>509</v>
+      </c>
+      <c r="E7" s="36">
+        <v>0</v>
+      </c>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="36">
+        <v>345</v>
+      </c>
+      <c r="B8" s="36">
+        <f t="shared" si="0"/>
+        <v>0.23503325942350334</v>
+      </c>
+      <c r="C8" s="36">
+        <f t="shared" si="1"/>
+        <v>0.90598290598290609</v>
+      </c>
+      <c r="D8" s="36">
+        <v>398</v>
+      </c>
+      <c r="E8" s="36">
+        <v>0</v>
+      </c>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="36">
+        <v>360</v>
+      </c>
+      <c r="B9" s="36">
+        <f t="shared" si="0"/>
+        <v>0.20177383592017739</v>
+      </c>
+      <c r="C9" s="36">
+        <f t="shared" si="1"/>
+        <v>0.7777777777777779</v>
+      </c>
+      <c r="D9" s="36">
+        <v>297</v>
+      </c>
+      <c r="E9" s="36">
+        <v>0</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="36">
+        <v>374</v>
+      </c>
+      <c r="B10" s="36">
+        <f t="shared" si="0"/>
+        <v>0.17073170731707318</v>
+      </c>
+      <c r="C10" s="36">
+        <f t="shared" si="1"/>
+        <v>0.65811965811965822</v>
+      </c>
+      <c r="D10" s="36">
+        <v>205</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0</v>
+      </c>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="36">
+        <v>421</v>
+      </c>
+      <c r="B11" s="36">
+        <f t="shared" si="0"/>
+        <v>6.6518847006651879E-2</v>
+      </c>
+      <c r="C11" s="36">
+        <f t="shared" si="1"/>
+        <v>0.25641025641025639</v>
+      </c>
+      <c r="D11" s="36">
+        <v>100</v>
+      </c>
+      <c r="E11" s="36">
+        <v>0</v>
+      </c>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>440</v>
+      </c>
+      <c r="B13" s="13">
+        <f>($B$1-A13)/$B$1</f>
+        <v>2.4390243902439025E-2</v>
+      </c>
+      <c r="C13" s="13">
+        <f>B13/$B$3</f>
+        <v>9.401709401709403E-2</v>
+      </c>
+      <c r="D13" s="13">
+        <v>623</v>
+      </c>
+      <c r="E13" s="13">
+        <v>1281</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>440</v>
+      </c>
+      <c r="B14" s="13">
+        <f t="shared" ref="B14:B23" si="2">($B$1-A14)/$B$1</f>
+        <v>2.4390243902439025E-2</v>
+      </c>
+      <c r="C14" s="13">
+        <f t="shared" ref="C14:C23" si="3">B14/$B$3</f>
+        <v>9.401709401709403E-2</v>
+      </c>
+      <c r="D14" s="13">
+        <v>595</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1221</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>441</v>
+      </c>
+      <c r="B15" s="13">
+        <f t="shared" si="2"/>
+        <v>2.2172949002217297E-2</v>
+      </c>
+      <c r="C15" s="13">
+        <f t="shared" si="3"/>
+        <v>8.5470085470085486E-2</v>
+      </c>
+      <c r="D15" s="13">
+        <v>501</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1006</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>442</v>
+      </c>
+      <c r="B16" s="13">
+        <f t="shared" si="2"/>
+        <v>1.9955654101995565E-2</v>
+      </c>
+      <c r="C16" s="13">
+        <f t="shared" si="3"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="D16" s="13">
+        <v>403</v>
+      </c>
+      <c r="E16" s="13">
+        <v>786</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>443</v>
+      </c>
+      <c r="B17" s="13">
+        <f t="shared" si="2"/>
+        <v>1.7738359201773836E-2</v>
+      </c>
+      <c r="C17" s="13">
+        <f t="shared" si="3"/>
+        <v>6.8376068376068383E-2</v>
+      </c>
+      <c r="D17" s="13">
+        <v>198</v>
+      </c>
+      <c r="E17" s="13">
+        <v>325</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>444</v>
+      </c>
+      <c r="B18" s="13">
+        <f t="shared" si="2"/>
+        <v>1.5521064301552107E-2</v>
+      </c>
+      <c r="C18" s="13">
+        <f t="shared" si="3"/>
+        <v>5.9829059829059839E-2</v>
+      </c>
+      <c r="D18" s="13">
+        <v>115</v>
+      </c>
+      <c r="E18" s="13">
+        <v>138</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
+        <v>443</v>
+      </c>
+      <c r="B19" s="13">
+        <f t="shared" si="2"/>
+        <v>1.7738359201773836E-2</v>
+      </c>
+      <c r="C19" s="13">
+        <f t="shared" si="3"/>
+        <v>6.8376068376068383E-2</v>
+      </c>
+      <c r="D19" s="13">
+        <v>251</v>
+      </c>
+      <c r="E19" s="13">
+        <v>444</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
+        <v>442</v>
+      </c>
+      <c r="B20" s="13">
+        <f t="shared" si="2"/>
+        <v>1.9955654101995565E-2</v>
+      </c>
+      <c r="C20" s="13">
+        <f t="shared" si="3"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="D20" s="13">
+        <v>350</v>
+      </c>
+      <c r="E20" s="13">
+        <v>663</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
+        <v>442</v>
+      </c>
+      <c r="B21" s="13">
+        <f t="shared" si="2"/>
+        <v>1.9955654101995565E-2</v>
+      </c>
+      <c r="C21" s="13">
+        <f t="shared" si="3"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="D21" s="13">
+        <v>448</v>
+      </c>
+      <c r="E21" s="13">
+        <v>882</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
+        <v>440</v>
+      </c>
+      <c r="B22" s="13">
+        <f t="shared" si="2"/>
+        <v>2.4390243902439025E-2</v>
+      </c>
+      <c r="C22" s="13">
+        <f t="shared" si="3"/>
+        <v>9.401709401709403E-2</v>
+      </c>
+      <c r="D22" s="13">
+        <v>543</v>
+      </c>
+      <c r="E22" s="13">
+        <v>1097</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <v>442</v>
+      </c>
+      <c r="B23" s="13">
+        <f t="shared" si="2"/>
+        <v>1.9955654101995565E-2</v>
+      </c>
+      <c r="C23" s="13">
+        <f t="shared" si="3"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="D23" s="13">
+        <v>290</v>
+      </c>
+      <c r="E23" s="13">
+        <v>528</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="37">
+        <v>447</v>
+      </c>
+      <c r="B25" s="37">
+        <f>($B$1-A25)/$B$1</f>
+        <v>8.869179600886918E-3</v>
+      </c>
+      <c r="C25" s="37">
+        <f>B25/$B$3</f>
+        <v>3.4188034188034191E-2</v>
+      </c>
+      <c r="D25" s="37">
+        <v>234</v>
+      </c>
+      <c r="E25" s="37">
+        <v>463</v>
+      </c>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="37">
+        <v>446</v>
+      </c>
+      <c r="B26" s="37">
+        <f>($B$1-A26)/$B$1</f>
+        <v>1.1086474501108648E-2</v>
+      </c>
+      <c r="C26" s="37">
+        <f>B26/$B$3</f>
+        <v>4.2735042735042743E-2</v>
+      </c>
+      <c r="D26" s="37">
+        <v>360</v>
+      </c>
+      <c r="E26" s="37">
+        <v>749</v>
+      </c>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="37">
+        <v>445</v>
+      </c>
+      <c r="B27" s="37">
+        <f>($B$1-A27)/$B$1</f>
+        <v>1.3303769401330377E-2</v>
+      </c>
+      <c r="C27" s="37">
+        <f>B27/$B$3</f>
+        <v>5.1282051282051287E-2</v>
+      </c>
+      <c r="D27" s="37">
+        <v>449</v>
+      </c>
+      <c r="E27" s="37">
+        <v>952</v>
+      </c>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="37">
+        <v>445</v>
+      </c>
+      <c r="B28" s="37">
+        <f>($B$1-A28)/$B$1</f>
+        <v>1.3303769401330377E-2</v>
+      </c>
+      <c r="C28" s="37">
+        <f>B28/$B$3</f>
+        <v>5.1282051282051287E-2</v>
+      </c>
+      <c r="D28" s="37">
+        <v>502</v>
+      </c>
+      <c r="E28" s="37">
+        <v>1072</v>
+      </c>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="37">
+        <v>444</v>
+      </c>
+      <c r="B29" s="37">
+        <f>($B$1-A29)/$B$1</f>
+        <v>1.5521064301552107E-2</v>
+      </c>
+      <c r="C29" s="37">
+        <f>B29/$B$3</f>
+        <v>5.9829059829059839E-2</v>
+      </c>
+      <c r="D29" s="37">
+        <v>552</v>
+      </c>
+      <c r="E29" s="37">
+        <v>1185</v>
+      </c>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="37">
+        <v>444</v>
+      </c>
+      <c r="B30" s="37">
+        <f>($B$1-A30)/$B$1</f>
+        <v>1.5521064301552107E-2</v>
+      </c>
+      <c r="C30" s="37">
+        <f>B30/$B$3</f>
+        <v>5.9829059829059839E-2</v>
+      </c>
+      <c r="D30" s="37">
+        <v>604</v>
+      </c>
+      <c r="E30" s="37">
+        <v>1293</v>
+      </c>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="37">
+        <v>443</v>
+      </c>
+      <c r="B31" s="37">
+        <f>($B$1-A31)/$B$1</f>
+        <v>1.7738359201773836E-2</v>
+      </c>
+      <c r="C31" s="37">
+        <f>B31/$B$3</f>
+        <v>6.8376068376068383E-2</v>
+      </c>
+      <c r="D31" s="37">
+        <v>620</v>
+      </c>
+      <c r="E31" s="37">
+        <v>1324</v>
+      </c>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="37">
+        <v>444</v>
+      </c>
+      <c r="B32" s="37">
+        <f>($B$1-A32)/$B$1</f>
+        <v>1.5521064301552107E-2</v>
+      </c>
+      <c r="C32" s="37">
+        <f>B32/$B$3</f>
+        <v>5.9829059829059839E-2</v>
+      </c>
+      <c r="D32" s="37">
+        <v>469</v>
+      </c>
+      <c r="E32" s="37">
+        <v>981</v>
+      </c>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="37">
+        <v>445</v>
+      </c>
+      <c r="B33" s="37">
+        <f>($B$1-A33)/$B$1</f>
+        <v>1.3303769401330377E-2</v>
+      </c>
+      <c r="C33" s="37">
+        <f>B33/$B$3</f>
+        <v>5.1282051282051287E-2</v>
+      </c>
+      <c r="D33" s="37">
+        <v>285</v>
+      </c>
+      <c r="E33" s="37">
+        <v>561</v>
+      </c>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="37">
+        <v>447</v>
+      </c>
+      <c r="B34" s="37">
+        <f>($B$1-A34)/$B$1</f>
+        <v>8.869179600886918E-3</v>
+      </c>
+      <c r="C34" s="37">
+        <f>B34/$B$3</f>
+        <v>3.4188034188034191E-2</v>
+      </c>
+      <c r="D34" s="37">
+        <v>164</v>
+      </c>
+      <c r="E34" s="37">
+        <v>285</v>
+      </c>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="17">
+        <v>437</v>
+      </c>
+      <c r="B36" s="17">
+        <f>($B$1-A36)/$B$1</f>
+        <v>3.1042128603104215E-2</v>
+      </c>
+      <c r="C36" s="17">
+        <f>B36/$B$3</f>
+        <v>0.11965811965811968</v>
+      </c>
+      <c r="D36" s="17">
+        <v>175</v>
+      </c>
+      <c r="E36" s="17">
+        <v>108</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="17">
+        <v>432</v>
+      </c>
+      <c r="B37" s="17">
+        <f>($B$1-A37)/$B$1</f>
+        <v>4.2128603104212861E-2</v>
+      </c>
+      <c r="C37" s="17">
+        <f>B37/$B$3</f>
+        <v>0.1623931623931624</v>
+      </c>
+      <c r="D37" s="17">
+        <v>249</v>
+      </c>
+      <c r="E37" s="17">
+        <v>267</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="17">
+        <v>431</v>
+      </c>
+      <c r="B38" s="17">
+        <f>($B$1-A38)/$B$1</f>
+        <v>4.4345898004434593E-2</v>
+      </c>
+      <c r="C38" s="17">
+        <f>B38/$B$3</f>
+        <v>0.17094017094017097</v>
+      </c>
+      <c r="D38" s="17">
+        <v>301</v>
+      </c>
+      <c r="E38" s="17">
+        <v>380</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="17">
+        <v>431</v>
+      </c>
+      <c r="B39" s="17">
+        <f>($B$1-A39)/$B$1</f>
+        <v>4.4345898004434593E-2</v>
+      </c>
+      <c r="C39" s="17">
+        <f>B39/$B$3</f>
+        <v>0.17094017094017097</v>
+      </c>
+      <c r="D39" s="17">
+        <v>402</v>
+      </c>
+      <c r="E39" s="17">
+        <v>591</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="17">
+        <v>430</v>
+      </c>
+      <c r="B40" s="17">
+        <f>($B$1-A40)/$B$1</f>
+        <v>4.6563192904656318E-2</v>
+      </c>
+      <c r="C40" s="17">
+        <f>B40/$B$3</f>
+        <v>0.17948717948717949</v>
+      </c>
+      <c r="D40" s="17">
+        <v>498</v>
+      </c>
+      <c r="E40" s="17">
+        <v>794</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="17">
+        <v>429</v>
+      </c>
+      <c r="B41" s="17">
+        <f>($B$1-A41)/$B$1</f>
+        <v>4.878048780487805E-2</v>
+      </c>
+      <c r="C41" s="17">
+        <f>B41/$B$3</f>
+        <v>0.18803418803418806</v>
+      </c>
+      <c r="D41" s="17">
+        <v>598</v>
+      </c>
+      <c r="E41" s="17">
+        <v>1003</v>
+      </c>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="17">
+        <v>429</v>
+      </c>
+      <c r="B42" s="17">
+        <f>($B$1-A42)/$B$1</f>
+        <v>4.878048780487805E-2</v>
+      </c>
+      <c r="C42" s="17">
+        <f>B42/$B$3</f>
+        <v>0.18803418803418806</v>
+      </c>
+      <c r="D42" s="17">
+        <v>615</v>
+      </c>
+      <c r="E42" s="17">
+        <v>1038</v>
+      </c>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="17">
+        <v>429</v>
+      </c>
+      <c r="B43" s="17">
+        <f>($B$1-A43)/$B$1</f>
+        <v>4.878048780487805E-2</v>
+      </c>
+      <c r="C43" s="17">
+        <f>B43/$B$3</f>
+        <v>0.18803418803418806</v>
+      </c>
+      <c r="D43" s="17">
+        <v>555</v>
+      </c>
+      <c r="E43" s="17">
+        <v>915</v>
+      </c>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="17">
+        <v>430</v>
+      </c>
+      <c r="B44" s="17">
+        <f>($B$1-A44)/$B$1</f>
+        <v>4.6563192904656318E-2</v>
+      </c>
+      <c r="C44" s="17">
+        <f>B44/$B$3</f>
+        <v>0.17948717948717949</v>
+      </c>
+      <c r="D44" s="17">
+        <v>455</v>
+      </c>
+      <c r="E44" s="17">
+        <v>710</v>
+      </c>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="17">
+        <v>431</v>
+      </c>
+      <c r="B45" s="17">
+        <f>($B$1-A45)/$B$1</f>
+        <v>4.4345898004434593E-2</v>
+      </c>
+      <c r="C45" s="17">
+        <f>B45/$B$3</f>
+        <v>0.17094017094017097</v>
+      </c>
+      <c r="D45" s="17">
+        <v>346</v>
+      </c>
+      <c r="E45" s="17">
+        <v>481</v>
+      </c>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="17">
+        <v>432</v>
+      </c>
+      <c r="B46" s="17">
+        <f>($B$1-A46)/$B$1</f>
+        <v>4.2128603104212861E-2</v>
+      </c>
+      <c r="C46" s="17">
+        <f>B46/$B$3</f>
+        <v>0.1623931623931624</v>
+      </c>
+      <c r="D46" s="17">
+        <v>201</v>
+      </c>
+      <c r="E46" s="17">
+        <v>180</v>
+      </c>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="16">
+        <v>414</v>
+      </c>
+      <c r="B48" s="16">
+        <f>($B$1-A48)/$B$1</f>
+        <v>8.2039911308203997E-2</v>
+      </c>
+      <c r="C48" s="16">
+        <f>B48/$B$3</f>
+        <v>0.31623931623931628</v>
+      </c>
+      <c r="D48" s="16">
+        <v>145</v>
+      </c>
+      <c r="E48" s="16">
+        <v>0</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="16">
+        <v>414</v>
+      </c>
+      <c r="B49" s="16">
+        <f>($B$1-A49)/$B$1</f>
+        <v>8.2039911308203997E-2</v>
+      </c>
+      <c r="C49" s="16">
+        <f>B49/$B$3</f>
+        <v>0.31623931623931628</v>
+      </c>
+      <c r="D49" s="16">
+        <v>250</v>
+      </c>
+      <c r="E49" s="16">
+        <v>134</v>
+      </c>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="16">
+        <v>413</v>
+      </c>
+      <c r="B50" s="16">
+        <f>($B$1-A50)/$B$1</f>
+        <v>8.4257206208425722E-2</v>
+      </c>
+      <c r="C50" s="16">
+        <f>B50/$B$3</f>
+        <v>0.3247863247863248</v>
+      </c>
+      <c r="D50" s="16">
+        <v>350</v>
+      </c>
+      <c r="E50" s="16">
+        <v>317</v>
+      </c>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="16">
+        <v>411</v>
+      </c>
+      <c r="B51" s="16">
+        <f>($B$1-A51)/$B$1</f>
+        <v>8.8691796008869186E-2</v>
+      </c>
+      <c r="C51" s="16">
+        <f>B51/$B$3</f>
+        <v>0.34188034188034194</v>
+      </c>
+      <c r="D51" s="16">
+        <v>451</v>
+      </c>
+      <c r="E51" s="16">
+        <v>500</v>
+      </c>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="16">
+        <v>411</v>
+      </c>
+      <c r="B52" s="16">
+        <f>($B$1-A52)/$B$1</f>
+        <v>8.8691796008869186E-2</v>
+      </c>
+      <c r="C52" s="16">
+        <f>B52/$B$3</f>
+        <v>0.34188034188034194</v>
+      </c>
+      <c r="D52" s="16">
+        <v>501</v>
+      </c>
+      <c r="E52" s="16">
+        <v>585</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="16">
+        <v>410</v>
+      </c>
+      <c r="B53" s="16">
+        <f>($B$1-A53)/$B$1</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="C53" s="16">
+        <f>B53/$B$3</f>
+        <v>0.35042735042735046</v>
+      </c>
+      <c r="D53" s="16">
+        <v>550</v>
+      </c>
+      <c r="E53" s="16">
+        <v>670</v>
+      </c>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="16">
+        <v>410</v>
+      </c>
+      <c r="B54" s="16">
+        <f>($B$1-A54)/$B$1</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="C54" s="16">
+        <f>B54/$B$3</f>
+        <v>0.35042735042735046</v>
+      </c>
+      <c r="D54" s="16">
+        <v>603</v>
+      </c>
+      <c r="E54" s="16">
+        <v>758</v>
+      </c>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="16">
+        <v>409</v>
+      </c>
+      <c r="B55" s="16">
+        <f>($B$1-A55)/$B$1</f>
+        <v>9.3126385809312637E-2</v>
+      </c>
+      <c r="C55" s="16">
+        <f>B55/$B$3</f>
+        <v>0.35897435897435898</v>
+      </c>
+      <c r="D55" s="16">
+        <v>621</v>
+      </c>
+      <c r="E55" s="16">
+        <v>790</v>
+      </c>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="16">
+        <v>411</v>
+      </c>
+      <c r="B56" s="16">
+        <f>($B$1-A56)/$B$1</f>
+        <v>8.8691796008869186E-2</v>
+      </c>
+      <c r="C56" s="16">
+        <f>B56/$B$3</f>
+        <v>0.34188034188034194</v>
+      </c>
+      <c r="D56" s="16">
+        <v>399</v>
+      </c>
+      <c r="E56" s="16">
+        <v>417</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="16">
+        <v>413</v>
+      </c>
+      <c r="B57" s="16">
+        <f>($B$1-A57)/$B$1</f>
+        <v>8.4257206208425722E-2</v>
+      </c>
+      <c r="C57" s="16">
+        <f>B57/$B$3</f>
+        <v>0.3247863247863248</v>
+      </c>
+      <c r="D57" s="16">
+        <v>300</v>
+      </c>
+      <c r="E57" s="16">
+        <v>250</v>
+      </c>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="16">
+        <v>414</v>
+      </c>
+      <c r="B58" s="16">
+        <f>($B$1-A58)/$B$1</f>
+        <v>8.2039911308203997E-2</v>
+      </c>
+      <c r="C58" s="16">
+        <f>B58/$B$3</f>
+        <v>0.31623931623931628</v>
+      </c>
+      <c r="D58" s="16">
+        <v>199</v>
+      </c>
+      <c r="E58" s="16">
+        <v>75</v>
+      </c>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBF1152-E7B1-408E-98FD-CDD3D8B4640C}">
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:N7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9077,6 +11712,7 @@
     <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>

--- a/BPA_Static_Characterization_Test/20mm_ForceLengthPressure/PulseTestResults.xlsx
+++ b/BPA_Static_Characterization_Test/20mm_ForceLengthPressure/PulseTestResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ME masters project\github\Muscle_Sensory\BPA_Static_Characterization_Test\20mm_ForceLengthPressure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FD56B5-47F4-4DA2-A045-257A28D24764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCDCFD3F-D414-400E-8887-DE5DB62C93C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{7781AE6A-A05B-4E08-9903-F8A9B7CCFEB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{7781AE6A-A05B-4E08-9903-F8A9B7CCFEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="62">
   <si>
     <t>Pulse duration (ms)</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>^Note for Ben: correct this for 451 and 509 mm readings</t>
+  </si>
+  <si>
+    <t>round 2</t>
   </si>
 </sst>
 </file>
@@ -8018,7 +8021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E08DF4-79F7-441A-B832-864DEA632AF7}">
   <dimension ref="C3:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -8107,10 +8110,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A16763-ED46-4079-BBBB-F27EBF19559A}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9187,7 +9190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -9196,7 +9199,7 @@
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -9204,6 +9207,71 @@
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56">
+        <v>297</v>
+      </c>
+      <c r="D56" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57">
+        <v>225</v>
+      </c>
+      <c r="H57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58">
+        <f>(B56-B57)/B56</f>
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="H58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BPA_Static_Characterization_Test/20mm_ForceLengthPressure/PulseTestResults.xlsx
+++ b/BPA_Static_Characterization_Test/20mm_ForceLengthPressure/PulseTestResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ME masters project\github\Muscle_Sensory\BPA_Static_Characterization_Test\20mm_ForceLengthPressure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCDCFD3F-D414-400E-8887-DE5DB62C93C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC4A94C-915F-4947-B26D-0992BC240CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{7781AE6A-A05B-4E08-9903-F8A9B7CCFEB8}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="63">
   <si>
     <t>Pulse duration (ms)</t>
   </si>
@@ -229,12 +229,15 @@
   <si>
     <t>round 2</t>
   </si>
+  <si>
+    <t>chosen heights</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +249,12 @@
       <sz val="10"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="17">
@@ -464,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -508,6 +517,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8021,7 +8034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E08DF4-79F7-441A-B832-864DEA632AF7}">
   <dimension ref="C3:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -8110,10 +8123,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A16763-ED46-4079-BBBB-F27EBF19559A}">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8121,6 +8134,7 @@
     <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -9218,7 +9232,7 @@
         <v>21</v>
       </c>
       <c r="B56">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D56" t="s">
         <v>34</v>
@@ -9244,34 +9258,1204 @@
       </c>
       <c r="B58">
         <f>(B56-B57)/B56</f>
-        <v>0.24242424242424243</v>
+        <v>0.25</v>
       </c>
       <c r="H58" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="16" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="16">
+        <v>225</v>
+      </c>
+      <c r="B61" s="16">
+        <f>($B$56-A61)/$B$56</f>
+        <v>0.25</v>
+      </c>
+      <c r="C61" s="16">
+        <f>B61/$B$58</f>
+        <v>1</v>
+      </c>
+      <c r="D61" s="16">
+        <v>622</v>
+      </c>
+      <c r="E61" s="16">
+        <v>0</v>
+      </c>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="16">
+        <v>229</v>
+      </c>
+      <c r="B62" s="16">
+        <f t="shared" ref="B61:B72" si="10">($B$1-A62)/$B$1</f>
+        <v>0.22895622895622897</v>
+      </c>
+      <c r="C62" s="16">
+        <f t="shared" ref="C62:C66" si="11">B62/$B$58</f>
+        <v>0.91582491582491588</v>
+      </c>
+      <c r="D62" s="16">
+        <v>499</v>
+      </c>
+      <c r="E62" s="16">
+        <v>0</v>
+      </c>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="16">
+        <v>233</v>
+      </c>
+      <c r="B63" s="16">
+        <f t="shared" si="10"/>
+        <v>0.21548821548821548</v>
+      </c>
+      <c r="C63" s="16">
+        <f t="shared" si="11"/>
+        <v>0.86195286195286192</v>
+      </c>
+      <c r="D63" s="16">
+        <v>395</v>
+      </c>
+      <c r="E63" s="16">
+        <v>0</v>
+      </c>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="16">
+        <v>241</v>
+      </c>
+      <c r="B64" s="16">
+        <f t="shared" si="10"/>
+        <v>0.18855218855218855</v>
+      </c>
+      <c r="C64" s="16">
+        <f t="shared" si="11"/>
+        <v>0.75420875420875422</v>
+      </c>
+      <c r="D64" s="16">
+        <v>299</v>
+      </c>
+      <c r="E64" s="16">
+        <v>0</v>
+      </c>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="16">
+        <v>256</v>
+      </c>
+      <c r="B65" s="16">
+        <f t="shared" si="10"/>
+        <v>0.13804713804713806</v>
+      </c>
+      <c r="C65" s="16">
+        <f t="shared" si="11"/>
+        <v>0.55218855218855223</v>
+      </c>
+      <c r="D65" s="16">
+        <v>200</v>
+      </c>
+      <c r="E65" s="16">
+        <v>0</v>
+      </c>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="16">
+        <v>288</v>
+      </c>
+      <c r="B66" s="16">
+        <f t="shared" si="10"/>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="C66" s="16">
+        <f t="shared" si="11"/>
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="D66" s="16">
+        <v>101</v>
+      </c>
+      <c r="E66" s="16">
+        <v>0</v>
+      </c>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="11">
+        <v>299</v>
+      </c>
+      <c r="B68" s="11">
+        <f>($B$56-A68)/$B$56</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="C68" s="11">
+        <f>B68/$B$58</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="D68" s="11">
+        <v>136</v>
+      </c>
+      <c r="E68" s="11">
+        <v>223</v>
+      </c>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="11">
+        <v>298</v>
+      </c>
+      <c r="B69" s="11">
+        <f t="shared" ref="B69:B77" si="12">($B$56-A69)/$B$56</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="C69" s="11">
+        <f t="shared" ref="C69:C77" si="13">B69/$B$58</f>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="D69" s="11">
+        <v>208</v>
+      </c>
+      <c r="E69" s="11">
+        <v>373</v>
+      </c>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="11">
+        <v>297</v>
+      </c>
+      <c r="B70" s="11">
+        <f t="shared" si="12"/>
+        <v>0.01</v>
+      </c>
+      <c r="C70" s="11">
+        <f t="shared" si="13"/>
+        <v>0.04</v>
+      </c>
+      <c r="D70" s="11">
+        <v>304</v>
+      </c>
+      <c r="E70" s="11">
+        <v>575</v>
+      </c>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="11">
+        <v>296</v>
+      </c>
+      <c r="B71" s="11">
+        <f t="shared" si="12"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="C71" s="11">
+        <f t="shared" si="13"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="D71" s="11">
+        <v>397</v>
+      </c>
+      <c r="E71" s="11">
+        <v>765</v>
+      </c>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="39">
+        <v>294</v>
+      </c>
+      <c r="B72" s="39">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="C72" s="39">
+        <f t="shared" si="13"/>
+        <v>0.08</v>
+      </c>
+      <c r="D72" s="39">
+        <v>502</v>
+      </c>
+      <c r="E72" s="39">
+        <v>970</v>
+      </c>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="39">
+        <v>293</v>
+      </c>
+      <c r="B73" s="39">
+        <f t="shared" si="12"/>
+        <v>2.3333333333333334E-2</v>
+      </c>
+      <c r="C73" s="39">
+        <f t="shared" si="13"/>
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="D73" s="39">
+        <v>595</v>
+      </c>
+      <c r="E73" s="39">
+        <v>1136</v>
+      </c>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="39">
+        <v>292</v>
+      </c>
+      <c r="B74" s="39">
+        <f t="shared" si="12"/>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="C74" s="39">
+        <f t="shared" si="13"/>
+        <v>0.10666666666666667</v>
+      </c>
+      <c r="D74" s="39">
+        <v>620</v>
+      </c>
+      <c r="E74" s="39">
+        <v>1182</v>
+      </c>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="39">
+        <v>294</v>
+      </c>
+      <c r="B75" s="39">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="C75" s="39">
+        <f t="shared" si="13"/>
+        <v>0.08</v>
+      </c>
+      <c r="D75" s="39">
+        <v>431</v>
+      </c>
+      <c r="E75" s="39">
+        <v>783</v>
+      </c>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="39">
+        <v>294</v>
+      </c>
+      <c r="B76" s="39">
+        <f t="shared" si="12"/>
+        <v>0.02</v>
+      </c>
+      <c r="C76" s="39">
+        <f t="shared" si="13"/>
+        <v>0.08</v>
+      </c>
+      <c r="D76" s="39">
+        <v>354</v>
+      </c>
+      <c r="E76" s="39">
+        <v>617</v>
+      </c>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39">
+        <v>0</v>
+      </c>
+      <c r="J76" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="K76" s="41">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="39">
+        <v>295</v>
+      </c>
+      <c r="B77" s="39">
+        <f t="shared" si="12"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="C77" s="39">
+        <f t="shared" si="13"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D77" s="39">
+        <v>249</v>
+      </c>
+      <c r="E77" s="39">
+        <v>390</v>
+      </c>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J78">
+        <f>300*0.75</f>
+        <v>225</v>
+      </c>
+      <c r="K78">
+        <f>300*0.8</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="40">
+        <v>271</v>
+      </c>
+      <c r="B79" s="8">
+        <f>($B$56-A79)/$B$56</f>
+        <v>9.6666666666666665E-2</v>
+      </c>
+      <c r="C79" s="8">
+        <f>B79/$B$58</f>
+        <v>0.38666666666666666</v>
+      </c>
+      <c r="D79" s="8">
+        <v>188</v>
+      </c>
+      <c r="E79" s="8">
+        <v>0</v>
+      </c>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
+        <v>62</v>
+      </c>
+      <c r="J79">
+        <v>230</v>
+      </c>
+      <c r="K79">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="8">
+        <v>271</v>
+      </c>
+      <c r="B80" s="8">
+        <f>($B$56-A80)/$B$56</f>
+        <v>9.6666666666666665E-2</v>
+      </c>
+      <c r="C80" s="8">
+        <f>B80/$B$58</f>
+        <v>0.38666666666666666</v>
+      </c>
+      <c r="D80" s="8">
+        <v>297</v>
+      </c>
+      <c r="E80" s="8">
+        <v>169</v>
+      </c>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="8">
+        <v>270</v>
+      </c>
+      <c r="B81" s="8">
+        <f t="shared" ref="B81:B88" si="14">($B$56-A81)/$B$56</f>
+        <v>0.1</v>
+      </c>
+      <c r="C81" s="8">
+        <f t="shared" ref="C81:C88" si="15">B81/$B$58</f>
+        <v>0.4</v>
+      </c>
+      <c r="D81" s="8">
+        <v>402</v>
+      </c>
+      <c r="E81" s="8">
+        <v>342</v>
+      </c>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="8">
+        <v>270</v>
+      </c>
+      <c r="B82" s="8">
+        <f t="shared" si="14"/>
+        <v>0.1</v>
+      </c>
+      <c r="C82" s="8">
+        <f t="shared" si="15"/>
+        <v>0.4</v>
+      </c>
+      <c r="D82" s="8">
+        <v>499</v>
+      </c>
+      <c r="E82" s="8">
+        <v>498</v>
+      </c>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="8">
+        <v>269</v>
+      </c>
+      <c r="B83" s="8">
+        <f t="shared" si="14"/>
+        <v>0.10333333333333333</v>
+      </c>
+      <c r="C83" s="8">
+        <f t="shared" si="15"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="D83" s="8">
+        <v>599</v>
+      </c>
+      <c r="E83" s="8">
+        <v>656</v>
+      </c>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="8">
+        <v>269</v>
+      </c>
+      <c r="B84" s="8">
+        <f t="shared" si="14"/>
+        <v>0.10333333333333333</v>
+      </c>
+      <c r="C84" s="8">
+        <f t="shared" si="15"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="D84" s="8">
+        <v>621</v>
+      </c>
+      <c r="E84" s="8">
+        <v>691</v>
+      </c>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="8">
+        <v>270</v>
+      </c>
+      <c r="B85" s="8">
+        <f t="shared" si="14"/>
+        <v>0.1</v>
+      </c>
+      <c r="C85" s="8">
+        <f t="shared" si="15"/>
+        <v>0.4</v>
+      </c>
+      <c r="D85" s="8">
+        <v>449</v>
+      </c>
+      <c r="E85" s="8">
+        <v>423</v>
+      </c>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="8">
+        <v>270</v>
+      </c>
+      <c r="B86" s="8">
+        <f t="shared" si="14"/>
+        <v>0.1</v>
+      </c>
+      <c r="C86" s="8">
+        <f t="shared" si="15"/>
+        <v>0.4</v>
+      </c>
+      <c r="D86" s="8">
+        <v>350</v>
+      </c>
+      <c r="E86" s="8">
+        <v>267</v>
+      </c>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="8">
+        <v>271</v>
+      </c>
+      <c r="B87" s="8">
+        <f t="shared" si="14"/>
+        <v>9.6666666666666665E-2</v>
+      </c>
+      <c r="C87" s="8">
+        <f t="shared" si="15"/>
+        <v>0.38666666666666666</v>
+      </c>
+      <c r="D87" s="8">
+        <v>249</v>
+      </c>
+      <c r="E87" s="8">
+        <v>108</v>
+      </c>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="8">
+        <v>271</v>
+      </c>
+      <c r="B88" s="8">
+        <f t="shared" si="14"/>
+        <v>9.6666666666666665E-2</v>
+      </c>
+      <c r="C88" s="8">
+        <f t="shared" si="15"/>
+        <v>0.38666666666666666</v>
+      </c>
+      <c r="D88" s="8">
+        <v>200</v>
+      </c>
+      <c r="E88" s="8">
+        <v>31</v>
+      </c>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F89" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="G89" s="42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="42">
+        <v>245</v>
+      </c>
+      <c r="B90" s="42">
+        <f>($B$56-A90)/$B$56</f>
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="C90" s="42">
+        <f>B90/$B$58</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="D90" s="42">
+        <v>137</v>
+      </c>
+      <c r="E90" s="42">
+        <v>0</v>
+      </c>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="42">
+        <v>244</v>
+      </c>
+      <c r="B91" s="42">
+        <f>($B$56-A91)/$B$56</f>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="C91" s="42">
+        <f>B91/$B$58</f>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="D91" s="42">
+        <v>347</v>
+      </c>
+      <c r="E91" s="42">
+        <v>35</v>
+      </c>
+      <c r="F91" s="42"/>
+      <c r="G91" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="42">
+        <v>244</v>
+      </c>
+      <c r="B92" s="42">
+        <f>($B$56-A92)/$B$56</f>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="C92" s="42">
+        <f>B92/$B$58</f>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="D92" s="42">
+        <v>449</v>
+      </c>
+      <c r="E92" s="42">
+        <v>140</v>
+      </c>
+      <c r="F92" s="42"/>
+      <c r="G92" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="42">
+        <v>244</v>
+      </c>
+      <c r="B93" s="42">
+        <f>($B$56-A93)/$B$56</f>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="C93" s="42">
+        <f>B93/$B$58</f>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="D93" s="42">
+        <v>502</v>
+      </c>
+      <c r="E93" s="42">
+        <v>193</v>
+      </c>
+      <c r="F93" s="42"/>
+      <c r="G93" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="42">
+        <v>244</v>
+      </c>
+      <c r="B94" s="42">
+        <f>($B$56-A94)/$B$56</f>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="C94" s="42">
+        <f>B94/$B$58</f>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="D94" s="42">
+        <v>545</v>
+      </c>
+      <c r="E94" s="42">
+        <v>237</v>
+      </c>
+      <c r="F94" s="42"/>
+      <c r="G94" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="42">
+        <v>244</v>
+      </c>
+      <c r="B95" s="42">
+        <f>($B$56-A95)/$B$56</f>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="C95" s="42">
+        <f>B95/$B$58</f>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="D95" s="42">
+        <v>603</v>
+      </c>
+      <c r="E95" s="42">
+        <v>291</v>
+      </c>
+      <c r="F95" s="42"/>
+      <c r="G95" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="42">
+        <v>244</v>
+      </c>
+      <c r="B96" s="42">
+        <f>($B$56-A96)/$B$56</f>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="C96" s="42">
+        <f>B96/$B$58</f>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="D96" s="42">
+        <v>625</v>
+      </c>
+      <c r="E96" s="42">
+        <v>316</v>
+      </c>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="42">
+        <v>244</v>
+      </c>
+      <c r="B97" s="42">
+        <f>($B$56-A97)/$B$56</f>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="C97" s="42">
+        <f>B97/$B$58</f>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="D97" s="42">
+        <v>573</v>
+      </c>
+      <c r="E97" s="42">
+        <v>267</v>
+      </c>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="42">
+        <v>244</v>
+      </c>
+      <c r="B98" s="42">
+        <f>($B$56-A98)/$B$56</f>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="C98" s="42">
+        <f>B98/$B$58</f>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="D98" s="42">
+        <v>474</v>
+      </c>
+      <c r="E98" s="42">
+        <v>174</v>
+      </c>
+      <c r="F98" s="42"/>
+      <c r="G98" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="42">
+        <v>244</v>
+      </c>
+      <c r="B99" s="42">
+        <f>($B$56-A99)/$B$56</f>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="C99" s="42">
+        <f>B99/$B$58</f>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="D99" s="42">
+        <v>373</v>
+      </c>
+      <c r="E99" s="42">
+        <v>76</v>
+      </c>
+      <c r="F99" s="42"/>
+      <c r="G99" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G100" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="15">
+        <v>226</v>
+      </c>
+      <c r="B101" s="15">
+        <f>($B$56-A101)/$B$56</f>
+        <v>0.24666666666666667</v>
+      </c>
+      <c r="C101" s="15">
+        <f>B101/$B$58</f>
+        <v>0.98666666666666669</v>
+      </c>
+      <c r="D101" s="15">
+        <v>510</v>
+      </c>
+      <c r="E101" s="15">
+        <v>3</v>
+      </c>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="15">
+        <v>225</v>
+      </c>
+      <c r="B102" s="15">
+        <f>($B$56-A102)/$B$56</f>
+        <v>0.25</v>
+      </c>
+      <c r="C102" s="15">
+        <f>B102/$B$58</f>
+        <v>1</v>
+      </c>
+      <c r="D102" s="15">
+        <v>540</v>
+      </c>
+      <c r="E102" s="15">
+        <v>11.9</v>
+      </c>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="15">
+        <v>225</v>
+      </c>
+      <c r="B103" s="15">
+        <f>($B$56-A103)/$B$56</f>
+        <v>0.25</v>
+      </c>
+      <c r="C103" s="15">
+        <f>B103/$B$58</f>
+        <v>1</v>
+      </c>
+      <c r="D103" s="15">
+        <v>582</v>
+      </c>
+      <c r="E103" s="15">
+        <v>33.33</v>
+      </c>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="15">
+        <v>225</v>
+      </c>
+      <c r="B104" s="15">
+        <f>($B$56-A104)/$B$56</f>
+        <v>0.25</v>
+      </c>
+      <c r="C104" s="15">
+        <f>B104/$B$58</f>
+        <v>1</v>
+      </c>
+      <c r="D104" s="15">
+        <v>604</v>
+      </c>
+      <c r="E104" s="15">
+        <v>49</v>
+      </c>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="15">
+        <v>225</v>
+      </c>
+      <c r="B105" s="15">
+        <f>($B$56-A105)/$B$56</f>
+        <v>0.25</v>
+      </c>
+      <c r="C105" s="15">
+        <f>B105/$B$58</f>
+        <v>1</v>
+      </c>
+      <c r="D105" s="15">
+        <v>627</v>
+      </c>
+      <c r="E105" s="15">
+        <v>59</v>
+      </c>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="15">
+        <v>225</v>
+      </c>
+      <c r="B106" s="15">
+        <f>($B$56-A106)/$B$56</f>
+        <v>0.25</v>
+      </c>
+      <c r="C106" s="15">
+        <f>B106/$B$58</f>
+        <v>1</v>
+      </c>
+      <c r="D106" s="15">
+        <v>590</v>
+      </c>
+      <c r="E106" s="15">
+        <v>40</v>
+      </c>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="15">
+        <v>225</v>
+      </c>
+      <c r="B107" s="15">
+        <f>($B$56-A107)/$B$56</f>
+        <v>0.25</v>
+      </c>
+      <c r="C107" s="15">
+        <f>B107/$B$58</f>
+        <v>1</v>
+      </c>
+      <c r="D107" s="15">
+        <v>558</v>
+      </c>
+      <c r="E107" s="15">
+        <v>26</v>
+      </c>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="15">
+        <v>226</v>
+      </c>
+      <c r="B108" s="15">
+        <f>($B$56-A108)/$B$56</f>
+        <v>0.24666666666666667</v>
+      </c>
+      <c r="C108" s="15">
+        <f>B108/$B$58</f>
+        <v>0.98666666666666669</v>
+      </c>
+      <c r="D108" s="15">
+        <v>514</v>
+      </c>
+      <c r="E108" s="15">
+        <v>5</v>
+      </c>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="15"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="15"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="15"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="15"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="15"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BPA_Static_Characterization_Test/20mm_ForceLengthPressure/PulseTestResults.xlsx
+++ b/BPA_Static_Characterization_Test/20mm_ForceLengthPressure/PulseTestResults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ME masters project\github\Muscle_Sensory\BPA_Static_Characterization_Test\20mm_ForceLengthPressure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Muscle_Sensory\BPA_Static_Characterization_Test\20mm_ForceLengthPressure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC4A94C-915F-4947-B26D-0992BC240CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7153CC9-706E-47D6-88B7-D07ADEEB830B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{7781AE6A-A05B-4E08-9903-F8A9B7CCFEB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{7781AE6A-A05B-4E08-9903-F8A9B7CCFEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="65">
   <si>
     <t>Pulse duration (ms)</t>
   </si>
@@ -232,12 +232,18 @@
   <si>
     <t>chosen heights</t>
   </si>
+  <si>
+    <t>max strain</t>
+  </si>
+  <si>
+    <t>*Invalid to have any force at relative strain = 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +258,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -473,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -496,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -504,23 +517,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7009,9 +7018,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7049,7 +7058,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7155,7 +7164,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7297,7 +7306,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7580,11 +7589,11 @@
       </c>
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
-      <c r="U2" s="35" t="s">
+      <c r="U2" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
@@ -7620,13 +7629,13 @@
         <v>40</v>
       </c>
       <c r="S3" s="20"/>
-      <c r="U3" s="35" t="s">
+      <c r="U3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="35" t="s">
+      <c r="V3" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="W3" s="35"/>
+      <c r="W3" s="32"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
@@ -7660,13 +7669,13 @@
         <v>22</v>
       </c>
       <c r="S4" s="20"/>
-      <c r="U4" s="35">
+      <c r="U4" s="32">
         <v>0</v>
       </c>
-      <c r="V4" s="35">
+      <c r="V4" s="32">
         <v>22</v>
       </c>
-      <c r="W4" s="35"/>
+      <c r="W4" s="32"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
@@ -7698,13 +7707,13 @@
         <v>168</v>
       </c>
       <c r="S5" s="20"/>
-      <c r="U5" s="35">
+      <c r="U5" s="32">
         <v>200</v>
       </c>
-      <c r="V5" s="35">
+      <c r="V5" s="32">
         <v>174</v>
       </c>
-      <c r="W5" s="35"/>
+      <c r="W5" s="32"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
@@ -7736,13 +7745,13 @@
         <v>261</v>
       </c>
       <c r="S6" s="20"/>
-      <c r="U6" s="35">
+      <c r="U6" s="32">
         <v>300</v>
       </c>
-      <c r="V6" s="35">
+      <c r="V6" s="32">
         <v>262</v>
       </c>
-      <c r="W6" s="35"/>
+      <c r="W6" s="32"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
@@ -7774,13 +7783,13 @@
         <v>349</v>
       </c>
       <c r="S7" s="20"/>
-      <c r="U7" s="35">
+      <c r="U7" s="32">
         <v>400</v>
       </c>
-      <c r="V7" s="35">
+      <c r="V7" s="32">
         <v>347</v>
       </c>
-      <c r="W7" s="35"/>
+      <c r="W7" s="32"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
@@ -7812,13 +7821,13 @@
         <v>446</v>
       </c>
       <c r="S8" s="20"/>
-      <c r="U8" s="35">
+      <c r="U8" s="32">
         <v>500</v>
       </c>
-      <c r="V8" s="35">
+      <c r="V8" s="32">
         <v>432</v>
       </c>
-      <c r="W8" s="35"/>
+      <c r="W8" s="32"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
@@ -7850,13 +7859,13 @@
         <v>529</v>
       </c>
       <c r="S9" s="20"/>
-      <c r="U9" s="35">
+      <c r="U9" s="32">
         <v>600</v>
       </c>
-      <c r="V9" s="35">
+      <c r="V9" s="32">
         <v>535</v>
       </c>
-      <c r="W9" s="35"/>
+      <c r="W9" s="32"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
@@ -7888,13 +7897,13 @@
         <v>580</v>
       </c>
       <c r="S10" s="20"/>
-      <c r="U10" s="35">
+      <c r="U10" s="32">
         <v>650</v>
       </c>
-      <c r="V10" s="35">
+      <c r="V10" s="32">
         <v>580</v>
       </c>
-      <c r="W10" s="35"/>
+      <c r="W10" s="32"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
@@ -7918,9 +7927,9 @@
       <c r="Q11" s="20"/>
       <c r="R11" s="20"/>
       <c r="S11" s="20"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
@@ -7936,9 +7945,9 @@
       <c r="Q12" s="20"/>
       <c r="R12" s="20"/>
       <c r="S12" s="20"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
@@ -7954,9 +7963,9 @@
       <c r="Q13" s="20"/>
       <c r="R13" s="20"/>
       <c r="S13" s="20"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
@@ -7988,11 +7997,11 @@
       <c r="S14" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="U14" s="35" t="s">
+      <c r="U14" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35" t="s">
+      <c r="V14" s="32"/>
+      <c r="W14" s="32" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8018,11 +8027,11 @@
       </c>
       <c r="R15" s="20"/>
       <c r="S15" s="20"/>
-      <c r="U15" s="35">
+      <c r="U15" s="32">
         <v>451</v>
       </c>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8056,7 +8065,7 @@
       <c r="D4" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="34" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8123,10 +8132,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A16763-ED46-4079-BBBB-F27EBF19559A}">
-  <dimension ref="A1:K113"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56:E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8139,7 +8148,7 @@
     <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -8153,7 +8162,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -8164,7 +8173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -8176,7 +8185,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
@@ -8199,7 +8208,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -8214,7 +8223,7 @@
       </c>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>272</v>
       </c>
@@ -8242,8 +8251,11 @@
       <c r="K7" s="24" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>252</v>
       </c>
@@ -8271,8 +8283,12 @@
       <c r="K8" s="24">
         <v>238</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <f>(J8-K8)/J8</f>
+        <v>0.23225806451612904</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>240</v>
       </c>
@@ -8297,7 +8313,7 @@
       <c r="J9" s="25"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>233</v>
       </c>
@@ -8322,7 +8338,7 @@
       <c r="J10" s="25"/>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>226</v>
       </c>
@@ -8349,7 +8365,7 @@
       </c>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>225</v>
       </c>
@@ -8378,105 +8394,105 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>30</v>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>297</v>
+      </c>
+      <c r="B13" s="8">
+        <f t="shared" ref="B13:B20" si="2">($B$1-A13)/$B$1</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" ref="C13:C20" si="3">B13/$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>625</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1122</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8">
+        <v>0</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="28">
         <v>623</v>
       </c>
-      <c r="K13" s="30">
+      <c r="K13" s="29">
         <v>1230</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>297</v>
       </c>
       <c r="B14" s="8">
-        <f t="shared" ref="B14:B21" si="2">($B$1-A14)/$B$1</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" ref="C14:C21" si="3">B14/$B$3</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D14" s="8">
-        <v>625</v>
+        <v>389</v>
       </c>
       <c r="E14" s="8">
-        <v>1122</v>
+        <v>743</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B15" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-3.3670033670033669E-3</v>
       </c>
       <c r="C15" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-1.3888888888888888E-2</v>
       </c>
       <c r="D15" s="8">
-        <v>389</v>
+        <v>92</v>
       </c>
       <c r="E15" s="8">
-        <v>743</v>
+        <v>123</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B16" s="8">
         <f t="shared" si="2"/>
-        <v>-3.3670033670033669E-3</v>
+        <v>6.7340067340067337E-3</v>
       </c>
       <c r="C16" s="8">
         <f t="shared" si="3"/>
-        <v>-1.3888888888888888E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="D16" s="8">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="E16" s="8">
-        <v>123</v>
+        <v>325</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -8492,10 +8508,10 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D17" s="8">
-        <v>190</v>
+        <v>401</v>
       </c>
       <c r="E17" s="8">
-        <v>325</v>
+        <v>771</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8">
@@ -8504,21 +8520,21 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B18" s="8">
         <f t="shared" si="2"/>
-        <v>6.7340067340067337E-3</v>
+        <v>1.3468013468013467E-2</v>
       </c>
       <c r="C18" s="8">
         <f t="shared" si="3"/>
-        <v>2.7777777777777776E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="D18" s="8">
-        <v>401</v>
+        <v>510</v>
       </c>
       <c r="E18" s="8">
-        <v>771</v>
+        <v>1001</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8">
@@ -8527,44 +8543,44 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B19" s="8">
         <f t="shared" si="2"/>
-        <v>1.3468013468013467E-2</v>
+        <v>6.7340067340067337E-3</v>
       </c>
       <c r="C19" s="8">
         <f t="shared" si="3"/>
-        <v>5.5555555555555552E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="D19" s="8">
-        <v>510</v>
+        <v>305</v>
       </c>
       <c r="E19" s="8">
-        <v>1001</v>
+        <v>564</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B20" s="8">
         <f t="shared" si="2"/>
-        <v>6.7340067340067337E-3</v>
+        <v>0</v>
       </c>
       <c r="C20" s="8">
         <f t="shared" si="3"/>
-        <v>2.7777777777777776E-2</v>
+        <v>0</v>
       </c>
       <c r="D20" s="8">
-        <v>305</v>
+        <v>98</v>
       </c>
       <c r="E20" s="8">
-        <v>564</v>
+        <v>126</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8">
@@ -8572,58 +8588,72 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>297</v>
-      </c>
-      <c r="B21" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C21" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="8">
-        <v>98</v>
-      </c>
-      <c r="E21" s="8">
-        <v>126</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8">
-        <v>0</v>
+      <c r="A21" s="10">
+        <v>281</v>
+      </c>
+      <c r="B21" s="10">
+        <f>($B$1-A21)/$B$1</f>
+        <v>5.387205387205387E-2</v>
+      </c>
+      <c r="C21" s="10">
+        <f>B21/$B$3</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D21" s="10">
+        <v>175</v>
+      </c>
+      <c r="E21" s="10">
+        <v>50</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="A22" s="10">
+        <v>280</v>
+      </c>
+      <c r="B22" s="10">
+        <f t="shared" ref="B22:B27" si="4">($B$1-A22)/$B$1</f>
+        <v>5.7239057239057242E-2</v>
+      </c>
+      <c r="C22" s="10">
+        <f t="shared" ref="C22:C27" si="5">B22/$B$3</f>
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="D22" s="10">
+        <v>196</v>
+      </c>
+      <c r="E22" s="10">
+        <v>92</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>30</v>
+      <c r="A23" s="10">
+        <v>280</v>
+      </c>
+      <c r="B23" s="10">
+        <f t="shared" si="4"/>
+        <v>5.7239057239057242E-2</v>
+      </c>
+      <c r="C23" s="10">
+        <f t="shared" si="5"/>
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="D23" s="10">
+        <v>402</v>
+      </c>
+      <c r="E23" s="10">
+        <v>480</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -8631,18 +8661,18 @@
         <v>281</v>
       </c>
       <c r="B24" s="10">
-        <f>($B$1-A24)/$B$1</f>
+        <f t="shared" si="4"/>
         <v>5.387205387205387E-2</v>
       </c>
       <c r="C24" s="10">
-        <f>B24/$B$3</f>
+        <f t="shared" si="5"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="D24" s="10">
-        <v>175</v>
+        <v>409</v>
       </c>
       <c r="E24" s="10">
-        <v>50</v>
+        <v>497</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10">
@@ -8651,21 +8681,21 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B25" s="10">
-        <f t="shared" ref="B25:B30" si="4">($B$1-A25)/$B$1</f>
-        <v>5.7239057239057242E-2</v>
+        <f t="shared" si="4"/>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="C25" s="10">
-        <f t="shared" ref="C25:C30" si="5">B25/$B$3</f>
-        <v>0.2361111111111111</v>
+        <f t="shared" si="5"/>
+        <v>0.25</v>
       </c>
       <c r="D25" s="10">
-        <v>196</v>
+        <v>613</v>
       </c>
       <c r="E25" s="10">
-        <v>92</v>
+        <v>865</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10">
@@ -8674,67 +8704,67 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B26" s="10">
         <f t="shared" si="4"/>
-        <v>5.7239057239057242E-2</v>
+        <v>6.3973063973063973E-2</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" si="5"/>
-        <v>0.2361111111111111</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="D26" s="10">
-        <v>402</v>
+        <v>605</v>
       </c>
       <c r="E26" s="10">
-        <v>480</v>
+        <v>851</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B27" s="10">
         <f t="shared" si="4"/>
-        <v>5.387205387205387E-2</v>
+        <v>5.7239057239057242E-2</v>
       </c>
       <c r="C27" s="10">
         <f t="shared" si="5"/>
-        <v>0.22222222222222221</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="D27" s="10">
-        <v>409</v>
+        <v>285</v>
       </c>
       <c r="E27" s="10">
-        <v>497</v>
+        <v>273</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B28" s="10">
-        <f t="shared" si="4"/>
-        <v>6.0606060606060608E-2</v>
+        <f>($B$1-A28)/$B$1</f>
+        <v>6.7340067340067339E-2</v>
       </c>
       <c r="C28" s="10">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
+        <f>B28/$B$3</f>
+        <v>0.27777777777777779</v>
       </c>
       <c r="D28" s="10">
-        <v>613</v>
+        <v>505</v>
       </c>
       <c r="E28" s="10">
-        <v>865</v>
+        <v>676</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10">
@@ -8743,21 +8773,21 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B29" s="10">
-        <f t="shared" si="4"/>
-        <v>6.3973063973063973E-2</v>
+        <f>($B$1-A29)/$B$1</f>
+        <v>5.0505050505050504E-2</v>
       </c>
       <c r="C29" s="10">
-        <f t="shared" si="5"/>
-        <v>0.2638888888888889</v>
+        <f>B29/$B$3</f>
+        <v>0.20833333333333331</v>
       </c>
       <c r="D29" s="10">
-        <v>605</v>
+        <v>91</v>
       </c>
       <c r="E29" s="10">
-        <v>851</v>
+        <v>0</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10">
@@ -8765,984 +8795,980 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
-        <v>280</v>
-      </c>
-      <c r="B30" s="10">
-        <f t="shared" si="4"/>
-        <v>5.7239057239057242E-2</v>
-      </c>
-      <c r="C30" s="10">
-        <f t="shared" si="5"/>
-        <v>0.2361111111111111</v>
-      </c>
-      <c r="D30" s="10">
-        <v>285</v>
-      </c>
-      <c r="E30" s="10">
-        <v>273</v>
-      </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10">
+      <c r="A30" s="11">
+        <v>254</v>
+      </c>
+      <c r="B30" s="11">
+        <f t="shared" ref="B30:B36" si="6">($B$1-A30)/$B$1</f>
+        <v>0.14478114478114479</v>
+      </c>
+      <c r="C30" s="11">
+        <f t="shared" ref="C30:C36" si="7">B30/$B$3</f>
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D30" s="11">
+        <v>277</v>
+      </c>
+      <c r="E30" s="11">
+        <v>30</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>253</v>
+      </c>
+      <c r="B31" s="11">
+        <f t="shared" si="6"/>
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="C31" s="11">
+        <f t="shared" si="7"/>
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D31" s="11">
+        <v>400</v>
+      </c>
+      <c r="E31" s="11">
+        <v>177</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
+        <v>253</v>
+      </c>
+      <c r="B32" s="11">
+        <f t="shared" si="6"/>
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="C32" s="11">
+        <f t="shared" si="7"/>
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D32" s="11">
+        <v>290</v>
+      </c>
+      <c r="E32" s="11">
+        <v>49</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
-        <v>277</v>
-      </c>
-      <c r="B31" s="10">
-        <f>($B$1-A31)/$B$1</f>
-        <v>6.7340067340067339E-2</v>
-      </c>
-      <c r="C31" s="10">
-        <f>B31/$B$3</f>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="D31" s="10">
-        <v>505</v>
-      </c>
-      <c r="E31" s="10">
-        <v>676</v>
-      </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
-        <v>282</v>
-      </c>
-      <c r="B32" s="10">
-        <f>($B$1-A32)/$B$1</f>
-        <v>5.0505050505050504E-2</v>
-      </c>
-      <c r="C32" s="10">
-        <f>B32/$B$3</f>
-        <v>0.20833333333333331</v>
-      </c>
-      <c r="D32" s="10">
-        <v>91</v>
-      </c>
-      <c r="E32" s="10">
-        <v>0</v>
-      </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>30</v>
+      <c r="A33" s="11">
+        <v>252</v>
+      </c>
+      <c r="B33" s="11">
+        <f t="shared" si="6"/>
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="C33" s="11">
+        <f t="shared" si="7"/>
+        <v>0.625</v>
+      </c>
+      <c r="D33" s="11">
+        <v>611</v>
+      </c>
+      <c r="E33" s="11">
+        <v>423</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B34" s="11">
-        <f t="shared" ref="B34:B40" si="6">($B$1-A34)/$B$1</f>
-        <v>0.14478114478114479</v>
+        <f t="shared" si="6"/>
+        <v>0.15151515151515152</v>
       </c>
       <c r="C34" s="11">
-        <f t="shared" ref="C34:C40" si="7">B34/$B$3</f>
-        <v>0.59722222222222221</v>
+        <f t="shared" si="7"/>
+        <v>0.625</v>
       </c>
       <c r="D34" s="11">
-        <v>277</v>
+        <v>492</v>
       </c>
       <c r="E34" s="11">
-        <v>30</v>
+        <v>292</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B35" s="11">
         <f t="shared" si="6"/>
-        <v>0.14814814814814814</v>
+        <v>0.14478114478114479</v>
       </c>
       <c r="C35" s="11">
         <f t="shared" si="7"/>
-        <v>0.61111111111111105</v>
+        <v>0.59722222222222221</v>
       </c>
       <c r="D35" s="11">
-        <v>400</v>
+        <v>353</v>
       </c>
       <c r="E35" s="11">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B36" s="11">
         <f t="shared" si="6"/>
-        <v>0.14814814814814814</v>
+        <v>0.15151515151515152</v>
       </c>
       <c r="C36" s="11">
         <f t="shared" si="7"/>
-        <v>0.61111111111111105</v>
+        <v>0.625</v>
       </c>
       <c r="D36" s="11">
-        <v>290</v>
+        <v>598</v>
       </c>
       <c r="E36" s="11">
-        <v>49</v>
+        <v>416</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
+        <v>241</v>
+      </c>
+      <c r="B37" s="12">
+        <f t="shared" ref="B37:B43" si="8">($B$1-A37)/$B$1</f>
+        <v>0.18855218855218855</v>
+      </c>
+      <c r="C37" s="12">
+        <f t="shared" ref="C37:C43" si="9">B37/$B$3</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D37" s="12">
+        <v>609</v>
+      </c>
+      <c r="E37" s="12">
+        <v>258</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
+        <v>241</v>
+      </c>
+      <c r="B38" s="12">
+        <f t="shared" si="8"/>
+        <v>0.18855218855218855</v>
+      </c>
+      <c r="C38" s="12">
+        <f t="shared" si="9"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D38" s="12">
+        <v>626</v>
+      </c>
+      <c r="E38" s="12">
+        <v>279</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
+        <v>241</v>
+      </c>
+      <c r="B39" s="12">
+        <f t="shared" si="8"/>
+        <v>0.18855218855218855</v>
+      </c>
+      <c r="C39" s="12">
+        <f t="shared" si="9"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D39" s="12">
+        <v>494</v>
+      </c>
+      <c r="E39" s="12">
+        <v>166</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
-        <v>252</v>
-      </c>
-      <c r="B37" s="11">
-        <f t="shared" si="6"/>
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="C37" s="11">
-        <f t="shared" si="7"/>
-        <v>0.625</v>
-      </c>
-      <c r="D37" s="11">
-        <v>611</v>
-      </c>
-      <c r="E37" s="11">
-        <v>423</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
-        <v>252</v>
-      </c>
-      <c r="B38" s="11">
-        <f t="shared" si="6"/>
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="C38" s="11">
-        <f t="shared" si="7"/>
-        <v>0.625</v>
-      </c>
-      <c r="D38" s="11">
-        <v>492</v>
-      </c>
-      <c r="E38" s="11">
-        <v>292</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
-        <v>254</v>
-      </c>
-      <c r="B39" s="11">
-        <f t="shared" si="6"/>
-        <v>0.14478114478114479</v>
-      </c>
-      <c r="C39" s="11">
-        <f t="shared" si="7"/>
-        <v>0.59722222222222221</v>
-      </c>
-      <c r="D39" s="11">
-        <v>353</v>
-      </c>
-      <c r="E39" s="11">
-        <v>135</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11">
-        <v>0</v>
-      </c>
-    </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="11">
-        <v>252</v>
-      </c>
-      <c r="B40" s="11">
-        <f t="shared" si="6"/>
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="C40" s="11">
-        <f t="shared" si="7"/>
-        <v>0.625</v>
-      </c>
-      <c r="D40" s="11">
-        <v>598</v>
-      </c>
-      <c r="E40" s="11">
-        <v>416</v>
-      </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11">
+      <c r="A40" s="12">
+        <v>242</v>
+      </c>
+      <c r="B40" s="12">
+        <f t="shared" si="8"/>
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="C40" s="12">
+        <f t="shared" si="9"/>
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D40" s="12">
+        <v>298</v>
+      </c>
+      <c r="E40" s="12">
+        <v>2.25</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>30</v>
+      <c r="A41" s="12">
+        <v>242</v>
+      </c>
+      <c r="B41" s="12">
+        <f t="shared" si="8"/>
+        <v>0.18518518518518517</v>
+      </c>
+      <c r="C41" s="12">
+        <f t="shared" si="9"/>
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D41" s="12">
+        <v>400</v>
+      </c>
+      <c r="E41" s="12">
+        <v>86</v>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B42" s="12">
-        <f t="shared" ref="B42:B48" si="8">($B$1-A42)/$B$1</f>
-        <v>0.18855218855218855</v>
+        <f t="shared" si="8"/>
+        <v>0.19191919191919191</v>
       </c>
       <c r="C42" s="12">
-        <f t="shared" ref="C42:C48" si="9">B42/$B$3</f>
-        <v>0.77777777777777779</v>
+        <f t="shared" si="9"/>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D42" s="12">
-        <v>609</v>
+        <v>350</v>
       </c>
       <c r="E42" s="12">
-        <v>258</v>
+        <v>44</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B43" s="12">
         <f t="shared" si="8"/>
-        <v>0.18855218855218855</v>
+        <v>0.18518518518518517</v>
       </c>
       <c r="C43" s="12">
         <f t="shared" si="9"/>
-        <v>0.77777777777777779</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="D43" s="12">
-        <v>626</v>
+        <v>330</v>
       </c>
       <c r="E43" s="12">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="12">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <v>300</v>
+      </c>
+      <c r="D51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53">
+        <f>(B51-B52)/B51</f>
+        <v>0.25</v>
+      </c>
+      <c r="H53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H54" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="16">
+        <v>225</v>
+      </c>
+      <c r="B56" s="16">
+        <f>($B$51-A56)/$B$51</f>
+        <v>0.25</v>
+      </c>
+      <c r="C56" s="16">
+        <f>B56/$B$53</f>
+        <v>1</v>
+      </c>
+      <c r="D56" s="16">
+        <v>622</v>
+      </c>
+      <c r="E56" s="16">
+        <v>0</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="16">
+        <v>229</v>
+      </c>
+      <c r="B57" s="16">
+        <f t="shared" ref="B57:B61" si="10">($B$1-A57)/$B$1</f>
+        <v>0.22895622895622897</v>
+      </c>
+      <c r="C57" s="16">
+        <f t="shared" ref="C57:C61" si="11">B57/$B$53</f>
+        <v>0.91582491582491588</v>
+      </c>
+      <c r="D57" s="16">
+        <v>499</v>
+      </c>
+      <c r="E57" s="16">
+        <v>0</v>
+      </c>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="16">
+        <v>233</v>
+      </c>
+      <c r="B58" s="16">
+        <f t="shared" si="10"/>
+        <v>0.21548821548821548</v>
+      </c>
+      <c r="C58" s="16">
+        <f t="shared" si="11"/>
+        <v>0.86195286195286192</v>
+      </c>
+      <c r="D58" s="16">
+        <v>395</v>
+      </c>
+      <c r="E58" s="16">
+        <v>0</v>
+      </c>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="16">
         <v>241</v>
       </c>
-      <c r="B44" s="12">
-        <f t="shared" si="8"/>
+      <c r="B59" s="16">
+        <f t="shared" si="10"/>
         <v>0.18855218855218855</v>
       </c>
-      <c r="C44" s="12">
-        <f t="shared" si="9"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="D44" s="12">
-        <v>494</v>
-      </c>
-      <c r="E44" s="12">
-        <v>166</v>
-      </c>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12">
+      <c r="C59" s="16">
+        <f t="shared" si="11"/>
+        <v>0.75420875420875422</v>
+      </c>
+      <c r="D59" s="16">
+        <v>299</v>
+      </c>
+      <c r="E59" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="12">
-        <v>242</v>
-      </c>
-      <c r="B45" s="12">
-        <f t="shared" si="8"/>
-        <v>0.18518518518518517</v>
-      </c>
-      <c r="C45" s="12">
-        <f t="shared" si="9"/>
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="D45" s="12">
-        <v>298</v>
-      </c>
-      <c r="E45" s="12">
-        <v>2.25</v>
-      </c>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="12">
-        <v>242</v>
-      </c>
-      <c r="B46" s="12">
-        <f t="shared" si="8"/>
-        <v>0.18518518518518517</v>
-      </c>
-      <c r="C46" s="12">
-        <f t="shared" si="9"/>
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="D46" s="12">
-        <v>400</v>
-      </c>
-      <c r="E46" s="12">
-        <v>86</v>
-      </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
-        <v>240</v>
-      </c>
-      <c r="B47" s="12">
-        <f t="shared" si="8"/>
-        <v>0.19191919191919191</v>
-      </c>
-      <c r="C47" s="12">
-        <f t="shared" si="9"/>
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D47" s="12">
-        <v>350</v>
-      </c>
-      <c r="E47" s="12">
-        <v>44</v>
-      </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12">
+      <c r="F59" s="16"/>
+      <c r="G59" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="12">
-        <v>242</v>
-      </c>
-      <c r="B48" s="12">
-        <f t="shared" si="8"/>
-        <v>0.18518518518518517</v>
-      </c>
-      <c r="C48" s="12">
-        <f t="shared" si="9"/>
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="D48" s="12">
-        <v>330</v>
-      </c>
-      <c r="E48" s="12">
-        <v>25</v>
-      </c>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="16">
+        <v>256</v>
+      </c>
+      <c r="B60" s="16">
+        <f t="shared" si="10"/>
+        <v>0.13804713804713806</v>
+      </c>
+      <c r="C60" s="16">
+        <f t="shared" si="11"/>
+        <v>0.55218855218855223</v>
+      </c>
+      <c r="D60" s="16">
+        <v>200</v>
+      </c>
+      <c r="E60" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56">
-        <v>300</v>
-      </c>
-      <c r="D56" t="s">
-        <v>34</v>
-      </c>
-      <c r="E56" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>22</v>
-      </c>
-      <c r="B57">
-        <v>225</v>
-      </c>
-      <c r="H57" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58">
-        <f>(B56-B57)/B56</f>
-        <v>0.25</v>
-      </c>
-      <c r="H58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>30</v>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="16">
-        <v>225</v>
+        <v>288</v>
       </c>
       <c r="B61" s="16">
-        <f>($B$56-A61)/$B$56</f>
-        <v>0.25</v>
+        <f t="shared" si="10"/>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="C61" s="16">
-        <f>B61/$B$58</f>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>0.12121212121212122</v>
       </c>
       <c r="D61" s="16">
-        <v>622</v>
+        <v>101</v>
       </c>
       <c r="E61" s="16">
         <v>0</v>
       </c>
       <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
+      <c r="G61" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="16">
-        <v>229</v>
-      </c>
-      <c r="B62" s="16">
-        <f t="shared" ref="B61:B72" si="10">($B$1-A62)/$B$1</f>
-        <v>0.22895622895622897</v>
-      </c>
-      <c r="C62" s="16">
-        <f t="shared" ref="C62:C66" si="11">B62/$B$58</f>
-        <v>0.91582491582491588</v>
-      </c>
-      <c r="D62" s="16">
-        <v>499</v>
-      </c>
-      <c r="E62" s="16">
-        <v>0</v>
-      </c>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16">
-        <v>0</v>
+      <c r="A62" s="11">
+        <v>299</v>
+      </c>
+      <c r="B62" s="11">
+        <f>($B$51-A62)/$B$51</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="C62" s="11">
+        <f>B62/$B$53</f>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="D62" s="11">
+        <v>136</v>
+      </c>
+      <c r="E62" s="11">
+        <v>223</v>
+      </c>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="16">
-        <v>233</v>
-      </c>
-      <c r="B63" s="16">
-        <f t="shared" si="10"/>
-        <v>0.21548821548821548</v>
-      </c>
-      <c r="C63" s="16">
-        <f t="shared" si="11"/>
-        <v>0.86195286195286192</v>
-      </c>
-      <c r="D63" s="16">
-        <v>395</v>
-      </c>
-      <c r="E63" s="16">
-        <v>0</v>
-      </c>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16">
-        <v>0</v>
+      <c r="A63" s="11">
+        <v>298</v>
+      </c>
+      <c r="B63" s="11">
+        <f t="shared" ref="B63:B71" si="12">($B$51-A63)/$B$51</f>
+        <v>6.6666666666666671E-3</v>
+      </c>
+      <c r="C63" s="11">
+        <f t="shared" ref="C63:C71" si="13">B63/$B$53</f>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="D63" s="11">
+        <v>208</v>
+      </c>
+      <c r="E63" s="11">
+        <v>373</v>
+      </c>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="16">
-        <v>241</v>
-      </c>
-      <c r="B64" s="16">
-        <f t="shared" si="10"/>
-        <v>0.18855218855218855</v>
-      </c>
-      <c r="C64" s="16">
-        <f t="shared" si="11"/>
-        <v>0.75420875420875422</v>
-      </c>
-      <c r="D64" s="16">
-        <v>299</v>
-      </c>
-      <c r="E64" s="16">
-        <v>0</v>
-      </c>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="16">
-        <v>256</v>
-      </c>
-      <c r="B65" s="16">
-        <f t="shared" si="10"/>
-        <v>0.13804713804713806</v>
-      </c>
-      <c r="C65" s="16">
-        <f t="shared" si="11"/>
-        <v>0.55218855218855223</v>
-      </c>
-      <c r="D65" s="16">
-        <v>200</v>
-      </c>
-      <c r="E65" s="16">
-        <v>0</v>
-      </c>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="16">
-        <v>288</v>
-      </c>
-      <c r="B66" s="16">
-        <f t="shared" si="10"/>
-        <v>3.0303030303030304E-2</v>
-      </c>
-      <c r="C66" s="16">
-        <f t="shared" si="11"/>
-        <v>0.12121212121212122</v>
-      </c>
-      <c r="D66" s="16">
-        <v>101</v>
-      </c>
-      <c r="E66" s="16">
-        <v>0</v>
-      </c>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="11">
-        <v>299</v>
-      </c>
-      <c r="B68" s="11">
-        <f>($B$56-A68)/$B$56</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="C68" s="11">
-        <f>B68/$B$58</f>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="D68" s="11">
-        <v>136</v>
-      </c>
-      <c r="E68" s="11">
-        <v>223</v>
-      </c>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="11">
-        <v>298</v>
-      </c>
-      <c r="B69" s="11">
-        <f t="shared" ref="B69:B77" si="12">($B$56-A69)/$B$56</f>
-        <v>6.6666666666666671E-3</v>
-      </c>
-      <c r="C69" s="11">
-        <f t="shared" ref="C69:C77" si="13">B69/$B$58</f>
-        <v>2.6666666666666668E-2</v>
-      </c>
-      <c r="D69" s="11">
-        <v>208</v>
-      </c>
-      <c r="E69" s="11">
-        <v>373</v>
-      </c>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="11">
+      <c r="A64" s="11">
         <v>297</v>
       </c>
-      <c r="B70" s="11">
+      <c r="B64" s="11">
         <f t="shared" si="12"/>
         <v>0.01</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C64" s="11">
         <f t="shared" si="13"/>
         <v>0.04</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D64" s="11">
         <v>304</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E64" s="11">
         <v>575</v>
       </c>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="11">
+      <c r="F64" s="11"/>
+      <c r="G64" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="11">
         <v>296</v>
       </c>
-      <c r="B71" s="11">
+      <c r="B65" s="11">
         <f t="shared" si="12"/>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="C71" s="11">
+      <c r="C65" s="11">
         <f t="shared" si="13"/>
         <v>5.3333333333333337E-2</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D65" s="11">
         <v>397</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E65" s="11">
         <v>765</v>
       </c>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="39">
+      <c r="F65" s="11"/>
+      <c r="G65" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="35">
         <v>294</v>
       </c>
-      <c r="B72" s="39">
+      <c r="B66" s="35">
         <f t="shared" si="12"/>
         <v>0.02</v>
       </c>
-      <c r="C72" s="39">
+      <c r="C66" s="35">
         <f t="shared" si="13"/>
         <v>0.08</v>
       </c>
-      <c r="D72" s="39">
+      <c r="D66" s="35">
         <v>502</v>
       </c>
-      <c r="E72" s="39">
+      <c r="E66" s="35">
         <v>970</v>
       </c>
-      <c r="F72" s="39"/>
-      <c r="G72" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="39">
+      <c r="F66" s="35"/>
+      <c r="G66" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="35">
         <v>293</v>
       </c>
-      <c r="B73" s="39">
+      <c r="B67" s="35">
         <f t="shared" si="12"/>
         <v>2.3333333333333334E-2</v>
       </c>
-      <c r="C73" s="39">
+      <c r="C67" s="35">
         <f t="shared" si="13"/>
         <v>9.3333333333333338E-2</v>
       </c>
-      <c r="D73" s="39">
+      <c r="D67" s="35">
         <v>595</v>
       </c>
-      <c r="E73" s="39">
+      <c r="E67" s="35">
         <v>1136</v>
       </c>
-      <c r="F73" s="39"/>
-      <c r="G73" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="39">
+      <c r="F67" s="35"/>
+      <c r="G67" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="35">
         <v>292</v>
       </c>
-      <c r="B74" s="39">
+      <c r="B68" s="35">
         <f t="shared" si="12"/>
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="C74" s="39">
+      <c r="C68" s="35">
         <f t="shared" si="13"/>
         <v>0.10666666666666667</v>
       </c>
-      <c r="D74" s="39">
+      <c r="D68" s="35">
         <v>620</v>
       </c>
-      <c r="E74" s="39">
+      <c r="E68" s="35">
         <v>1182</v>
       </c>
-      <c r="F74" s="39"/>
-      <c r="G74" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="39">
+      <c r="F68" s="35"/>
+      <c r="G68" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="35">
         <v>294</v>
       </c>
-      <c r="B75" s="39">
+      <c r="B69" s="35">
         <f t="shared" si="12"/>
         <v>0.02</v>
       </c>
-      <c r="C75" s="39">
+      <c r="C69" s="35">
         <f t="shared" si="13"/>
         <v>0.08</v>
       </c>
-      <c r="D75" s="39">
+      <c r="D69" s="35">
         <v>431</v>
       </c>
-      <c r="E75" s="39">
+      <c r="E69" s="35">
         <v>783</v>
       </c>
-      <c r="F75" s="39"/>
-      <c r="G75" s="39">
+      <c r="F69" s="35"/>
+      <c r="G69" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="39">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="35">
         <v>294</v>
       </c>
-      <c r="B76" s="39">
+      <c r="B70" s="35">
         <f t="shared" si="12"/>
         <v>0.02</v>
       </c>
-      <c r="C76" s="39">
+      <c r="C70" s="35">
         <f t="shared" si="13"/>
         <v>0.08</v>
       </c>
-      <c r="D76" s="39">
+      <c r="D70" s="35">
         <v>354</v>
       </c>
-      <c r="E76" s="39">
+      <c r="E70" s="35">
         <v>617</v>
       </c>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39">
+      <c r="F70" s="35"/>
+      <c r="G70" s="35">
         <v>0</v>
       </c>
-      <c r="J76" s="41">
-        <v>0.75</v>
-      </c>
-      <c r="K76" s="41">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="39">
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="35">
         <v>295</v>
       </c>
-      <c r="B77" s="39">
+      <c r="B71" s="35">
         <f t="shared" si="12"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="C77" s="39">
+      <c r="C71" s="35">
         <f t="shared" si="13"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="D77" s="39">
+      <c r="D71" s="35">
         <v>249</v>
       </c>
-      <c r="E77" s="39">
+      <c r="E71" s="35">
         <v>390</v>
       </c>
-      <c r="F77" s="39"/>
-      <c r="G77" s="39">
+      <c r="F71" s="35"/>
+      <c r="G71" s="35">
         <v>0</v>
       </c>
+      <c r="J71" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="K71" s="36">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="8">
+        <v>271</v>
+      </c>
+      <c r="B72" s="8">
+        <f>($B$51-A72)/$B$51</f>
+        <v>9.6666666666666665E-2</v>
+      </c>
+      <c r="C72" s="8">
+        <f>B72/$B$53</f>
+        <v>0.38666666666666666</v>
+      </c>
+      <c r="D72" s="8">
+        <v>297</v>
+      </c>
+      <c r="E72" s="8">
+        <v>169</v>
+      </c>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="8">
+        <v>270</v>
+      </c>
+      <c r="B73" s="8">
+        <f t="shared" ref="B73:B80" si="14">($B$51-A73)/$B$51</f>
+        <v>0.1</v>
+      </c>
+      <c r="C73" s="8">
+        <f t="shared" ref="C73:C80" si="15">B73/$B$53</f>
+        <v>0.4</v>
+      </c>
+      <c r="D73" s="8">
+        <v>402</v>
+      </c>
+      <c r="E73" s="8">
+        <v>342</v>
+      </c>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>62</v>
+      </c>
+      <c r="J73">
+        <v>230</v>
+      </c>
+      <c r="K73">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="8">
+        <v>270</v>
+      </c>
+      <c r="B74" s="8">
+        <f t="shared" si="14"/>
+        <v>0.1</v>
+      </c>
+      <c r="C74" s="8">
+        <f t="shared" si="15"/>
+        <v>0.4</v>
+      </c>
+      <c r="D74" s="8">
+        <v>499</v>
+      </c>
+      <c r="E74" s="8">
+        <v>498</v>
+      </c>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="8">
+        <v>269</v>
+      </c>
+      <c r="B75" s="8">
+        <f t="shared" si="14"/>
+        <v>0.10333333333333333</v>
+      </c>
+      <c r="C75" s="8">
+        <f t="shared" si="15"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="D75" s="8">
+        <v>599</v>
+      </c>
+      <c r="E75" s="8">
+        <v>656</v>
+      </c>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="8">
+        <v>269</v>
+      </c>
+      <c r="B76" s="8">
+        <f t="shared" si="14"/>
+        <v>0.10333333333333333</v>
+      </c>
+      <c r="C76" s="8">
+        <f t="shared" si="15"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="D76" s="8">
+        <v>621</v>
+      </c>
+      <c r="E76" s="8">
+        <v>691</v>
+      </c>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="8">
+        <v>270</v>
+      </c>
+      <c r="B77" s="8">
+        <f t="shared" si="14"/>
+        <v>0.1</v>
+      </c>
+      <c r="C77" s="8">
+        <f t="shared" si="15"/>
+        <v>0.4</v>
+      </c>
+      <c r="D77" s="8">
+        <v>449</v>
+      </c>
+      <c r="E77" s="8">
+        <v>423</v>
+      </c>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J78">
-        <f>300*0.75</f>
-        <v>225</v>
-      </c>
-      <c r="K78">
-        <f>300*0.8</f>
-        <v>240</v>
+      <c r="A78" s="8">
+        <v>270</v>
+      </c>
+      <c r="B78" s="8">
+        <f t="shared" si="14"/>
+        <v>0.1</v>
+      </c>
+      <c r="C78" s="8">
+        <f t="shared" si="15"/>
+        <v>0.4</v>
+      </c>
+      <c r="D78" s="8">
+        <v>350</v>
+      </c>
+      <c r="E78" s="8">
+        <v>267</v>
+      </c>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="40">
+      <c r="A79" s="8">
         <v>271</v>
       </c>
       <c r="B79" s="8">
-        <f>($B$56-A79)/$B$56</f>
+        <f t="shared" si="14"/>
         <v>9.6666666666666665E-2</v>
       </c>
       <c r="C79" s="8">
-        <f>B79/$B$58</f>
+        <f t="shared" si="15"/>
         <v>0.38666666666666666</v>
       </c>
       <c r="D79" s="8">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="E79" s="8">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8">
-        <v>1</v>
-      </c>
-      <c r="I79" t="s">
-        <v>62</v>
-      </c>
-      <c r="J79">
-        <v>230</v>
-      </c>
-      <c r="K79">
-        <v>245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -9750,712 +9776,417 @@
         <v>271</v>
       </c>
       <c r="B80" s="8">
-        <f>($B$56-A80)/$B$56</f>
+        <f t="shared" si="14"/>
         <v>9.6666666666666665E-2</v>
       </c>
       <c r="C80" s="8">
-        <f>B80/$B$58</f>
+        <f t="shared" si="15"/>
         <v>0.38666666666666666</v>
       </c>
       <c r="D80" s="8">
-        <v>297</v>
+        <v>200</v>
       </c>
       <c r="E80" s="8">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="F80" s="8"/>
       <c r="G80" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="8">
-        <v>270</v>
-      </c>
-      <c r="B81" s="8">
-        <f t="shared" ref="B81:B88" si="14">($B$56-A81)/$B$56</f>
-        <v>0.1</v>
-      </c>
-      <c r="C81" s="8">
-        <f t="shared" ref="C81:C88" si="15">B81/$B$58</f>
-        <v>0.4</v>
-      </c>
-      <c r="D81" s="8">
-        <v>402</v>
-      </c>
-      <c r="E81" s="8">
-        <v>342</v>
-      </c>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="8">
-        <v>270</v>
-      </c>
-      <c r="B82" s="8">
-        <f t="shared" si="14"/>
-        <v>0.1</v>
-      </c>
-      <c r="C82" s="8">
-        <f t="shared" si="15"/>
-        <v>0.4</v>
-      </c>
-      <c r="D82" s="8">
-        <v>499</v>
-      </c>
-      <c r="E82" s="8">
-        <v>498</v>
-      </c>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="8">
-        <v>269</v>
-      </c>
-      <c r="B83" s="8">
-        <f t="shared" si="14"/>
-        <v>0.10333333333333333</v>
-      </c>
-      <c r="C83" s="8">
-        <f t="shared" si="15"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="D83" s="8">
-        <v>599</v>
-      </c>
-      <c r="E83" s="8">
-        <v>656</v>
-      </c>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="8">
-        <v>269</v>
-      </c>
-      <c r="B84" s="8">
-        <f t="shared" si="14"/>
-        <v>0.10333333333333333</v>
-      </c>
-      <c r="C84" s="8">
-        <f t="shared" si="15"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="D84" s="8">
-        <v>621</v>
-      </c>
-      <c r="E84" s="8">
-        <v>691</v>
-      </c>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="8">
-        <v>270</v>
-      </c>
-      <c r="B85" s="8">
-        <f t="shared" si="14"/>
-        <v>0.1</v>
-      </c>
-      <c r="C85" s="8">
-        <f t="shared" si="15"/>
-        <v>0.4</v>
-      </c>
-      <c r="D85" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="37">
+        <v>244</v>
+      </c>
+      <c r="B81" s="37">
+        <f t="shared" ref="B81:B89" si="16">($B$51-A81)/$B$51</f>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="C81" s="37">
+        <f t="shared" ref="C81:C89" si="17">B81/$B$53</f>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="D81" s="37">
+        <v>347</v>
+      </c>
+      <c r="E81" s="37">
+        <v>35</v>
+      </c>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="37">
+        <v>244</v>
+      </c>
+      <c r="B82" s="37">
+        <f t="shared" si="16"/>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="C82" s="37">
+        <f t="shared" si="17"/>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="D82" s="37">
         <v>449</v>
       </c>
-      <c r="E85" s="8">
-        <v>423</v>
-      </c>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8">
+      <c r="E82" s="37">
+        <v>140</v>
+      </c>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="37">
+        <v>244</v>
+      </c>
+      <c r="B83" s="37">
+        <f t="shared" si="16"/>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="C83" s="37">
+        <f t="shared" si="17"/>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="D83" s="37">
+        <v>502</v>
+      </c>
+      <c r="E83" s="37">
+        <v>193</v>
+      </c>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="37">
+        <v>244</v>
+      </c>
+      <c r="B84" s="37">
+        <f t="shared" si="16"/>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="C84" s="37">
+        <f t="shared" si="17"/>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="D84" s="37">
+        <v>545</v>
+      </c>
+      <c r="E84" s="37">
+        <v>237</v>
+      </c>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="37">
+        <v>244</v>
+      </c>
+      <c r="B85" s="37">
+        <f t="shared" si="16"/>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="C85" s="37">
+        <f t="shared" si="17"/>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="D85" s="37">
+        <v>603</v>
+      </c>
+      <c r="E85" s="37">
+        <v>291</v>
+      </c>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="37">
+        <v>244</v>
+      </c>
+      <c r="B86" s="37">
+        <f t="shared" si="16"/>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="C86" s="37">
+        <f t="shared" si="17"/>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="D86" s="37">
+        <v>625</v>
+      </c>
+      <c r="E86" s="37">
+        <v>316</v>
+      </c>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="37">
+        <v>244</v>
+      </c>
+      <c r="B87" s="37">
+        <f t="shared" si="16"/>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="C87" s="37">
+        <f t="shared" si="17"/>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="D87" s="37">
+        <v>573</v>
+      </c>
+      <c r="E87" s="37">
+        <v>267</v>
+      </c>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="8">
-        <v>270</v>
-      </c>
-      <c r="B86" s="8">
-        <f t="shared" si="14"/>
-        <v>0.1</v>
-      </c>
-      <c r="C86" s="8">
-        <f t="shared" si="15"/>
-        <v>0.4</v>
-      </c>
-      <c r="D86" s="8">
-        <v>350</v>
-      </c>
-      <c r="E86" s="8">
-        <v>267</v>
-      </c>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="37">
+        <v>244</v>
+      </c>
+      <c r="B88" s="37">
+        <f t="shared" si="16"/>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="C88" s="37">
+        <f t="shared" si="17"/>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="D88" s="37">
+        <v>474</v>
+      </c>
+      <c r="E88" s="37">
+        <v>174</v>
+      </c>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="8">
-        <v>271</v>
-      </c>
-      <c r="B87" s="8">
-        <f t="shared" si="14"/>
-        <v>9.6666666666666665E-2</v>
-      </c>
-      <c r="C87" s="8">
-        <f t="shared" si="15"/>
-        <v>0.38666666666666666</v>
-      </c>
-      <c r="D87" s="8">
-        <v>249</v>
-      </c>
-      <c r="E87" s="8">
-        <v>108</v>
-      </c>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="37">
+        <v>244</v>
+      </c>
+      <c r="B89" s="37">
+        <f t="shared" si="16"/>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="C89" s="37">
+        <f t="shared" si="17"/>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="D89" s="37">
+        <v>373</v>
+      </c>
+      <c r="E89" s="37">
+        <v>76</v>
+      </c>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="8">
-        <v>271</v>
-      </c>
-      <c r="B88" s="8">
-        <f t="shared" si="14"/>
-        <v>9.6666666666666665E-2</v>
-      </c>
-      <c r="C88" s="8">
-        <f t="shared" si="15"/>
-        <v>0.38666666666666666</v>
-      </c>
-      <c r="D88" s="8">
-        <v>200</v>
-      </c>
-      <c r="E88" s="8">
-        <v>31</v>
-      </c>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="38">
+        <v>226</v>
+      </c>
+      <c r="B90" s="38">
+        <f t="shared" ref="B90:B97" si="18">($B$51-A90)/$B$51</f>
+        <v>0.24666666666666667</v>
+      </c>
+      <c r="C90" s="38">
+        <f t="shared" ref="C90:C97" si="19">B90/$B$53</f>
+        <v>0.98666666666666669</v>
+      </c>
+      <c r="D90" s="38">
+        <v>510</v>
+      </c>
+      <c r="E90" s="38">
+        <v>3</v>
+      </c>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="38">
+        <v>225</v>
+      </c>
+      <c r="B91" s="38">
+        <f t="shared" si="18"/>
+        <v>0.25</v>
+      </c>
+      <c r="C91" s="38">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D91" s="38">
+        <v>540</v>
+      </c>
+      <c r="E91" s="38">
+        <v>11.9</v>
+      </c>
+      <c r="F91" s="38"/>
+      <c r="G91" s="38">
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="38">
+        <v>225</v>
+      </c>
+      <c r="B92" s="38">
+        <f t="shared" si="18"/>
+        <v>0.25</v>
+      </c>
+      <c r="C92" s="38">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D92" s="38">
+        <v>582</v>
+      </c>
+      <c r="E92" s="38">
+        <v>33.33</v>
+      </c>
+      <c r="F92" s="38"/>
+      <c r="G92" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="38">
+        <v>225</v>
+      </c>
+      <c r="B93" s="38">
+        <f t="shared" si="18"/>
+        <v>0.25</v>
+      </c>
+      <c r="C93" s="38">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D93" s="38">
+        <v>604</v>
+      </c>
+      <c r="E93" s="38">
+        <v>49</v>
+      </c>
+      <c r="F93" s="38"/>
+      <c r="G93" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="38">
+        <v>225</v>
+      </c>
+      <c r="B94" s="38">
+        <f t="shared" si="18"/>
+        <v>0.25</v>
+      </c>
+      <c r="C94" s="38">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D94" s="38">
+        <v>627</v>
+      </c>
+      <c r="E94" s="38">
+        <v>59</v>
+      </c>
+      <c r="F94" s="38"/>
+      <c r="G94" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="38">
+        <v>225</v>
+      </c>
+      <c r="B95" s="38">
+        <f t="shared" si="18"/>
+        <v>0.25</v>
+      </c>
+      <c r="C95" s="38">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D95" s="38">
+        <v>590</v>
+      </c>
+      <c r="E95" s="38">
+        <v>40</v>
+      </c>
+      <c r="F95" s="38"/>
+      <c r="G95" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="B89" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C89" s="42" t="s">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="38">
+        <v>225</v>
+      </c>
+      <c r="B96" s="38">
+        <f t="shared" si="18"/>
+        <v>0.25</v>
+      </c>
+      <c r="C96" s="38">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="D96" s="38">
+        <v>558</v>
+      </c>
+      <c r="E96" s="38">
         <v>26</v>
       </c>
-      <c r="D89" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E89" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="F89" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G89" s="42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="42">
-        <v>245</v>
-      </c>
-      <c r="B90" s="42">
-        <f>($B$56-A90)/$B$56</f>
-        <v>0.18333333333333332</v>
-      </c>
-      <c r="C90" s="42">
-        <f>B90/$B$58</f>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="D90" s="42">
-        <v>137</v>
-      </c>
-      <c r="E90" s="42">
+      <c r="F96" s="38"/>
+      <c r="G96" s="38">
         <v>0</v>
       </c>
-      <c r="F90" s="42"/>
-      <c r="G90" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="42">
-        <v>244</v>
-      </c>
-      <c r="B91" s="42">
-        <f>($B$56-A91)/$B$56</f>
-        <v>0.18666666666666668</v>
-      </c>
-      <c r="C91" s="42">
-        <f>B91/$B$58</f>
-        <v>0.7466666666666667</v>
-      </c>
-      <c r="D91" s="42">
-        <v>347</v>
-      </c>
-      <c r="E91" s="42">
-        <v>35</v>
-      </c>
-      <c r="F91" s="42"/>
-      <c r="G91" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="42">
-        <v>244</v>
-      </c>
-      <c r="B92" s="42">
-        <f>($B$56-A92)/$B$56</f>
-        <v>0.18666666666666668</v>
-      </c>
-      <c r="C92" s="42">
-        <f>B92/$B$58</f>
-        <v>0.7466666666666667</v>
-      </c>
-      <c r="D92" s="42">
-        <v>449</v>
-      </c>
-      <c r="E92" s="42">
-        <v>140</v>
-      </c>
-      <c r="F92" s="42"/>
-      <c r="G92" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="42">
-        <v>244</v>
-      </c>
-      <c r="B93" s="42">
-        <f>($B$56-A93)/$B$56</f>
-        <v>0.18666666666666668</v>
-      </c>
-      <c r="C93" s="42">
-        <f>B93/$B$58</f>
-        <v>0.7466666666666667</v>
-      </c>
-      <c r="D93" s="42">
-        <v>502</v>
-      </c>
-      <c r="E93" s="42">
-        <v>193</v>
-      </c>
-      <c r="F93" s="42"/>
-      <c r="G93" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="42">
-        <v>244</v>
-      </c>
-      <c r="B94" s="42">
-        <f>($B$56-A94)/$B$56</f>
-        <v>0.18666666666666668</v>
-      </c>
-      <c r="C94" s="42">
-        <f>B94/$B$58</f>
-        <v>0.7466666666666667</v>
-      </c>
-      <c r="D94" s="42">
-        <v>545</v>
-      </c>
-      <c r="E94" s="42">
-        <v>237</v>
-      </c>
-      <c r="F94" s="42"/>
-      <c r="G94" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="42">
-        <v>244</v>
-      </c>
-      <c r="B95" s="42">
-        <f>($B$56-A95)/$B$56</f>
-        <v>0.18666666666666668</v>
-      </c>
-      <c r="C95" s="42">
-        <f>B95/$B$58</f>
-        <v>0.7466666666666667</v>
-      </c>
-      <c r="D95" s="42">
-        <v>603</v>
-      </c>
-      <c r="E95" s="42">
-        <v>291</v>
-      </c>
-      <c r="F95" s="42"/>
-      <c r="G95" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="42">
-        <v>244</v>
-      </c>
-      <c r="B96" s="42">
-        <f>($B$56-A96)/$B$56</f>
-        <v>0.18666666666666668</v>
-      </c>
-      <c r="C96" s="42">
-        <f>B96/$B$58</f>
-        <v>0.7466666666666667</v>
-      </c>
-      <c r="D96" s="42">
-        <v>625</v>
-      </c>
-      <c r="E96" s="42">
-        <v>316</v>
-      </c>
-      <c r="F96" s="42"/>
-      <c r="G96" s="42">
-        <v>1</v>
-      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="42">
-        <v>244</v>
-      </c>
-      <c r="B97" s="42">
-        <f>($B$56-A97)/$B$56</f>
-        <v>0.18666666666666668</v>
-      </c>
-      <c r="C97" s="42">
-        <f>B97/$B$58</f>
-        <v>0.7466666666666667</v>
-      </c>
-      <c r="D97" s="42">
-        <v>573</v>
-      </c>
-      <c r="E97" s="42">
-        <v>267</v>
-      </c>
-      <c r="F97" s="42"/>
-      <c r="G97" s="42">
+      <c r="A97" s="38">
+        <v>226</v>
+      </c>
+      <c r="B97" s="38">
+        <f t="shared" si="18"/>
+        <v>0.24666666666666667</v>
+      </c>
+      <c r="C97" s="38">
+        <f t="shared" si="19"/>
+        <v>0.98666666666666669</v>
+      </c>
+      <c r="D97" s="38">
+        <v>514</v>
+      </c>
+      <c r="E97" s="38">
+        <v>5</v>
+      </c>
+      <c r="F97" s="38"/>
+      <c r="G97" s="38">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="42">
-        <v>244</v>
-      </c>
-      <c r="B98" s="42">
-        <f>($B$56-A98)/$B$56</f>
-        <v>0.18666666666666668</v>
-      </c>
-      <c r="C98" s="42">
-        <f>B98/$B$58</f>
-        <v>0.7466666666666667</v>
-      </c>
-      <c r="D98" s="42">
-        <v>474</v>
-      </c>
-      <c r="E98" s="42">
-        <v>174</v>
-      </c>
-      <c r="F98" s="42"/>
-      <c r="G98" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="42">
-        <v>244</v>
-      </c>
-      <c r="B99" s="42">
-        <f>($B$56-A99)/$B$56</f>
-        <v>0.18666666666666668</v>
-      </c>
-      <c r="C99" s="42">
-        <f>B99/$B$58</f>
-        <v>0.7466666666666667</v>
-      </c>
-      <c r="D99" s="42">
-        <v>373</v>
-      </c>
-      <c r="E99" s="42">
-        <v>76</v>
-      </c>
-      <c r="F99" s="42"/>
-      <c r="G99" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D100" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E100" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F100" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G100" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="15">
-        <v>226</v>
-      </c>
-      <c r="B101" s="15">
-        <f>($B$56-A101)/$B$56</f>
-        <v>0.24666666666666667</v>
-      </c>
-      <c r="C101" s="15">
-        <f>B101/$B$58</f>
-        <v>0.98666666666666669</v>
-      </c>
-      <c r="D101" s="15">
-        <v>510</v>
-      </c>
-      <c r="E101" s="15">
-        <v>3</v>
-      </c>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="15">
-        <v>225</v>
-      </c>
-      <c r="B102" s="15">
-        <f>($B$56-A102)/$B$56</f>
-        <v>0.25</v>
-      </c>
-      <c r="C102" s="15">
-        <f>B102/$B$58</f>
-        <v>1</v>
-      </c>
-      <c r="D102" s="15">
-        <v>540</v>
-      </c>
-      <c r="E102" s="15">
-        <v>11.9</v>
-      </c>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="15">
-        <v>225</v>
-      </c>
-      <c r="B103" s="15">
-        <f>($B$56-A103)/$B$56</f>
-        <v>0.25</v>
-      </c>
-      <c r="C103" s="15">
-        <f>B103/$B$58</f>
-        <v>1</v>
-      </c>
-      <c r="D103" s="15">
-        <v>582</v>
-      </c>
-      <c r="E103" s="15">
-        <v>33.33</v>
-      </c>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="15">
-        <v>225</v>
-      </c>
-      <c r="B104" s="15">
-        <f>($B$56-A104)/$B$56</f>
-        <v>0.25</v>
-      </c>
-      <c r="C104" s="15">
-        <f>B104/$B$58</f>
-        <v>1</v>
-      </c>
-      <c r="D104" s="15">
-        <v>604</v>
-      </c>
-      <c r="E104" s="15">
-        <v>49</v>
-      </c>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="15">
-        <v>225</v>
-      </c>
-      <c r="B105" s="15">
-        <f>($B$56-A105)/$B$56</f>
-        <v>0.25</v>
-      </c>
-      <c r="C105" s="15">
-        <f>B105/$B$58</f>
-        <v>1</v>
-      </c>
-      <c r="D105" s="15">
-        <v>627</v>
-      </c>
-      <c r="E105" s="15">
-        <v>59</v>
-      </c>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="15">
-        <v>225</v>
-      </c>
-      <c r="B106" s="15">
-        <f>($B$56-A106)/$B$56</f>
-        <v>0.25</v>
-      </c>
-      <c r="C106" s="15">
-        <f>B106/$B$58</f>
-        <v>1</v>
-      </c>
-      <c r="D106" s="15">
-        <v>590</v>
-      </c>
-      <c r="E106" s="15">
-        <v>40</v>
-      </c>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="15">
-        <v>225</v>
-      </c>
-      <c r="B107" s="15">
-        <f>($B$56-A107)/$B$56</f>
-        <v>0.25</v>
-      </c>
-      <c r="C107" s="15">
-        <f>B107/$B$58</f>
-        <v>1</v>
-      </c>
-      <c r="D107" s="15">
-        <v>558</v>
-      </c>
-      <c r="E107" s="15">
-        <v>26</v>
-      </c>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="15">
-        <v>226</v>
-      </c>
-      <c r="B108" s="15">
-        <f>($B$56-A108)/$B$56</f>
-        <v>0.24666666666666667</v>
-      </c>
-      <c r="C108" s="15">
-        <f>B108/$B$58</f>
-        <v>0.98666666666666669</v>
-      </c>
-      <c r="D108" s="15">
-        <v>514</v>
-      </c>
-      <c r="E108" s="15">
-        <v>5</v>
-      </c>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="15"/>
-      <c r="B109" s="15"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="15"/>
-      <c r="B110" s="15"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="15"/>
-      <c r="B111" s="15"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="15"/>
-      <c r="B112" s="15"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="15"/>
-      <c r="G112" s="15"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="15"/>
-      <c r="B113" s="15"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
-      <c r="F113" s="15"/>
-      <c r="G113" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10466,8 +10197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2708FD-2F43-4DD2-A436-851B1200C17D}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10658,7 +10389,7 @@
       <c r="G9" s="4">
         <v>1</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="25">
         <v>369</v>
       </c>
       <c r="J9" s="24"/>
@@ -10712,10 +10443,10 @@
       <c r="G11" s="4">
         <v>1</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="28">
         <v>275</v>
       </c>
-      <c r="J11" s="30"/>
+      <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -11652,10 +11383,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E1E9D2-B33D-45CD-A68E-D7F65B100D82}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11703,189 +11434,189 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="36">
+      <c r="A6" s="32">
         <v>334</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="32">
         <f>($B$1-A6)/$B$1</f>
         <v>0.25942350332594233</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="32">
         <f>B6/$B$3</f>
         <v>1</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="32">
         <v>620</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="32">
         <v>0</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="32">
         <v>451</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="36">
+      <c r="A7" s="32">
         <v>340</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="32">
         <f t="shared" ref="B7:B11" si="0">($B$1-A7)/$B$1</f>
         <v>0.24611973392461198</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="32">
         <f t="shared" ref="C7:C11" si="1">B7/$B$3</f>
         <v>0.94871794871794879</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="32">
         <v>509</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="32">
         <v>0</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36">
+      <c r="F7" s="32"/>
+      <c r="G7" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="36">
+      <c r="A8" s="32">
         <v>345</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="32">
         <f t="shared" si="0"/>
         <v>0.23503325942350334</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="32">
         <f t="shared" si="1"/>
         <v>0.90598290598290609</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="32">
         <v>398</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="32">
         <v>0</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36">
+      <c r="F8" s="32"/>
+      <c r="G8" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="36">
+      <c r="A9" s="32">
         <v>360</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="32">
         <f t="shared" si="0"/>
         <v>0.20177383592017739</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="32">
         <f t="shared" si="1"/>
         <v>0.7777777777777779</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="32">
         <v>297</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="32">
         <v>0</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36">
+      <c r="F9" s="32"/>
+      <c r="G9" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="36">
+      <c r="A10" s="32">
         <v>374</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="32">
         <f t="shared" si="0"/>
         <v>0.17073170731707318</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="32">
         <f t="shared" si="1"/>
         <v>0.65811965811965822</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="32">
         <v>205</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="32">
         <v>0</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36">
+      <c r="F10" s="32"/>
+      <c r="G10" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="36">
+      <c r="A11" s="32">
         <v>421</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="32">
         <f t="shared" si="0"/>
         <v>6.6518847006651879E-2</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="32">
         <f t="shared" si="1"/>
         <v>0.25641025641025639</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="32">
         <v>100</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="32">
         <v>0</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36">
+      <c r="F11" s="32"/>
+      <c r="G11" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>30</v>
+      <c r="A12" s="13">
+        <v>440</v>
+      </c>
+      <c r="B12" s="13">
+        <f>($B$1-A12)/$B$1</f>
+        <v>2.4390243902439025E-2</v>
+      </c>
+      <c r="C12" s="13">
+        <f>B12/$B$3</f>
+        <v>9.401709401709403E-2</v>
+      </c>
+      <c r="D12" s="13">
+        <v>623</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1281</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -11893,41 +11624,41 @@
         <v>440</v>
       </c>
       <c r="B13" s="13">
-        <f>($B$1-A13)/$B$1</f>
+        <f t="shared" ref="B13:B22" si="2">($B$1-A13)/$B$1</f>
         <v>2.4390243902439025E-2</v>
       </c>
       <c r="C13" s="13">
-        <f>B13/$B$3</f>
+        <f t="shared" ref="C13:C22" si="3">B13/$B$3</f>
         <v>9.401709401709403E-2</v>
       </c>
       <c r="D13" s="13">
-        <v>623</v>
+        <v>595</v>
       </c>
       <c r="E13" s="13">
-        <v>1281</v>
+        <v>1221</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B14" s="13">
-        <f t="shared" ref="B14:B23" si="2">($B$1-A14)/$B$1</f>
-        <v>2.4390243902439025E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.2172949002217297E-2</v>
       </c>
       <c r="C14" s="13">
-        <f t="shared" ref="C14:C23" si="3">B14/$B$3</f>
-        <v>9.401709401709403E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.5470085470085486E-2</v>
       </c>
       <c r="D14" s="13">
-        <v>595</v>
+        <v>501</v>
       </c>
       <c r="E14" s="13">
-        <v>1221</v>
+        <v>1006</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13">
@@ -11936,21 +11667,21 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B15" s="13">
         <f t="shared" si="2"/>
-        <v>2.2172949002217297E-2</v>
+        <v>1.9955654101995565E-2</v>
       </c>
       <c r="C15" s="13">
         <f t="shared" si="3"/>
-        <v>8.5470085470085486E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="D15" s="13">
-        <v>501</v>
+        <v>403</v>
       </c>
       <c r="E15" s="13">
-        <v>1006</v>
+        <v>786</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13">
@@ -11959,21 +11690,21 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B16" s="13">
         <f t="shared" si="2"/>
-        <v>1.9955654101995565E-2</v>
+        <v>1.7738359201773836E-2</v>
       </c>
       <c r="C16" s="13">
         <f t="shared" si="3"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.8376068376068383E-2</v>
       </c>
       <c r="D16" s="13">
-        <v>403</v>
+        <v>198</v>
       </c>
       <c r="E16" s="13">
-        <v>786</v>
+        <v>325</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13">
@@ -11982,21 +11713,21 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B17" s="13">
         <f t="shared" si="2"/>
-        <v>1.7738359201773836E-2</v>
+        <v>1.5521064301552107E-2</v>
       </c>
       <c r="C17" s="13">
         <f t="shared" si="3"/>
-        <v>6.8376068376068383E-2</v>
+        <v>5.9829059829059839E-2</v>
       </c>
       <c r="D17" s="13">
-        <v>198</v>
+        <v>115</v>
       </c>
       <c r="E17" s="13">
-        <v>325</v>
+        <v>138</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13">
@@ -12005,44 +11736,44 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B18" s="13">
         <f t="shared" si="2"/>
-        <v>1.5521064301552107E-2</v>
+        <v>1.7738359201773836E-2</v>
       </c>
       <c r="C18" s="13">
         <f t="shared" si="3"/>
-        <v>5.9829059829059839E-2</v>
+        <v>6.8376068376068383E-2</v>
       </c>
       <c r="D18" s="13">
-        <v>115</v>
+        <v>251</v>
       </c>
       <c r="E18" s="13">
-        <v>138</v>
+        <v>444</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B19" s="13">
         <f t="shared" si="2"/>
-        <v>1.7738359201773836E-2</v>
+        <v>1.9955654101995565E-2</v>
       </c>
       <c r="C19" s="13">
         <f t="shared" si="3"/>
-        <v>6.8376068376068383E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="D19" s="13">
-        <v>251</v>
+        <v>350</v>
       </c>
       <c r="E19" s="13">
-        <v>444</v>
+        <v>663</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13">
@@ -12062,10 +11793,10 @@
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="D20" s="13">
-        <v>350</v>
+        <v>448</v>
       </c>
       <c r="E20" s="13">
-        <v>663</v>
+        <v>882</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13">
@@ -12074,21 +11805,21 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B21" s="13">
         <f t="shared" si="2"/>
-        <v>1.9955654101995565E-2</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="C21" s="13">
         <f t="shared" si="3"/>
-        <v>7.6923076923076927E-2</v>
+        <v>9.401709401709403E-2</v>
       </c>
       <c r="D21" s="13">
-        <v>448</v>
+        <v>543</v>
       </c>
       <c r="E21" s="13">
-        <v>882</v>
+        <v>1097</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13">
@@ -12097,343 +11828,343 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B22" s="13">
         <f t="shared" si="2"/>
-        <v>2.4390243902439025E-2</v>
+        <v>1.9955654101995565E-2</v>
       </c>
       <c r="C22" s="13">
         <f t="shared" si="3"/>
-        <v>9.401709401709403E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="D22" s="13">
-        <v>543</v>
+        <v>290</v>
       </c>
       <c r="E22" s="13">
-        <v>1097</v>
+        <v>528</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
-        <v>442</v>
-      </c>
-      <c r="B23" s="13">
-        <f t="shared" si="2"/>
-        <v>1.9955654101995565E-2</v>
-      </c>
-      <c r="C23" s="13">
-        <f t="shared" si="3"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="D23" s="13">
-        <v>290</v>
-      </c>
-      <c r="E23" s="13">
-        <v>528</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13">
+      <c r="A23" s="33">
+        <v>447</v>
+      </c>
+      <c r="B23" s="33">
+        <f t="shared" ref="B23:B32" si="4">($B$1-A23)/$B$1</f>
+        <v>8.869179600886918E-3</v>
+      </c>
+      <c r="C23" s="33">
+        <f t="shared" ref="C23:C32" si="5">B23/$B$3</f>
+        <v>3.4188034188034191E-2</v>
+      </c>
+      <c r="D23" s="33">
+        <v>234</v>
+      </c>
+      <c r="E23" s="33">
+        <v>463</v>
+      </c>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="33">
+        <v>446</v>
+      </c>
+      <c r="B24" s="33">
+        <f t="shared" si="4"/>
+        <v>1.1086474501108648E-2</v>
+      </c>
+      <c r="C24" s="33">
+        <f t="shared" si="5"/>
+        <v>4.2735042735042743E-2</v>
+      </c>
+      <c r="D24" s="33">
+        <v>360</v>
+      </c>
+      <c r="E24" s="33">
+        <v>749</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="33">
+        <v>445</v>
+      </c>
+      <c r="B25" s="33">
+        <f t="shared" si="4"/>
+        <v>1.3303769401330377E-2</v>
+      </c>
+      <c r="C25" s="33">
+        <f t="shared" si="5"/>
+        <v>5.1282051282051287E-2</v>
+      </c>
+      <c r="D25" s="33">
+        <v>449</v>
+      </c>
+      <c r="E25" s="33">
+        <v>952</v>
+      </c>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="33">
+        <v>445</v>
+      </c>
+      <c r="B26" s="33">
+        <f t="shared" si="4"/>
+        <v>1.3303769401330377E-2</v>
+      </c>
+      <c r="C26" s="33">
+        <f t="shared" si="5"/>
+        <v>5.1282051282051287E-2</v>
+      </c>
+      <c r="D26" s="33">
+        <v>502</v>
+      </c>
+      <c r="E26" s="33">
+        <v>1072</v>
+      </c>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="33">
+        <v>444</v>
+      </c>
+      <c r="B27" s="33">
+        <f t="shared" si="4"/>
+        <v>1.5521064301552107E-2</v>
+      </c>
+      <c r="C27" s="33">
+        <f t="shared" si="5"/>
+        <v>5.9829059829059839E-2</v>
+      </c>
+      <c r="D27" s="33">
+        <v>552</v>
+      </c>
+      <c r="E27" s="33">
+        <v>1185</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="33">
+        <v>444</v>
+      </c>
+      <c r="B28" s="33">
+        <f t="shared" si="4"/>
+        <v>1.5521064301552107E-2</v>
+      </c>
+      <c r="C28" s="33">
+        <f t="shared" si="5"/>
+        <v>5.9829059829059839E-2</v>
+      </c>
+      <c r="D28" s="33">
+        <v>604</v>
+      </c>
+      <c r="E28" s="33">
+        <v>1293</v>
+      </c>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="33">
+        <v>443</v>
+      </c>
+      <c r="B29" s="33">
+        <f t="shared" si="4"/>
+        <v>1.7738359201773836E-2</v>
+      </c>
+      <c r="C29" s="33">
+        <f t="shared" si="5"/>
+        <v>6.8376068376068383E-2</v>
+      </c>
+      <c r="D29" s="33">
+        <v>620</v>
+      </c>
+      <c r="E29" s="33">
+        <v>1324</v>
+      </c>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="33">
+        <v>444</v>
+      </c>
+      <c r="B30" s="33">
+        <f t="shared" si="4"/>
+        <v>1.5521064301552107E-2</v>
+      </c>
+      <c r="C30" s="33">
+        <f t="shared" si="5"/>
+        <v>5.9829059829059839E-2</v>
+      </c>
+      <c r="D30" s="33">
+        <v>469</v>
+      </c>
+      <c r="E30" s="33">
+        <v>981</v>
+      </c>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="37">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="33">
+        <v>445</v>
+      </c>
+      <c r="B31" s="33">
+        <f t="shared" si="4"/>
+        <v>1.3303769401330377E-2</v>
+      </c>
+      <c r="C31" s="33">
+        <f t="shared" si="5"/>
+        <v>5.1282051282051287E-2</v>
+      </c>
+      <c r="D31" s="33">
+        <v>285</v>
+      </c>
+      <c r="E31" s="33">
+        <v>561</v>
+      </c>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="33">
         <v>447</v>
       </c>
-      <c r="B25" s="37">
-        <f>($B$1-A25)/$B$1</f>
+      <c r="B32" s="33">
+        <f t="shared" si="4"/>
         <v>8.869179600886918E-3</v>
       </c>
-      <c r="C25" s="37">
-        <f>B25/$B$3</f>
+      <c r="C32" s="33">
+        <f t="shared" si="5"/>
         <v>3.4188034188034191E-2</v>
       </c>
-      <c r="D25" s="37">
-        <v>234</v>
-      </c>
-      <c r="E25" s="37">
-        <v>463</v>
-      </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="37">
-        <v>446</v>
-      </c>
-      <c r="B26" s="37">
-        <f>($B$1-A26)/$B$1</f>
-        <v>1.1086474501108648E-2</v>
-      </c>
-      <c r="C26" s="37">
-        <f>B26/$B$3</f>
-        <v>4.2735042735042743E-2</v>
-      </c>
-      <c r="D26" s="37">
-        <v>360</v>
-      </c>
-      <c r="E26" s="37">
-        <v>749</v>
-      </c>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="37">
-        <v>445</v>
-      </c>
-      <c r="B27" s="37">
-        <f>($B$1-A27)/$B$1</f>
-        <v>1.3303769401330377E-2</v>
-      </c>
-      <c r="C27" s="37">
-        <f>B27/$B$3</f>
-        <v>5.1282051282051287E-2</v>
-      </c>
-      <c r="D27" s="37">
-        <v>449</v>
-      </c>
-      <c r="E27" s="37">
-        <v>952</v>
-      </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="37">
-        <v>445</v>
-      </c>
-      <c r="B28" s="37">
-        <f>($B$1-A28)/$B$1</f>
-        <v>1.3303769401330377E-2</v>
-      </c>
-      <c r="C28" s="37">
-        <f>B28/$B$3</f>
-        <v>5.1282051282051287E-2</v>
-      </c>
-      <c r="D28" s="37">
-        <v>502</v>
-      </c>
-      <c r="E28" s="37">
-        <v>1072</v>
-      </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="37">
-        <v>444</v>
-      </c>
-      <c r="B29" s="37">
-        <f>($B$1-A29)/$B$1</f>
-        <v>1.5521064301552107E-2</v>
-      </c>
-      <c r="C29" s="37">
-        <f>B29/$B$3</f>
-        <v>5.9829059829059839E-2</v>
-      </c>
-      <c r="D29" s="37">
-        <v>552</v>
-      </c>
-      <c r="E29" s="37">
-        <v>1185</v>
-      </c>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="37">
-        <v>444</v>
-      </c>
-      <c r="B30" s="37">
-        <f>($B$1-A30)/$B$1</f>
-        <v>1.5521064301552107E-2</v>
-      </c>
-      <c r="C30" s="37">
-        <f>B30/$B$3</f>
-        <v>5.9829059829059839E-2</v>
-      </c>
-      <c r="D30" s="37">
-        <v>604</v>
-      </c>
-      <c r="E30" s="37">
-        <v>1293</v>
-      </c>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="37">
-        <v>443</v>
-      </c>
-      <c r="B31" s="37">
-        <f>($B$1-A31)/$B$1</f>
-        <v>1.7738359201773836E-2</v>
-      </c>
-      <c r="C31" s="37">
-        <f>B31/$B$3</f>
-        <v>6.8376068376068383E-2</v>
-      </c>
-      <c r="D31" s="37">
-        <v>620</v>
-      </c>
-      <c r="E31" s="37">
-        <v>1324</v>
-      </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="37">
-        <v>444</v>
-      </c>
-      <c r="B32" s="37">
-        <f>($B$1-A32)/$B$1</f>
-        <v>1.5521064301552107E-2</v>
-      </c>
-      <c r="C32" s="37">
-        <f>B32/$B$3</f>
-        <v>5.9829059829059839E-2</v>
-      </c>
-      <c r="D32" s="37">
-        <v>469</v>
-      </c>
-      <c r="E32" s="37">
-        <v>981</v>
-      </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37">
+      <c r="D32" s="33">
+        <v>164</v>
+      </c>
+      <c r="E32" s="33">
+        <v>285</v>
+      </c>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="37">
-        <v>445</v>
-      </c>
-      <c r="B33" s="37">
-        <f>($B$1-A33)/$B$1</f>
-        <v>1.3303769401330377E-2</v>
-      </c>
-      <c r="C33" s="37">
-        <f>B33/$B$3</f>
-        <v>5.1282051282051287E-2</v>
-      </c>
-      <c r="D33" s="37">
-        <v>285</v>
-      </c>
-      <c r="E33" s="37">
-        <v>561</v>
-      </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37">
-        <v>0</v>
+      <c r="A33" s="17">
+        <v>437</v>
+      </c>
+      <c r="B33" s="17">
+        <f t="shared" ref="B33:B43" si="6">($B$1-A33)/$B$1</f>
+        <v>3.1042128603104215E-2</v>
+      </c>
+      <c r="C33" s="17">
+        <f t="shared" ref="C33:C43" si="7">B33/$B$3</f>
+        <v>0.11965811965811968</v>
+      </c>
+      <c r="D33" s="17">
+        <v>175</v>
+      </c>
+      <c r="E33" s="17">
+        <v>108</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="37">
-        <v>447</v>
-      </c>
-      <c r="B34" s="37">
-        <f>($B$1-A34)/$B$1</f>
-        <v>8.869179600886918E-3</v>
-      </c>
-      <c r="C34" s="37">
-        <f>B34/$B$3</f>
-        <v>3.4188034188034191E-2</v>
-      </c>
-      <c r="D34" s="37">
-        <v>164</v>
-      </c>
-      <c r="E34" s="37">
-        <v>285</v>
-      </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37">
-        <v>0</v>
+      <c r="A34" s="17">
+        <v>432</v>
+      </c>
+      <c r="B34" s="17">
+        <f t="shared" si="6"/>
+        <v>4.2128603104212861E-2</v>
+      </c>
+      <c r="C34" s="17">
+        <f t="shared" si="7"/>
+        <v>0.1623931623931624</v>
+      </c>
+      <c r="D34" s="17">
+        <v>249</v>
+      </c>
+      <c r="E34" s="17">
+        <v>267</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>30</v>
+      <c r="A35" s="17">
+        <v>431</v>
+      </c>
+      <c r="B35" s="17">
+        <f t="shared" si="6"/>
+        <v>4.4345898004434593E-2</v>
+      </c>
+      <c r="C35" s="17">
+        <f t="shared" si="7"/>
+        <v>0.17094017094017097</v>
+      </c>
+      <c r="D35" s="17">
+        <v>301</v>
+      </c>
+      <c r="E35" s="17">
+        <v>380</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B36" s="17">
-        <f>($B$1-A36)/$B$1</f>
-        <v>3.1042128603104215E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.4345898004434593E-2</v>
       </c>
       <c r="C36" s="17">
-        <f>B36/$B$3</f>
-        <v>0.11965811965811968</v>
+        <f t="shared" si="7"/>
+        <v>0.17094017094017097</v>
       </c>
       <c r="D36" s="17">
-        <v>175</v>
+        <v>402</v>
       </c>
       <c r="E36" s="17">
-        <v>108</v>
+        <v>591</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="17">
@@ -12442,21 +12173,21 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B37" s="17">
-        <f>($B$1-A37)/$B$1</f>
-        <v>4.2128603104212861E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.6563192904656318E-2</v>
       </c>
       <c r="C37" s="17">
-        <f>B37/$B$3</f>
-        <v>0.1623931623931624</v>
+        <f t="shared" si="7"/>
+        <v>0.17948717948717949</v>
       </c>
       <c r="D37" s="17">
-        <v>249</v>
+        <v>498</v>
       </c>
       <c r="E37" s="17">
-        <v>267</v>
+        <v>794</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="17">
@@ -12465,21 +12196,21 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B38" s="17">
-        <f>($B$1-A38)/$B$1</f>
-        <v>4.4345898004434593E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="C38" s="17">
-        <f>B38/$B$3</f>
-        <v>0.17094017094017097</v>
+        <f t="shared" si="7"/>
+        <v>0.18803418803418806</v>
       </c>
       <c r="D38" s="17">
-        <v>301</v>
+        <v>598</v>
       </c>
       <c r="E38" s="17">
-        <v>380</v>
+        <v>1003</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17">
@@ -12488,21 +12219,21 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B39" s="17">
-        <f>($B$1-A39)/$B$1</f>
-        <v>4.4345898004434593E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="C39" s="17">
-        <f>B39/$B$3</f>
-        <v>0.17094017094017097</v>
+        <f t="shared" si="7"/>
+        <v>0.18803418803418806</v>
       </c>
       <c r="D39" s="17">
-        <v>402</v>
+        <v>615</v>
       </c>
       <c r="E39" s="17">
-        <v>591</v>
+        <v>1038</v>
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="17">
@@ -12511,90 +12242,90 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B40" s="17">
-        <f>($B$1-A40)/$B$1</f>
-        <v>4.6563192904656318E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="C40" s="17">
-        <f>B40/$B$3</f>
-        <v>0.17948717948717949</v>
+        <f t="shared" si="7"/>
+        <v>0.18803418803418806</v>
       </c>
       <c r="D40" s="17">
-        <v>498</v>
+        <v>555</v>
       </c>
       <c r="E40" s="17">
-        <v>794</v>
+        <v>915</v>
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B41" s="17">
-        <f>($B$1-A41)/$B$1</f>
-        <v>4.878048780487805E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.6563192904656318E-2</v>
       </c>
       <c r="C41" s="17">
-        <f>B41/$B$3</f>
-        <v>0.18803418803418806</v>
+        <f t="shared" si="7"/>
+        <v>0.17948717948717949</v>
       </c>
       <c r="D41" s="17">
-        <v>598</v>
+        <v>455</v>
       </c>
       <c r="E41" s="17">
-        <v>1003</v>
+        <v>710</v>
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B42" s="17">
-        <f>($B$1-A42)/$B$1</f>
-        <v>4.878048780487805E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.4345898004434593E-2</v>
       </c>
       <c r="C42" s="17">
-        <f>B42/$B$3</f>
-        <v>0.18803418803418806</v>
+        <f t="shared" si="7"/>
+        <v>0.17094017094017097</v>
       </c>
       <c r="D42" s="17">
-        <v>615</v>
+        <v>346</v>
       </c>
       <c r="E42" s="17">
-        <v>1038</v>
+        <v>481</v>
       </c>
       <c r="F42" s="17"/>
       <c r="G42" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B43" s="17">
-        <f>($B$1-A43)/$B$1</f>
-        <v>4.878048780487805E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.2128603104212861E-2</v>
       </c>
       <c r="C43" s="17">
-        <f>B43/$B$3</f>
-        <v>0.18803418803418806</v>
+        <f t="shared" si="7"/>
+        <v>0.1623931623931624</v>
       </c>
       <c r="D43" s="17">
-        <v>555</v>
+        <v>201</v>
       </c>
       <c r="E43" s="17">
-        <v>915</v>
+        <v>180</v>
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="17">
@@ -12602,114 +12333,114 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="17">
-        <v>430</v>
-      </c>
-      <c r="B44" s="17">
-        <f>($B$1-A44)/$B$1</f>
-        <v>4.6563192904656318E-2</v>
-      </c>
-      <c r="C44" s="17">
-        <f>B44/$B$3</f>
-        <v>0.17948717948717949</v>
-      </c>
-      <c r="D44" s="17">
-        <v>455</v>
-      </c>
-      <c r="E44" s="17">
-        <v>710</v>
-      </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17">
+      <c r="A44" s="16">
+        <v>414</v>
+      </c>
+      <c r="B44" s="16">
+        <f t="shared" ref="B44:B54" si="8">($B$1-A44)/$B$1</f>
+        <v>8.2039911308203997E-2</v>
+      </c>
+      <c r="C44" s="16">
+        <f t="shared" ref="C44:C54" si="9">B44/$B$3</f>
+        <v>0.31623931623931628</v>
+      </c>
+      <c r="D44" s="16">
+        <v>145</v>
+      </c>
+      <c r="E44" s="16">
         <v>0</v>
       </c>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="17">
-        <v>431</v>
-      </c>
-      <c r="B45" s="17">
-        <f>($B$1-A45)/$B$1</f>
-        <v>4.4345898004434593E-2</v>
-      </c>
-      <c r="C45" s="17">
-        <f>B45/$B$3</f>
-        <v>0.17094017094017097</v>
-      </c>
-      <c r="D45" s="17">
-        <v>346</v>
-      </c>
-      <c r="E45" s="17">
-        <v>481</v>
-      </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17">
-        <v>0</v>
+      <c r="A45" s="16">
+        <v>414</v>
+      </c>
+      <c r="B45" s="16">
+        <f t="shared" si="8"/>
+        <v>8.2039911308203997E-2</v>
+      </c>
+      <c r="C45" s="16">
+        <f t="shared" si="9"/>
+        <v>0.31623931623931628</v>
+      </c>
+      <c r="D45" s="16">
+        <v>250</v>
+      </c>
+      <c r="E45" s="16">
+        <v>134</v>
+      </c>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="17">
-        <v>432</v>
-      </c>
-      <c r="B46" s="17">
-        <f>($B$1-A46)/$B$1</f>
-        <v>4.2128603104212861E-2</v>
-      </c>
-      <c r="C46" s="17">
-        <f>B46/$B$3</f>
-        <v>0.1623931623931624</v>
-      </c>
-      <c r="D46" s="17">
-        <v>201</v>
-      </c>
-      <c r="E46" s="17">
-        <v>180</v>
-      </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17">
-        <v>0</v>
+      <c r="A46" s="16">
+        <v>413</v>
+      </c>
+      <c r="B46" s="16">
+        <f t="shared" si="8"/>
+        <v>8.4257206208425722E-2</v>
+      </c>
+      <c r="C46" s="16">
+        <f t="shared" si="9"/>
+        <v>0.3247863247863248</v>
+      </c>
+      <c r="D46" s="16">
+        <v>350</v>
+      </c>
+      <c r="E46" s="16">
+        <v>317</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>30</v>
+      <c r="A47" s="16">
+        <v>411</v>
+      </c>
+      <c r="B47" s="16">
+        <f t="shared" si="8"/>
+        <v>8.8691796008869186E-2</v>
+      </c>
+      <c r="C47" s="16">
+        <f t="shared" si="9"/>
+        <v>0.34188034188034194</v>
+      </c>
+      <c r="D47" s="16">
+        <v>451</v>
+      </c>
+      <c r="E47" s="16">
+        <v>500</v>
+      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B48" s="16">
-        <f>($B$1-A48)/$B$1</f>
-        <v>8.2039911308203997E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.8691796008869186E-2</v>
       </c>
       <c r="C48" s="16">
-        <f>B48/$B$3</f>
-        <v>0.31623931623931628</v>
+        <f t="shared" si="9"/>
+        <v>0.34188034188034194</v>
       </c>
       <c r="D48" s="16">
-        <v>145</v>
+        <v>501</v>
       </c>
       <c r="E48" s="16">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16">
@@ -12718,21 +12449,21 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B49" s="16">
-        <f>($B$1-A49)/$B$1</f>
-        <v>8.2039911308203997E-2</v>
+        <f t="shared" si="8"/>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="C49" s="16">
-        <f>B49/$B$3</f>
-        <v>0.31623931623931628</v>
+        <f t="shared" si="9"/>
+        <v>0.35042735042735046</v>
       </c>
       <c r="D49" s="16">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="E49" s="16">
-        <v>134</v>
+        <v>670</v>
       </c>
       <c r="F49" s="16"/>
       <c r="G49" s="16">
@@ -12741,21 +12472,21 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B50" s="16">
-        <f>($B$1-A50)/$B$1</f>
-        <v>8.4257206208425722E-2</v>
+        <f t="shared" si="8"/>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="C50" s="16">
-        <f>B50/$B$3</f>
-        <v>0.3247863247863248</v>
+        <f t="shared" si="9"/>
+        <v>0.35042735042735046</v>
       </c>
       <c r="D50" s="16">
-        <v>350</v>
+        <v>603</v>
       </c>
       <c r="E50" s="16">
-        <v>317</v>
+        <v>758</v>
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16">
@@ -12764,21 +12495,21 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B51" s="16">
-        <f>($B$1-A51)/$B$1</f>
-        <v>8.8691796008869186E-2</v>
+        <f t="shared" si="8"/>
+        <v>9.3126385809312637E-2</v>
       </c>
       <c r="C51" s="16">
-        <f>B51/$B$3</f>
-        <v>0.34188034188034194</v>
+        <f t="shared" si="9"/>
+        <v>0.35897435897435898</v>
       </c>
       <c r="D51" s="16">
-        <v>451</v>
+        <v>621</v>
       </c>
       <c r="E51" s="16">
-        <v>500</v>
+        <v>790</v>
       </c>
       <c r="F51" s="16"/>
       <c r="G51" s="16">
@@ -12790,159 +12521,67 @@
         <v>411</v>
       </c>
       <c r="B52" s="16">
-        <f>($B$1-A52)/$B$1</f>
+        <f t="shared" si="8"/>
         <v>8.8691796008869186E-2</v>
       </c>
       <c r="C52" s="16">
-        <f>B52/$B$3</f>
+        <f t="shared" si="9"/>
         <v>0.34188034188034194</v>
       </c>
       <c r="D52" s="16">
-        <v>501</v>
+        <v>399</v>
       </c>
       <c r="E52" s="16">
-        <v>585</v>
+        <v>417</v>
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B53" s="16">
-        <f>($B$1-A53)/$B$1</f>
-        <v>9.0909090909090912E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.4257206208425722E-2</v>
       </c>
       <c r="C53" s="16">
-        <f>B53/$B$3</f>
-        <v>0.35042735042735046</v>
+        <f t="shared" si="9"/>
+        <v>0.3247863247863248</v>
       </c>
       <c r="D53" s="16">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E53" s="16">
-        <v>670</v>
+        <v>250</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B54" s="16">
-        <f>($B$1-A54)/$B$1</f>
-        <v>9.0909090909090912E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.2039911308203997E-2</v>
       </c>
       <c r="C54" s="16">
-        <f>B54/$B$3</f>
-        <v>0.35042735042735046</v>
+        <f t="shared" si="9"/>
+        <v>0.31623931623931628</v>
       </c>
       <c r="D54" s="16">
-        <v>603</v>
+        <v>199</v>
       </c>
       <c r="E54" s="16">
-        <v>758</v>
+        <v>75</v>
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="16">
-        <v>409</v>
-      </c>
-      <c r="B55" s="16">
-        <f>($B$1-A55)/$B$1</f>
-        <v>9.3126385809312637E-2</v>
-      </c>
-      <c r="C55" s="16">
-        <f>B55/$B$3</f>
-        <v>0.35897435897435898</v>
-      </c>
-      <c r="D55" s="16">
-        <v>621</v>
-      </c>
-      <c r="E55" s="16">
-        <v>790</v>
-      </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="16">
-        <v>411</v>
-      </c>
-      <c r="B56" s="16">
-        <f>($B$1-A56)/$B$1</f>
-        <v>8.8691796008869186E-2</v>
-      </c>
-      <c r="C56" s="16">
-        <f>B56/$B$3</f>
-        <v>0.34188034188034194</v>
-      </c>
-      <c r="D56" s="16">
-        <v>399</v>
-      </c>
-      <c r="E56" s="16">
-        <v>417</v>
-      </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="16">
-        <v>413</v>
-      </c>
-      <c r="B57" s="16">
-        <f>($B$1-A57)/$B$1</f>
-        <v>8.4257206208425722E-2</v>
-      </c>
-      <c r="C57" s="16">
-        <f>B57/$B$3</f>
-        <v>0.3247863247863248</v>
-      </c>
-      <c r="D57" s="16">
-        <v>300</v>
-      </c>
-      <c r="E57" s="16">
-        <v>250</v>
-      </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="16">
-        <v>414</v>
-      </c>
-      <c r="B58" s="16">
-        <f>($B$1-A58)/$B$1</f>
-        <v>8.2039911308203997E-2</v>
-      </c>
-      <c r="C58" s="16">
-        <f>B58/$B$3</f>
-        <v>0.31623931623931628</v>
-      </c>
-      <c r="D58" s="16">
-        <v>199</v>
-      </c>
-      <c r="E58" s="16">
-        <v>75</v>
-      </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12953,10 +12592,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBF1152-E7B1-408E-98FD-CDD3D8B4640C}">
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13008,9 +12647,9 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="J4" s="21"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31" t="s">
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30" t="s">
         <v>55</v>
       </c>
       <c r="N4" s="22" t="s">
@@ -13042,9 +12681,7 @@
       <c r="J5" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32">
+      <c r="M5">
         <v>509</v>
       </c>
       <c r="N5" s="24">
@@ -13074,11 +12711,9 @@
       <c r="J6" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -13101,15 +12736,15 @@
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="J7" s="33">
+      <c r="J7" s="28">
         <v>626</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="31">
         <v>1302</v>
       </c>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="30"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="29"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
@@ -13196,68 +12831,68 @@
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>30</v>
+      <c r="A12" s="11">
+        <v>499</v>
+      </c>
+      <c r="B12" s="11">
+        <f>($B$1-A12)/$B$1</f>
+        <v>1.9646365422396856E-2</v>
+      </c>
+      <c r="C12" s="11">
+        <f>B12/$B$3</f>
+        <v>8.0645161290322578E-2</v>
+      </c>
+      <c r="D12" s="11">
+        <v>624</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1316</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B13" s="11">
-        <f>($B$1-A13)/$B$1</f>
-        <v>1.9646365422396856E-2</v>
+        <f t="shared" ref="B13:B20" si="2">($B$1-A13)/$B$1</f>
+        <v>1.5717092337917484E-2</v>
       </c>
       <c r="C13" s="11">
-        <f>B13/$B$3</f>
-        <v>8.0645161290322578E-2</v>
+        <f t="shared" ref="C13:C20" si="3">B13/$B$3</f>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="D13" s="11">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="E13" s="11">
-        <v>1316</v>
+        <v>1259</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B14" s="11">
-        <f t="shared" ref="B14:B21" si="2">($B$1-A14)/$B$1</f>
-        <v>1.5717092337917484E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.37524557956778E-2</v>
       </c>
       <c r="C14" s="11">
-        <f t="shared" ref="C14:C21" si="3">B14/$B$3</f>
-        <v>6.4516129032258063E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.6451612903225812E-2</v>
       </c>
       <c r="D14" s="11">
-        <v>600</v>
+        <v>495</v>
       </c>
       <c r="E14" s="11">
-        <v>1259</v>
+        <v>1013</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11">
@@ -13266,21 +12901,21 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B15" s="11">
         <f t="shared" si="2"/>
-        <v>1.37524557956778E-2</v>
+        <v>9.823182711198428E-3</v>
       </c>
       <c r="C15" s="11">
         <f t="shared" si="3"/>
-        <v>5.6451612903225812E-2</v>
+        <v>4.0322580645161289E-2</v>
       </c>
       <c r="D15" s="11">
-        <v>495</v>
+        <v>403</v>
       </c>
       <c r="E15" s="11">
-        <v>1013</v>
+        <v>811</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11">
@@ -13289,21 +12924,21 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B16" s="11">
         <f t="shared" si="2"/>
-        <v>9.823182711198428E-3</v>
+        <v>7.8585461689587421E-3</v>
       </c>
       <c r="C16" s="11">
         <f t="shared" si="3"/>
-        <v>4.0322580645161289E-2</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="D16" s="11">
-        <v>403</v>
+        <v>305</v>
       </c>
       <c r="E16" s="11">
-        <v>811</v>
+        <v>588</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11">
@@ -13323,10 +12958,10 @@
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="D17" s="11">
-        <v>305</v>
+        <v>202</v>
       </c>
       <c r="E17" s="11">
-        <v>588</v>
+        <v>355</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11">
@@ -13335,21 +12970,21 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B18" s="11">
         <f t="shared" si="2"/>
-        <v>7.8585461689587421E-3</v>
+        <v>5.893909626719057E-3</v>
       </c>
       <c r="C18" s="11">
         <f t="shared" si="3"/>
-        <v>3.2258064516129031E-2</v>
+        <v>2.4193548387096774E-2</v>
       </c>
       <c r="D18" s="11">
-        <v>202</v>
+        <v>90</v>
       </c>
       <c r="E18" s="11">
-        <v>355</v>
+        <v>106</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11">
@@ -13369,33 +13004,33 @@
         <v>2.4193548387096774E-2</v>
       </c>
       <c r="D19" s="11">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="E19" s="11">
-        <v>106</v>
+        <v>444</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B20" s="11">
         <f t="shared" si="2"/>
-        <v>5.893909626719057E-3</v>
+        <v>1.1787819253438114E-2</v>
       </c>
       <c r="C20" s="11">
         <f t="shared" si="3"/>
-        <v>2.4193548387096774E-2</v>
+        <v>4.8387096774193547E-2</v>
       </c>
       <c r="D20" s="11">
-        <v>240</v>
+        <v>355</v>
       </c>
       <c r="E20" s="11">
-        <v>444</v>
+        <v>704</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11">
@@ -13403,68 +13038,68 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <v>503</v>
-      </c>
-      <c r="B21" s="11">
-        <f t="shared" si="2"/>
-        <v>1.1787819253438114E-2</v>
-      </c>
-      <c r="C21" s="11">
-        <f t="shared" si="3"/>
-        <v>4.8387096774193547E-2</v>
-      </c>
-      <c r="D21" s="11">
-        <v>355</v>
-      </c>
-      <c r="E21" s="11">
-        <v>704</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11">
+      <c r="A21" s="8">
+        <v>419</v>
+      </c>
+      <c r="B21" s="8">
+        <f t="shared" ref="B21:B28" si="4">($B$1-A21)/$B$1</f>
+        <v>0.17681728880157171</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" ref="C21:C28" si="5">B21/$B$3</f>
+        <v>0.72580645161290325</v>
+      </c>
+      <c r="D21" s="8">
+        <v>335</v>
+      </c>
+      <c r="E21" s="8">
+        <v>5</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>30</v>
+      <c r="A22" s="8">
+        <v>416</v>
+      </c>
+      <c r="B22" s="8">
+        <f t="shared" si="4"/>
+        <v>0.18271119842829076</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="D22" s="8">
+        <v>403</v>
+      </c>
+      <c r="E22" s="8">
+        <v>101</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B23" s="8">
-        <f t="shared" ref="B23:B30" si="4">($B$1-A23)/$B$1</f>
-        <v>0.17681728880157171</v>
+        <f t="shared" si="4"/>
+        <v>0.18271119842829076</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" ref="C23:C30" si="5">B23/$B$3</f>
-        <v>0.72580645161290325</v>
+        <f t="shared" si="5"/>
+        <v>0.75</v>
       </c>
       <c r="D23" s="8">
-        <v>335</v>
+        <v>500</v>
       </c>
       <c r="E23" s="8">
-        <v>5</v>
+        <v>207</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8">
@@ -13473,21 +13108,21 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B24" s="8">
         <f t="shared" si="4"/>
-        <v>0.18271119842829076</v>
+        <v>0.18664047151277013</v>
       </c>
       <c r="C24" s="8">
         <f t="shared" si="5"/>
-        <v>0.75</v>
+        <v>0.7661290322580645</v>
       </c>
       <c r="D24" s="8">
-        <v>403</v>
+        <v>550</v>
       </c>
       <c r="E24" s="8">
-        <v>101</v>
+        <v>263</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8">
@@ -13496,21 +13131,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B25" s="8">
         <f t="shared" si="4"/>
-        <v>0.18271119842829076</v>
+        <v>0.18664047151277013</v>
       </c>
       <c r="C25" s="8">
         <f t="shared" si="5"/>
-        <v>0.75</v>
+        <v>0.7661290322580645</v>
       </c>
       <c r="D25" s="8">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E25" s="8">
-        <v>207</v>
+        <v>316</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8">
@@ -13530,10 +13165,10 @@
         <v>0.7661290322580645</v>
       </c>
       <c r="D26" s="8">
-        <v>550</v>
+        <v>620</v>
       </c>
       <c r="E26" s="8">
-        <v>263</v>
+        <v>340</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8">
@@ -13542,136 +13177,136 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B27" s="8">
         <f t="shared" si="4"/>
-        <v>0.18664047151277013</v>
+        <v>0.18074656188605109</v>
       </c>
       <c r="C27" s="8">
         <f t="shared" si="5"/>
-        <v>0.7661290322580645</v>
+        <v>0.74193548387096786</v>
       </c>
       <c r="D27" s="8">
-        <v>600</v>
+        <v>447</v>
       </c>
       <c r="E27" s="8">
-        <v>316</v>
+        <v>163</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B28" s="8">
         <f t="shared" si="4"/>
-        <v>0.18664047151277013</v>
+        <v>0.18074656188605109</v>
       </c>
       <c r="C28" s="8">
         <f t="shared" si="5"/>
-        <v>0.7661290322580645</v>
+        <v>0.74193548387096786</v>
       </c>
       <c r="D28" s="8">
-        <v>620</v>
+        <v>376</v>
       </c>
       <c r="E28" s="8">
-        <v>340</v>
+        <v>90</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>417</v>
-      </c>
-      <c r="B29" s="8">
-        <f t="shared" si="4"/>
-        <v>0.18074656188605109</v>
-      </c>
-      <c r="C29" s="8">
-        <f t="shared" si="5"/>
-        <v>0.74193548387096786</v>
-      </c>
-      <c r="D29" s="8">
-        <v>447</v>
-      </c>
-      <c r="E29" s="8">
-        <v>163</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8">
-        <v>0</v>
+      <c r="A29" s="15">
+        <v>458</v>
+      </c>
+      <c r="B29" s="15">
+        <f>($B$1-A29)/$B$1</f>
+        <v>0.10019646365422397</v>
+      </c>
+      <c r="C29" s="15">
+        <f>B29/$B$3</f>
+        <v>0.41129032258064518</v>
+      </c>
+      <c r="D29" s="15">
+        <v>187</v>
+      </c>
+      <c r="E29" s="15">
+        <v>4</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="8">
-        <v>417</v>
-      </c>
-      <c r="B30" s="8">
-        <f t="shared" si="4"/>
-        <v>0.18074656188605109</v>
-      </c>
-      <c r="C30" s="8">
-        <f t="shared" si="5"/>
-        <v>0.74193548387096786</v>
-      </c>
-      <c r="D30" s="8">
-        <v>376</v>
-      </c>
-      <c r="E30" s="8">
-        <v>90</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8">
-        <v>0</v>
+      <c r="A30" s="15">
+        <v>456</v>
+      </c>
+      <c r="B30" s="15">
+        <f t="shared" ref="B30:B40" si="6">($B$1-A30)/$B$1</f>
+        <v>0.10412573673870335</v>
+      </c>
+      <c r="C30" s="15">
+        <f t="shared" ref="C30:C40" si="7">B30/$B$3</f>
+        <v>0.42741935483870969</v>
+      </c>
+      <c r="D30" s="15">
+        <v>252</v>
+      </c>
+      <c r="E30" s="15">
+        <v>113</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>30</v>
+      <c r="A31" s="15">
+        <v>455</v>
+      </c>
+      <c r="B31" s="15">
+        <f t="shared" si="6"/>
+        <v>0.10609037328094302</v>
+      </c>
+      <c r="C31" s="15">
+        <f t="shared" si="7"/>
+        <v>0.43548387096774194</v>
+      </c>
+      <c r="D31" s="15">
+        <v>300</v>
+      </c>
+      <c r="E31" s="15">
+        <v>194</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B32" s="15">
-        <f>($B$1-A32)/$B$1</f>
-        <v>0.10019646365422397</v>
+        <f t="shared" si="6"/>
+        <v>0.10805500982318271</v>
       </c>
       <c r="C32" s="15">
-        <f>B32/$B$3</f>
-        <v>0.41129032258064518</v>
+        <f t="shared" si="7"/>
+        <v>0.44354838709677419</v>
       </c>
       <c r="D32" s="15">
-        <v>187</v>
+        <v>400</v>
       </c>
       <c r="E32" s="15">
-        <v>4</v>
+        <v>360</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="15">
@@ -13680,21 +13315,21 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B33" s="15">
-        <f t="shared" ref="B33:B43" si="6">($B$1-A33)/$B$1</f>
-        <v>0.10412573673870335</v>
+        <f t="shared" si="6"/>
+        <v>0.10805500982318271</v>
       </c>
       <c r="C33" s="15">
-        <f t="shared" ref="C33:C43" si="7">B33/$B$3</f>
-        <v>0.42741935483870969</v>
+        <f t="shared" si="7"/>
+        <v>0.44354838709677419</v>
       </c>
       <c r="D33" s="15">
-        <v>252</v>
+        <v>501</v>
       </c>
       <c r="E33" s="15">
-        <v>113</v>
+        <v>525</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="15">
@@ -13703,21 +13338,21 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B34" s="15">
         <f t="shared" si="6"/>
-        <v>0.10609037328094302</v>
+        <v>0.11198428290766209</v>
       </c>
       <c r="C34" s="15">
         <f t="shared" si="7"/>
-        <v>0.43548387096774194</v>
+        <v>0.45967741935483875</v>
       </c>
       <c r="D34" s="15">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E34" s="15">
-        <v>194</v>
+        <v>604</v>
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="15">
@@ -13726,21 +13361,21 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B35" s="15">
         <f t="shared" si="6"/>
-        <v>0.10805500982318271</v>
+        <v>0.11198428290766209</v>
       </c>
       <c r="C35" s="15">
         <f t="shared" si="7"/>
-        <v>0.44354838709677419</v>
+        <v>0.45967741935483875</v>
       </c>
       <c r="D35" s="15">
-        <v>400</v>
+        <v>601</v>
       </c>
       <c r="E35" s="15">
-        <v>360</v>
+        <v>688</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15">
@@ -13749,21 +13384,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B36" s="15">
         <f t="shared" si="6"/>
-        <v>0.10805500982318271</v>
+        <v>0.11198428290766209</v>
       </c>
       <c r="C36" s="15">
         <f t="shared" si="7"/>
-        <v>0.44354838709677419</v>
+        <v>0.45967741935483875</v>
       </c>
       <c r="D36" s="15">
-        <v>501</v>
+        <v>622</v>
       </c>
       <c r="E36" s="15">
-        <v>525</v>
+        <v>720</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="15">
@@ -13772,71 +13407,71 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B37" s="15">
         <f t="shared" si="6"/>
-        <v>0.11198428290766209</v>
+        <v>0.10609037328094302</v>
       </c>
       <c r="C37" s="15">
         <f t="shared" si="7"/>
-        <v>0.45967741935483875</v>
+        <v>0.43548387096774194</v>
       </c>
       <c r="D37" s="15">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="E37" s="15">
-        <v>604</v>
+        <v>566</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B38" s="15">
         <f t="shared" si="6"/>
-        <v>0.11198428290766209</v>
+        <v>0.10609037328094302</v>
       </c>
       <c r="C38" s="15">
         <f t="shared" si="7"/>
-        <v>0.45967741935483875</v>
+        <v>0.43548387096774194</v>
       </c>
       <c r="D38" s="15">
-        <v>601</v>
+        <v>349</v>
       </c>
       <c r="E38" s="15">
-        <v>688</v>
+        <v>282</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B39" s="15">
         <f t="shared" si="6"/>
-        <v>0.11198428290766209</v>
+        <v>0.10216110019646366</v>
       </c>
       <c r="C39" s="15">
         <f t="shared" si="7"/>
-        <v>0.45967741935483875</v>
+        <v>0.41935483870967744</v>
       </c>
       <c r="D39" s="15">
-        <v>622</v>
+        <v>201</v>
       </c>
       <c r="E39" s="15">
-        <v>720</v>
+        <v>39</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -13852,125 +13487,125 @@
         <v>0.43548387096774194</v>
       </c>
       <c r="D40" s="15">
-        <v>525</v>
+        <v>450</v>
       </c>
       <c r="E40" s="15">
-        <v>566</v>
+        <v>446</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="15">
-        <v>455</v>
-      </c>
-      <c r="B41" s="15">
-        <f t="shared" si="6"/>
-        <v>0.10609037328094302</v>
-      </c>
-      <c r="C41" s="15">
-        <f t="shared" si="7"/>
-        <v>0.43548387096774194</v>
-      </c>
-      <c r="D41" s="15">
-        <v>349</v>
-      </c>
-      <c r="E41" s="15">
-        <v>282</v>
-      </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15">
-        <v>0</v>
+      <c r="A41" s="16">
+        <v>482</v>
+      </c>
+      <c r="B41" s="16">
+        <f t="shared" ref="B41:B53" si="8">($B$1-A41)/$B$1</f>
+        <v>5.304518664047151E-2</v>
+      </c>
+      <c r="C41" s="16">
+        <f t="shared" ref="C41:C53" si="9">B41/$B$3</f>
+        <v>0.21774193548387097</v>
+      </c>
+      <c r="D41" s="16">
+        <v>130</v>
+      </c>
+      <c r="E41" s="16">
+        <v>4.3</v>
+      </c>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="15">
-        <v>457</v>
-      </c>
-      <c r="B42" s="15">
-        <f t="shared" si="6"/>
-        <v>0.10216110019646366</v>
-      </c>
-      <c r="C42" s="15">
-        <f t="shared" si="7"/>
-        <v>0.41935483870967744</v>
-      </c>
-      <c r="D42" s="15">
+      <c r="A42" s="16">
+        <v>481</v>
+      </c>
+      <c r="B42" s="16">
+        <f t="shared" si="8"/>
+        <v>5.50098231827112E-2</v>
+      </c>
+      <c r="C42" s="16">
+        <f t="shared" si="9"/>
+        <v>0.22580645161290325</v>
+      </c>
+      <c r="D42" s="16">
         <v>201</v>
       </c>
-      <c r="E42" s="15">
-        <v>39</v>
-      </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15">
-        <v>0</v>
+      <c r="E42" s="16">
+        <v>149</v>
+      </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="15">
-        <v>455</v>
-      </c>
-      <c r="B43" s="15">
-        <f t="shared" si="6"/>
-        <v>0.10609037328094302</v>
-      </c>
-      <c r="C43" s="15">
-        <f t="shared" si="7"/>
-        <v>0.43548387096774194</v>
-      </c>
-      <c r="D43" s="15">
-        <v>450</v>
-      </c>
-      <c r="E43" s="15">
-        <v>446</v>
-      </c>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15">
+      <c r="A43" s="16">
+        <v>481</v>
+      </c>
+      <c r="B43" s="16">
+        <f t="shared" si="8"/>
+        <v>5.50098231827112E-2</v>
+      </c>
+      <c r="C43" s="16">
+        <f t="shared" si="9"/>
+        <v>0.22580645161290325</v>
+      </c>
+      <c r="D43" s="16">
+        <v>299</v>
+      </c>
+      <c r="E43" s="16">
+        <v>356</v>
+      </c>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>30</v>
+      <c r="A44" s="16">
+        <v>480</v>
+      </c>
+      <c r="B44" s="16">
+        <f t="shared" si="8"/>
+        <v>5.6974459724950882E-2</v>
+      </c>
+      <c r="C44" s="16">
+        <f t="shared" si="9"/>
+        <v>0.23387096774193547</v>
+      </c>
+      <c r="D44" s="16">
+        <v>402</v>
+      </c>
+      <c r="E44" s="16">
+        <v>563</v>
+      </c>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B45" s="16">
-        <f t="shared" ref="B45:B57" si="8">($B$1-A45)/$B$1</f>
-        <v>5.304518664047151E-2</v>
+        <f t="shared" si="8"/>
+        <v>5.8939096267190572E-2</v>
       </c>
       <c r="C45" s="16">
-        <f t="shared" ref="C45:C57" si="9">B45/$B$3</f>
-        <v>0.21774193548387097</v>
+        <f t="shared" si="9"/>
+        <v>0.24193548387096775</v>
       </c>
       <c r="D45" s="16">
-        <v>130</v>
+        <v>450</v>
       </c>
       <c r="E45" s="16">
-        <v>4.3</v>
+        <v>622</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="16">
@@ -13979,21 +13614,21 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B46" s="16">
         <f t="shared" si="8"/>
-        <v>5.50098231827112E-2</v>
+        <v>5.8939096267190572E-2</v>
       </c>
       <c r="C46" s="16">
         <f t="shared" si="9"/>
-        <v>0.22580645161290325</v>
+        <v>0.24193548387096775</v>
       </c>
       <c r="D46" s="16">
-        <v>201</v>
+        <v>501</v>
       </c>
       <c r="E46" s="16">
-        <v>149</v>
+        <v>762</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16">
@@ -14002,21 +13637,21 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B47" s="16">
         <f t="shared" si="8"/>
-        <v>5.50098231827112E-2</v>
+        <v>6.0903732809430254E-2</v>
       </c>
       <c r="C47" s="16">
         <f t="shared" si="9"/>
-        <v>0.22580645161290325</v>
+        <v>0.25</v>
       </c>
       <c r="D47" s="16">
-        <v>299</v>
+        <v>603</v>
       </c>
       <c r="E47" s="16">
-        <v>356</v>
+        <v>967</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="16">
@@ -14025,21 +13660,21 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B48" s="16">
         <f t="shared" si="8"/>
-        <v>5.6974459724950882E-2</v>
+        <v>6.0903732809430254E-2</v>
       </c>
       <c r="C48" s="16">
         <f t="shared" si="9"/>
-        <v>0.23387096774193547</v>
+        <v>0.25</v>
       </c>
       <c r="D48" s="16">
-        <v>402</v>
+        <v>622</v>
       </c>
       <c r="E48" s="16">
-        <v>563</v>
+        <v>1006</v>
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16">
@@ -14048,25 +13683,25 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B49" s="16">
         <f t="shared" si="8"/>
-        <v>5.8939096267190572E-2</v>
+        <v>6.0903732809430254E-2</v>
       </c>
       <c r="C49" s="16">
         <f t="shared" si="9"/>
-        <v>0.24193548387096775</v>
+        <v>0.25</v>
       </c>
       <c r="D49" s="16">
-        <v>450</v>
+        <v>553</v>
       </c>
       <c r="E49" s="16">
-        <v>622</v>
+        <v>868</v>
       </c>
       <c r="F49" s="16"/>
       <c r="G49" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -14082,56 +13717,56 @@
         <v>0.24193548387096775</v>
       </c>
       <c r="D50" s="16">
-        <v>501</v>
+        <v>348</v>
       </c>
       <c r="E50" s="16">
-        <v>762</v>
+        <v>456</v>
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B51" s="16">
         <f t="shared" si="8"/>
-        <v>6.0903732809430254E-2</v>
+        <v>5.6974459724950882E-2</v>
       </c>
       <c r="C51" s="16">
         <f t="shared" si="9"/>
-        <v>0.25</v>
+        <v>0.23387096774193547</v>
       </c>
       <c r="D51" s="16">
-        <v>603</v>
+        <v>252</v>
       </c>
       <c r="E51" s="16">
-        <v>967</v>
+        <v>261</v>
       </c>
       <c r="F51" s="16"/>
       <c r="G51" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B52" s="16">
         <f t="shared" si="8"/>
-        <v>6.0903732809430254E-2</v>
+        <v>5.6974459724950882E-2</v>
       </c>
       <c r="C52" s="16">
         <f t="shared" si="9"/>
-        <v>0.25</v>
+        <v>0.23387096774193547</v>
       </c>
       <c r="D52" s="16">
-        <v>622</v>
+        <v>376</v>
       </c>
       <c r="E52" s="16">
-        <v>1006</v>
+        <v>515</v>
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16">
@@ -14151,116 +13786,24 @@
         <v>0.25</v>
       </c>
       <c r="D53" s="16">
-        <v>553</v>
+        <v>476</v>
       </c>
       <c r="E53" s="16">
-        <v>868</v>
+        <v>714</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="16">
-        <v>479</v>
-      </c>
-      <c r="B54" s="16">
-        <f t="shared" si="8"/>
-        <v>5.8939096267190572E-2</v>
-      </c>
-      <c r="C54" s="16">
-        <f t="shared" si="9"/>
-        <v>0.24193548387096775</v>
-      </c>
-      <c r="D54" s="16">
-        <v>348</v>
-      </c>
-      <c r="E54" s="16">
-        <v>456</v>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
       <c r="F54" s="16"/>
-      <c r="G54" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="16">
-        <v>480</v>
-      </c>
-      <c r="B55" s="16">
-        <f t="shared" si="8"/>
-        <v>5.6974459724950882E-2</v>
-      </c>
-      <c r="C55" s="16">
-        <f t="shared" si="9"/>
-        <v>0.23387096774193547</v>
-      </c>
-      <c r="D55" s="16">
-        <v>252</v>
-      </c>
-      <c r="E55" s="16">
-        <v>261</v>
-      </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="16">
-        <v>480</v>
-      </c>
-      <c r="B56" s="16">
-        <f t="shared" si="8"/>
-        <v>5.6974459724950882E-2</v>
-      </c>
-      <c r="C56" s="16">
-        <f t="shared" si="9"/>
-        <v>0.23387096774193547</v>
-      </c>
-      <c r="D56" s="16">
-        <v>376</v>
-      </c>
-      <c r="E56" s="16">
-        <v>515</v>
-      </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="16">
-        <v>478</v>
-      </c>
-      <c r="B57" s="16">
-        <f t="shared" si="8"/>
-        <v>6.0903732809430254E-2</v>
-      </c>
-      <c r="C57" s="16">
-        <f t="shared" si="9"/>
-        <v>0.25</v>
-      </c>
-      <c r="D57" s="16">
-        <v>476</v>
-      </c>
-      <c r="E57" s="16">
-        <v>714</v>
-      </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
+      <c r="G54" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BPA_Static_Characterization_Test/20mm_ForceLengthPressure/PulseTestResults.xlsx
+++ b/BPA_Static_Characterization_Test/20mm_ForceLengthPressure/PulseTestResults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Muscle_Sensory\BPA_Static_Characterization_Test\20mm_ForceLengthPressure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ME masters project\github\Muscle_Sensory\BPA_Static_Characterization_Test\20mm_ForceLengthPressure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7153CC9-706E-47D6-88B7-D07ADEEB830B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B89888E2-F0E3-43C8-834D-945D5A6939D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{7781AE6A-A05B-4E08-9903-F8A9B7CCFEB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{7781AE6A-A05B-4E08-9903-F8A9B7CCFEB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="509mm" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="69">
   <si>
     <t>Pulse duration (ms)</t>
   </si>
@@ -233,17 +234,29 @@
     <t>chosen heights</t>
   </si>
   <si>
-    <t>max strain</t>
+    <t>day 3</t>
   </si>
   <si>
-    <t>*Invalid to have any force at relative strain = 1</t>
+    <t>day5</t>
+  </si>
+  <si>
+    <t>day6</t>
+  </si>
+  <si>
+    <t>rechecking of 300mm</t>
+  </si>
+  <si>
+    <t>resting length (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recheck </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,15 +275,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +370,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -527,9 +545,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3014,6 +3037,530 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>digital pressure readings day 6</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>digital pressure readings day 6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.35222156605424321"/>
+                  <c:y val="2.736111111111111E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pressure calibration graph'!$Z$4:$Z$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>579</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'pressure calibration graph'!$Y$4:$Y$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A128-40EE-AABA-659CDDF99D95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="847011560"/>
+        <c:axId val="847011920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="847011560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Digital Pressure readings</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="847011920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="847011920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dial pressure readings (kPa)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="847011560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3691,6 +4238,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6272,6 +6859,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6899,16 +8002,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2049780</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>696110</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>23308</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6937,16 +8040,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>144333</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>115197</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1094592</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133126</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>8966</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>115196</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>53790</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>133125</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6968,6 +8071,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>371586</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB77DFDD-FCB3-487E-96A9-C00B3AE8BB7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7018,9 +8159,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7058,7 +8199,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -7164,7 +8305,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7306,7 +8447,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7542,10 +8683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A98E28B-6B90-4D08-A0E5-BC3784CAF441}">
-  <dimension ref="A2:W15"/>
+  <dimension ref="A2:AE15"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA31" sqref="AA31"/>
+    <sheetView topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE3:AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7565,9 +8706,13 @@
     <col min="21" max="21" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>37</v>
       </c>
@@ -7590,12 +8735,17 @@
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
       <c r="U2" s="32" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="V2" s="32"/>
       <c r="W2" s="32"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>17</v>
       </c>
@@ -7636,8 +8786,18 @@
         <v>40</v>
       </c>
       <c r="W3" s="32"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="10"/>
+      <c r="AE3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>0</v>
       </c>
@@ -7676,8 +8836,18 @@
         <v>22</v>
       </c>
       <c r="W4" s="32"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="10">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="10"/>
+      <c r="AE4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>200</v>
       </c>
@@ -7714,8 +8884,15 @@
         <v>174</v>
       </c>
       <c r="W5" s="32"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y5" s="10">
+        <v>200</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>175</v>
+      </c>
+      <c r="AA5" s="10"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>300</v>
       </c>
@@ -7752,8 +8929,15 @@
         <v>262</v>
       </c>
       <c r="W6" s="32"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y6" s="10">
+        <v>300</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>264</v>
+      </c>
+      <c r="AA6" s="10"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>400</v>
       </c>
@@ -7790,8 +8974,15 @@
         <v>347</v>
       </c>
       <c r="W7" s="32"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y7" s="10">
+        <v>400</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>343</v>
+      </c>
+      <c r="AA7" s="10"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>500</v>
       </c>
@@ -7828,8 +9019,15 @@
         <v>432</v>
       </c>
       <c r="W8" s="32"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y8" s="10">
+        <v>500</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>435</v>
+      </c>
+      <c r="AA8" s="10"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>600</v>
       </c>
@@ -7866,8 +9064,15 @@
         <v>535</v>
       </c>
       <c r="W9" s="32"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y9" s="10">
+        <v>600</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>528</v>
+      </c>
+      <c r="AA9" s="10"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>620</v>
       </c>
@@ -7904,8 +9109,15 @@
         <v>580</v>
       </c>
       <c r="W10" s="32"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y10" s="10">
+        <v>650</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>579</v>
+      </c>
+      <c r="AA10" s="10"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>700</v>
       </c>
@@ -7930,8 +9142,11 @@
       <c r="U11" s="32"/>
       <c r="V11" s="32"/>
       <c r="W11" s="32"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -7948,8 +9163,11 @@
       <c r="U12" s="32"/>
       <c r="V12" s="32"/>
       <c r="W12" s="32"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -7966,8 +9184,11 @@
       <c r="U13" s="32"/>
       <c r="V13" s="32"/>
       <c r="W13" s="32"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>20</v>
       </c>
@@ -8004,8 +9225,15 @@
       <c r="W14" s="32" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>363</v>
       </c>
@@ -8032,6 +9260,11 @@
       </c>
       <c r="V15" s="32"/>
       <c r="W15" s="32"/>
+      <c r="Y15" s="10">
+        <v>300</v>
+      </c>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8043,8 +9276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E08DF4-79F7-441A-B832-864DEA632AF7}">
   <dimension ref="C3:F10"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8132,10 +9365,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A16763-ED46-4079-BBBB-F27EBF19559A}">
-  <dimension ref="A1:L97"/>
+  <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56:E89"/>
+    <sheetView topLeftCell="A105" zoomScale="80" workbookViewId="0">
+      <selection activeCell="J130" sqref="J130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8148,7 +9381,7 @@
     <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -8162,7 +9395,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -8173,7 +9406,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -8185,7 +9418,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
@@ -8208,7 +9441,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -8223,16 +9456,16 @@
       </c>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>272</v>
       </c>
       <c r="B7" s="7">
-        <f>($B$1-A7)/$B$1</f>
+        <f t="shared" ref="B7:B12" si="0">($B$1-A7)/$B$1</f>
         <v>8.4175084175084181E-2</v>
       </c>
       <c r="C7" s="7">
-        <f>B7/$B$3</f>
+        <f t="shared" ref="C7:C12" si="1">B7/$B$3</f>
         <v>0.34722222222222221</v>
       </c>
       <c r="D7" s="7">
@@ -8251,20 +9484,17 @@
       <c r="K7" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="L7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>252</v>
       </c>
       <c r="B8" s="7">
-        <f t="shared" ref="B8:B12" si="0">($B$1-A8)/$B$1</f>
+        <f t="shared" si="0"/>
         <v>0.15151515151515152</v>
       </c>
       <c r="C8" s="7">
-        <f t="shared" ref="C8:C12" si="1">B8/$B$3</f>
+        <f t="shared" si="1"/>
         <v>0.625</v>
       </c>
       <c r="D8" s="7">
@@ -8283,12 +9513,8 @@
       <c r="K8" s="24">
         <v>238</v>
       </c>
-      <c r="L8">
-        <f>(J8-K8)/J8</f>
-        <v>0.23225806451612904</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>240</v>
       </c>
@@ -8313,7 +9539,7 @@
       <c r="J9" s="25"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>233</v>
       </c>
@@ -8338,7 +9564,7 @@
       <c r="J10" s="25"/>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>226</v>
       </c>
@@ -8365,7 +9591,7 @@
       </c>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>225</v>
       </c>
@@ -8394,27 +9620,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>297</v>
-      </c>
-      <c r="B13" s="8">
-        <f t="shared" ref="B13:B20" si="2">($B$1-A13)/$B$1</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="8">
-        <f t="shared" ref="C13:C20" si="3">B13/$B$3</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
-        <v>625</v>
-      </c>
-      <c r="E13" s="8">
-        <v>1122</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8">
-        <v>0</v>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>42</v>
@@ -8426,76 +9652,84 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>297</v>
       </c>
       <c r="B14" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B14:B21" si="2">($B$1-A14)/$B$1</f>
         <v>0</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C14:C21" si="3">B14/$B$3</f>
         <v>0</v>
       </c>
       <c r="D14" s="8">
-        <v>389</v>
+        <v>625</v>
       </c>
       <c r="E14" s="8">
-        <v>743</v>
+        <v>1122</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B15" s="8">
         <f t="shared" si="2"/>
-        <v>-3.3670033670033669E-3</v>
+        <v>0</v>
       </c>
       <c r="C15" s="8">
         <f t="shared" si="3"/>
-        <v>-1.3888888888888888E-2</v>
+        <v>0</v>
       </c>
       <c r="D15" s="8">
-        <v>92</v>
+        <v>389</v>
       </c>
       <c r="E15" s="8">
-        <v>123</v>
+        <v>743</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J15" s="39">
+        <v>45308</v>
+      </c>
+      <c r="K15" s="40"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B16" s="8">
         <f t="shared" si="2"/>
-        <v>6.7340067340067337E-3</v>
+        <v>-3.3670033670033669E-3</v>
       </c>
       <c r="C16" s="8">
         <f t="shared" si="3"/>
-        <v>2.7777777777777776E-2</v>
+        <v>-1.3888888888888888E-2</v>
       </c>
       <c r="D16" s="8">
-        <v>190</v>
+        <v>92</v>
       </c>
       <c r="E16" s="8">
-        <v>325</v>
+        <v>123</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="40"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>295</v>
       </c>
@@ -8508,1267 +9742,1271 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="D17" s="8">
-        <v>401</v>
+        <v>190</v>
       </c>
       <c r="E17" s="8">
-        <v>771</v>
+        <v>325</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J17" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B18" s="8">
         <f t="shared" si="2"/>
-        <v>1.3468013468013467E-2</v>
+        <v>6.7340067340067337E-3</v>
       </c>
       <c r="C18" s="8">
         <f t="shared" si="3"/>
-        <v>5.5555555555555552E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="D18" s="8">
-        <v>510</v>
+        <v>401</v>
       </c>
       <c r="E18" s="8">
-        <v>1001</v>
+        <v>771</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="J18" s="40">
+        <v>300</v>
+      </c>
+      <c r="K18" s="40">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B19" s="8">
         <f t="shared" si="2"/>
-        <v>6.7340067340067337E-3</v>
+        <v>1.3468013468013467E-2</v>
       </c>
       <c r="C19" s="8">
         <f t="shared" si="3"/>
-        <v>2.7777777777777776E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="D19" s="8">
-        <v>305</v>
+        <v>510</v>
       </c>
       <c r="E19" s="8">
-        <v>564</v>
+        <v>1001</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B20" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.7340067340067337E-3</v>
       </c>
       <c r="C20" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="D20" s="8">
-        <v>98</v>
+        <v>305</v>
       </c>
       <c r="E20" s="8">
-        <v>126</v>
+        <v>564</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <v>281</v>
-      </c>
-      <c r="B21" s="10">
-        <f>($B$1-A21)/$B$1</f>
-        <v>5.387205387205387E-2</v>
-      </c>
-      <c r="C21" s="10">
-        <f>B21/$B$3</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="D21" s="10">
-        <v>175</v>
-      </c>
-      <c r="E21" s="10">
-        <v>50</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
-        <v>280</v>
-      </c>
-      <c r="B22" s="10">
-        <f t="shared" ref="B22:B27" si="4">($B$1-A22)/$B$1</f>
-        <v>5.7239057239057242E-2</v>
-      </c>
-      <c r="C22" s="10">
-        <f t="shared" ref="C22:C27" si="5">B22/$B$3</f>
-        <v>0.2361111111111111</v>
-      </c>
-      <c r="D22" s="10">
-        <v>196</v>
-      </c>
-      <c r="E22" s="10">
-        <v>92</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
-        <v>280</v>
-      </c>
-      <c r="B23" s="10">
-        <f t="shared" si="4"/>
-        <v>5.7239057239057242E-2</v>
-      </c>
-      <c r="C23" s="10">
-        <f t="shared" si="5"/>
-        <v>0.2361111111111111</v>
-      </c>
-      <c r="D23" s="10">
-        <v>402</v>
-      </c>
-      <c r="E23" s="10">
-        <v>480</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>297</v>
+      </c>
+      <c r="B21" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <v>98</v>
+      </c>
+      <c r="E21" s="8">
+        <v>126</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>281</v>
       </c>
       <c r="B24" s="10">
-        <f t="shared" si="4"/>
+        <f>($B$1-A24)/$B$1</f>
         <v>5.387205387205387E-2</v>
       </c>
       <c r="C24" s="10">
-        <f t="shared" si="5"/>
+        <f>B24/$B$3</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="D24" s="10">
-        <v>409</v>
+        <v>175</v>
       </c>
       <c r="E24" s="10">
-        <v>497</v>
+        <v>50</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B25" s="10">
-        <f t="shared" si="4"/>
-        <v>6.0606060606060608E-2</v>
+        <f t="shared" ref="B25:B30" si="4">($B$1-A25)/$B$1</f>
+        <v>5.7239057239057242E-2</v>
       </c>
       <c r="C25" s="10">
-        <f t="shared" si="5"/>
-        <v>0.25</v>
+        <f t="shared" ref="C25:C30" si="5">B25/$B$3</f>
+        <v>0.2361111111111111</v>
       </c>
       <c r="D25" s="10">
-        <v>613</v>
+        <v>196</v>
       </c>
       <c r="E25" s="10">
-        <v>865</v>
+        <v>92</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B26" s="10">
         <f t="shared" si="4"/>
-        <v>6.3973063973063973E-2</v>
+        <v>5.7239057239057242E-2</v>
       </c>
       <c r="C26" s="10">
         <f t="shared" si="5"/>
-        <v>0.2638888888888889</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="D26" s="10">
-        <v>605</v>
+        <v>402</v>
       </c>
       <c r="E26" s="10">
-        <v>851</v>
+        <v>480</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B27" s="10">
         <f t="shared" si="4"/>
-        <v>5.7239057239057242E-2</v>
+        <v>5.387205387205387E-2</v>
       </c>
       <c r="C27" s="10">
         <f t="shared" si="5"/>
-        <v>0.2361111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="D27" s="10">
-        <v>285</v>
+        <v>409</v>
       </c>
       <c r="E27" s="10">
-        <v>273</v>
+        <v>497</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B28" s="10">
-        <f>($B$1-A28)/$B$1</f>
-        <v>6.7340067340067339E-2</v>
+        <f t="shared" si="4"/>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="C28" s="10">
-        <f>B28/$B$3</f>
-        <v>0.27777777777777779</v>
+        <f t="shared" si="5"/>
+        <v>0.25</v>
       </c>
       <c r="D28" s="10">
-        <v>505</v>
+        <v>613</v>
       </c>
       <c r="E28" s="10">
-        <v>676</v>
+        <v>865</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B29" s="10">
-        <f>($B$1-A29)/$B$1</f>
-        <v>5.0505050505050504E-2</v>
+        <f t="shared" si="4"/>
+        <v>6.3973063973063973E-2</v>
       </c>
       <c r="C29" s="10">
-        <f>B29/$B$3</f>
-        <v>0.20833333333333331</v>
+        <f t="shared" si="5"/>
+        <v>0.2638888888888889</v>
       </c>
       <c r="D29" s="10">
-        <v>91</v>
+        <v>605</v>
       </c>
       <c r="E29" s="10">
-        <v>0</v>
+        <v>851</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>280</v>
+      </c>
+      <c r="B30" s="10">
+        <f t="shared" si="4"/>
+        <v>5.7239057239057242E-2</v>
+      </c>
+      <c r="C30" s="10">
+        <f t="shared" si="5"/>
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="D30" s="10">
+        <v>285</v>
+      </c>
+      <c r="E30" s="10">
+        <v>273</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>277</v>
+      </c>
+      <c r="B31" s="10">
+        <f>($B$1-A31)/$B$1</f>
+        <v>6.7340067340067339E-2</v>
+      </c>
+      <c r="C31" s="10">
+        <f>B31/$B$3</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="D31" s="10">
+        <v>505</v>
+      </c>
+      <c r="E31" s="10">
+        <v>676</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>282</v>
+      </c>
+      <c r="B32" s="10">
+        <f>($B$1-A32)/$B$1</f>
+        <v>5.0505050505050504E-2</v>
+      </c>
+      <c r="C32" s="10">
+        <f>B32/$B$3</f>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="D32" s="10">
+        <v>91</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
         <v>254</v>
       </c>
-      <c r="B30" s="11">
-        <f t="shared" ref="B30:B36" si="6">($B$1-A30)/$B$1</f>
+      <c r="B34" s="11">
+        <f t="shared" ref="B34:B40" si="6">($B$1-A34)/$B$1</f>
         <v>0.14478114478114479</v>
       </c>
-      <c r="C30" s="11">
-        <f t="shared" ref="C30:C36" si="7">B30/$B$3</f>
+      <c r="C34" s="11">
+        <f t="shared" ref="C34:C40" si="7">B34/$B$3</f>
         <v>0.59722222222222221</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D34" s="11">
         <v>277</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E34" s="11">
         <v>30</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11">
+      <c r="F34" s="11"/>
+      <c r="G34" s="11">
         <v>1</v>
       </c>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
         <v>253</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B35" s="11">
         <f t="shared" si="6"/>
         <v>0.14814814814814814</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C35" s="11">
         <f t="shared" si="7"/>
         <v>0.61111111111111105</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D35" s="11">
         <v>400</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E35" s="11">
         <v>177</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11">
+      <c r="F35" s="11"/>
+      <c r="G35" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="11">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
         <v>253</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B36" s="11">
         <f t="shared" si="6"/>
         <v>0.14814814814814814</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C36" s="11">
         <f t="shared" si="7"/>
         <v>0.61111111111111105</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D36" s="11">
         <v>290</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E36" s="11">
         <v>49</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11">
+      <c r="F36" s="11"/>
+      <c r="G36" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
         <v>252</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B37" s="11">
         <f t="shared" si="6"/>
         <v>0.15151515151515152</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C37" s="11">
         <f t="shared" si="7"/>
         <v>0.625</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D37" s="11">
         <v>611</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E37" s="11">
         <v>423</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11">
+      <c r="F37" s="11"/>
+      <c r="G37" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
         <v>252</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B38" s="11">
         <f t="shared" si="6"/>
         <v>0.15151515151515152</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C38" s="11">
         <f t="shared" si="7"/>
         <v>0.625</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D38" s="11">
         <v>492</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E38" s="11">
         <v>292</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11">
+      <c r="F38" s="11"/>
+      <c r="G38" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="11">
         <v>254</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B39" s="11">
         <f t="shared" si="6"/>
         <v>0.14478114478114479</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C39" s="11">
         <f t="shared" si="7"/>
         <v>0.59722222222222221</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D39" s="11">
         <v>353</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E39" s="11">
         <v>135</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11">
+      <c r="F39" s="11"/>
+      <c r="G39" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="11">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="11">
         <v>252</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B40" s="11">
         <f t="shared" si="6"/>
         <v>0.15151515151515152</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C40" s="11">
         <f t="shared" si="7"/>
         <v>0.625</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D40" s="11">
         <v>598</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E40" s="11">
         <v>416</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11">
+      <c r="F40" s="11"/>
+      <c r="G40" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="12">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="12">
         <v>241</v>
       </c>
-      <c r="B37" s="12">
-        <f t="shared" ref="B37:B43" si="8">($B$1-A37)/$B$1</f>
+      <c r="B42" s="12">
+        <f t="shared" ref="B42:B48" si="8">($B$1-A42)/$B$1</f>
         <v>0.18855218855218855</v>
       </c>
-      <c r="C37" s="12">
-        <f t="shared" ref="C37:C43" si="9">B37/$B$3</f>
+      <c r="C42" s="12">
+        <f t="shared" ref="C42:C48" si="9">B42/$B$3</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D42" s="12">
         <v>609</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E42" s="12">
         <v>258</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12">
+      <c r="F42" s="12"/>
+      <c r="G42" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="12">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
         <v>241</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B43" s="12">
         <f t="shared" si="8"/>
         <v>0.18855218855218855</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C43" s="12">
         <f t="shared" si="9"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D43" s="12">
         <v>626</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E43" s="12">
         <v>279</v>
       </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12">
+      <c r="F43" s="12"/>
+      <c r="G43" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="12">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
         <v>241</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B44" s="12">
         <f t="shared" si="8"/>
         <v>0.18855218855218855</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C44" s="12">
         <f t="shared" si="9"/>
         <v>0.77777777777777779</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D44" s="12">
         <v>494</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E44" s="12">
         <v>166</v>
       </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12">
+      <c r="F44" s="12"/>
+      <c r="G44" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
         <v>242</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B45" s="12">
         <f t="shared" si="8"/>
         <v>0.18518518518518517</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C45" s="12">
         <f t="shared" si="9"/>
         <v>0.76388888888888884</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D45" s="12">
         <v>298</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E45" s="12">
         <v>2.25</v>
       </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12">
+      <c r="F45" s="12"/>
+      <c r="G45" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="12">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
         <v>242</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B46" s="12">
         <f t="shared" si="8"/>
         <v>0.18518518518518517</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C46" s="12">
         <f t="shared" si="9"/>
         <v>0.76388888888888884</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D46" s="12">
         <v>400</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E46" s="12">
         <v>86</v>
       </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12">
+      <c r="F46" s="12"/>
+      <c r="G46" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="12">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
         <v>240</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B47" s="12">
         <f t="shared" si="8"/>
         <v>0.19191919191919191</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C47" s="12">
         <f t="shared" si="9"/>
         <v>0.79166666666666663</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D47" s="12">
         <v>350</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E47" s="12">
         <v>44</v>
       </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12">
+      <c r="F47" s="12"/>
+      <c r="G47" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="12">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
         <v>242</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B48" s="12">
         <f t="shared" si="8"/>
         <v>0.18518518518518517</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C48" s="12">
         <f t="shared" si="9"/>
         <v>0.76388888888888884</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D48" s="12">
         <v>330</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E48" s="12">
         <v>25</v>
       </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12">
+      <c r="F48" s="12"/>
+      <c r="G48" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>21</v>
       </c>
-      <c r="B51">
+      <c r="B56">
         <v>300</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D56" t="s">
         <v>34</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E56" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>22</v>
       </c>
-      <c r="B52">
+      <c r="B57">
         <v>225</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="H57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>23</v>
       </c>
-      <c r="B53">
-        <f>(B51-B52)/B51</f>
+      <c r="B58">
+        <f>(B56-B57)/B56</f>
         <v>0.25</v>
       </c>
-      <c r="H53" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H54" t="s">
+      <c r="H58" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B60" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C60" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D60" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E60" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F60" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="G60" s="16" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="16">
-        <v>225</v>
-      </c>
-      <c r="B56" s="16">
-        <f>($B$51-A56)/$B$51</f>
-        <v>0.25</v>
-      </c>
-      <c r="C56" s="16">
-        <f>B56/$B$53</f>
-        <v>1</v>
-      </c>
-      <c r="D56" s="16">
-        <v>622</v>
-      </c>
-      <c r="E56" s="16">
-        <v>0</v>
-      </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="16">
-        <v>229</v>
-      </c>
-      <c r="B57" s="16">
-        <f t="shared" ref="B57:B61" si="10">($B$1-A57)/$B$1</f>
-        <v>0.22895622895622897</v>
-      </c>
-      <c r="C57" s="16">
-        <f t="shared" ref="C57:C61" si="11">B57/$B$53</f>
-        <v>0.91582491582491588</v>
-      </c>
-      <c r="D57" s="16">
-        <v>499</v>
-      </c>
-      <c r="E57" s="16">
-        <v>0</v>
-      </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="16">
-        <v>233</v>
-      </c>
-      <c r="B58" s="16">
-        <f t="shared" si="10"/>
-        <v>0.21548821548821548</v>
-      </c>
-      <c r="C58" s="16">
-        <f t="shared" si="11"/>
-        <v>0.86195286195286192</v>
-      </c>
-      <c r="D58" s="16">
-        <v>395</v>
-      </c>
-      <c r="E58" s="16">
-        <v>0</v>
-      </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="16">
-        <v>241</v>
-      </c>
-      <c r="B59" s="16">
-        <f t="shared" si="10"/>
-        <v>0.18855218855218855</v>
-      </c>
-      <c r="C59" s="16">
-        <f t="shared" si="11"/>
-        <v>0.75420875420875422</v>
-      </c>
-      <c r="D59" s="16">
-        <v>299</v>
-      </c>
-      <c r="E59" s="16">
-        <v>0</v>
-      </c>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="16">
-        <v>256</v>
-      </c>
-      <c r="B60" s="16">
-        <f t="shared" si="10"/>
-        <v>0.13804713804713806</v>
-      </c>
-      <c r="C60" s="16">
-        <f t="shared" si="11"/>
-        <v>0.55218855218855223</v>
-      </c>
-      <c r="D60" s="16">
-        <v>200</v>
-      </c>
-      <c r="E60" s="16">
-        <v>0</v>
-      </c>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16">
-        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="16">
-        <v>288</v>
+        <v>225</v>
       </c>
       <c r="B61" s="16">
-        <f t="shared" si="10"/>
-        <v>3.0303030303030304E-2</v>
+        <f>($B$56-A61)/$B$56</f>
+        <v>0.25</v>
       </c>
       <c r="C61" s="16">
-        <f t="shared" si="11"/>
-        <v>0.12121212121212122</v>
+        <f t="shared" ref="C61:C66" si="10">B61/$B$58</f>
+        <v>1</v>
       </c>
       <c r="D61" s="16">
-        <v>101</v>
+        <v>622</v>
       </c>
       <c r="E61" s="16">
         <v>0</v>
       </c>
       <c r="F61" s="16"/>
-      <c r="G61" s="16">
+      <c r="G61" s="16"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="16">
+        <v>229</v>
+      </c>
+      <c r="B62" s="16">
+        <f>($B$1-A62)/$B$1</f>
+        <v>0.22895622895622897</v>
+      </c>
+      <c r="C62" s="16">
+        <f t="shared" si="10"/>
+        <v>0.91582491582491588</v>
+      </c>
+      <c r="D62" s="16">
+        <v>499</v>
+      </c>
+      <c r="E62" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="11">
+      <c r="F62" s="16"/>
+      <c r="G62" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="16">
+        <v>233</v>
+      </c>
+      <c r="B63" s="16">
+        <f>($B$1-A63)/$B$1</f>
+        <v>0.21548821548821548</v>
+      </c>
+      <c r="C63" s="16">
+        <f t="shared" si="10"/>
+        <v>0.86195286195286192</v>
+      </c>
+      <c r="D63" s="16">
+        <v>395</v>
+      </c>
+      <c r="E63" s="16">
+        <v>0</v>
+      </c>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="16">
+        <v>241</v>
+      </c>
+      <c r="B64" s="16">
+        <f>($B$1-A64)/$B$1</f>
+        <v>0.18855218855218855</v>
+      </c>
+      <c r="C64" s="16">
+        <f t="shared" si="10"/>
+        <v>0.75420875420875422</v>
+      </c>
+      <c r="D64" s="16">
         <v>299</v>
       </c>
-      <c r="B62" s="11">
-        <f>($B$51-A62)/$B$51</f>
+      <c r="E64" s="16">
+        <v>0</v>
+      </c>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="16">
+        <v>256</v>
+      </c>
+      <c r="B65" s="16">
+        <f>($B$1-A65)/$B$1</f>
+        <v>0.13804713804713806</v>
+      </c>
+      <c r="C65" s="16">
+        <f t="shared" si="10"/>
+        <v>0.55218855218855223</v>
+      </c>
+      <c r="D65" s="16">
+        <v>200</v>
+      </c>
+      <c r="E65" s="16">
+        <v>0</v>
+      </c>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="16">
+        <v>288</v>
+      </c>
+      <c r="B66" s="16">
+        <f>($B$1-A66)/$B$1</f>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="C66" s="16">
+        <f t="shared" si="10"/>
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="D66" s="16">
+        <v>101</v>
+      </c>
+      <c r="E66" s="16">
+        <v>0</v>
+      </c>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="11">
+        <v>299</v>
+      </c>
+      <c r="B68" s="11">
+        <f>($B$56-A68)/$B$56</f>
         <v>3.3333333333333335E-3</v>
       </c>
-      <c r="C62" s="11">
-        <f>B62/$B$53</f>
+      <c r="C68" s="11">
+        <f>B68/$B$58</f>
         <v>1.3333333333333334E-2</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D68" s="11">
         <v>136</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E68" s="11">
         <v>223</v>
       </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11">
+      <c r="F68" s="11"/>
+      <c r="G68" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="11">
         <v>298</v>
       </c>
-      <c r="B63" s="11">
-        <f t="shared" ref="B63:B71" si="12">($B$51-A63)/$B$51</f>
+      <c r="B69" s="11">
+        <f t="shared" ref="B69:B77" si="11">($B$56-A69)/$B$56</f>
         <v>6.6666666666666671E-3</v>
       </c>
-      <c r="C63" s="11">
-        <f t="shared" ref="C63:C71" si="13">B63/$B$53</f>
+      <c r="C69" s="11">
+        <f t="shared" ref="C69:C77" si="12">B69/$B$58</f>
         <v>2.6666666666666668E-2</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D69" s="11">
         <v>208</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E69" s="11">
         <v>373</v>
       </c>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11">
+      <c r="F69" s="11"/>
+      <c r="G69" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="11">
         <v>297</v>
       </c>
-      <c r="B64" s="11">
+      <c r="B70" s="11">
+        <f t="shared" si="11"/>
+        <v>0.01</v>
+      </c>
+      <c r="C70" s="11">
         <f t="shared" si="12"/>
-        <v>0.01</v>
-      </c>
-      <c r="C64" s="11">
-        <f t="shared" si="13"/>
         <v>0.04</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D70" s="11">
         <v>304</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E70" s="11">
         <v>575</v>
       </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11">
+      <c r="F70" s="11"/>
+      <c r="G70" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="11">
         <v>296</v>
       </c>
-      <c r="B65" s="11">
+      <c r="B71" s="11">
+        <f t="shared" si="11"/>
+        <v>1.3333333333333334E-2</v>
+      </c>
+      <c r="C71" s="11">
         <f t="shared" si="12"/>
-        <v>1.3333333333333334E-2</v>
-      </c>
-      <c r="C65" s="11">
-        <f t="shared" si="13"/>
         <v>5.3333333333333337E-2</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D71" s="11">
         <v>397</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E71" s="11">
         <v>765</v>
       </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11">
+      <c r="F71" s="11"/>
+      <c r="G71" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="35">
         <v>294</v>
       </c>
-      <c r="B66" s="35">
+      <c r="B72" s="35">
+        <f t="shared" si="11"/>
+        <v>0.02</v>
+      </c>
+      <c r="C72" s="35">
         <f t="shared" si="12"/>
+        <v>0.08</v>
+      </c>
+      <c r="D72" s="35">
+        <v>502</v>
+      </c>
+      <c r="E72" s="35">
+        <v>970</v>
+      </c>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="35">
+        <v>293</v>
+      </c>
+      <c r="B73" s="35">
+        <f t="shared" si="11"/>
+        <v>2.3333333333333334E-2</v>
+      </c>
+      <c r="C73" s="35">
+        <f t="shared" si="12"/>
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="D73" s="35">
+        <v>595</v>
+      </c>
+      <c r="E73" s="35">
+        <v>1136</v>
+      </c>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="35">
+        <v>292</v>
+      </c>
+      <c r="B74" s="35">
+        <f t="shared" si="11"/>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="C74" s="35">
+        <f t="shared" si="12"/>
+        <v>0.10666666666666667</v>
+      </c>
+      <c r="D74" s="35">
+        <v>620</v>
+      </c>
+      <c r="E74" s="35">
+        <v>1182</v>
+      </c>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="35">
+        <v>294</v>
+      </c>
+      <c r="B75" s="35">
+        <f t="shared" si="11"/>
         <v>0.02</v>
       </c>
-      <c r="C66" s="35">
-        <f t="shared" si="13"/>
+      <c r="C75" s="35">
+        <f t="shared" si="12"/>
         <v>0.08</v>
       </c>
-      <c r="D66" s="35">
-        <v>502</v>
-      </c>
-      <c r="E66" s="35">
-        <v>970</v>
-      </c>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="35">
-        <v>293</v>
-      </c>
-      <c r="B67" s="35">
+      <c r="D75" s="35">
+        <v>431</v>
+      </c>
+      <c r="E75" s="35">
+        <v>783</v>
+      </c>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="35">
+        <v>294</v>
+      </c>
+      <c r="B76" s="35">
+        <f t="shared" si="11"/>
+        <v>0.02</v>
+      </c>
+      <c r="C76" s="35">
         <f t="shared" si="12"/>
-        <v>2.3333333333333334E-2</v>
-      </c>
-      <c r="C67" s="35">
-        <f t="shared" si="13"/>
-        <v>9.3333333333333338E-2</v>
-      </c>
-      <c r="D67" s="35">
-        <v>595</v>
-      </c>
-      <c r="E67" s="35">
-        <v>1136</v>
-      </c>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="35">
-        <v>292</v>
-      </c>
-      <c r="B68" s="35">
+        <v>0.08</v>
+      </c>
+      <c r="D76" s="35">
+        <v>354</v>
+      </c>
+      <c r="E76" s="35">
+        <v>617</v>
+      </c>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35">
+        <v>0</v>
+      </c>
+      <c r="J76" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="K76" s="37">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="35">
+        <v>295</v>
+      </c>
+      <c r="B77" s="35">
+        <f t="shared" si="11"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="C77" s="35">
         <f t="shared" si="12"/>
-        <v>2.6666666666666668E-2</v>
-      </c>
-      <c r="C68" s="35">
-        <f t="shared" si="13"/>
-        <v>0.10666666666666667</v>
-      </c>
-      <c r="D68" s="35">
-        <v>620</v>
-      </c>
-      <c r="E68" s="35">
-        <v>1182</v>
-      </c>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="35">
-        <v>294</v>
-      </c>
-      <c r="B69" s="35">
-        <f t="shared" si="12"/>
-        <v>0.02</v>
-      </c>
-      <c r="C69" s="35">
-        <f t="shared" si="13"/>
-        <v>0.08</v>
-      </c>
-      <c r="D69" s="35">
-        <v>431</v>
-      </c>
-      <c r="E69" s="35">
-        <v>783</v>
-      </c>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D77" s="35">
+        <v>249</v>
+      </c>
+      <c r="E77" s="35">
+        <v>390</v>
+      </c>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="35">
-        <v>294</v>
-      </c>
-      <c r="B70" s="35">
-        <f t="shared" si="12"/>
-        <v>0.02</v>
-      </c>
-      <c r="C70" s="35">
-        <f t="shared" si="13"/>
-        <v>0.08</v>
-      </c>
-      <c r="D70" s="35">
-        <v>354</v>
-      </c>
-      <c r="E70" s="35">
-        <v>617</v>
-      </c>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J78">
+        <f>300*0.75</f>
+        <v>225</v>
+      </c>
+      <c r="K78">
+        <f>300*0.8</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="36">
+        <v>271</v>
+      </c>
+      <c r="B79" s="8">
+        <f>($B$56-A79)/$B$56</f>
+        <v>9.6666666666666665E-2</v>
+      </c>
+      <c r="C79" s="8">
+        <f>B79/$B$58</f>
+        <v>0.38666666666666666</v>
+      </c>
+      <c r="D79" s="8">
+        <v>188</v>
+      </c>
+      <c r="E79" s="8">
         <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="35">
-        <v>295</v>
-      </c>
-      <c r="B71" s="35">
-        <f t="shared" si="12"/>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="C71" s="35">
-        <f t="shared" si="13"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="D71" s="35">
-        <v>249</v>
-      </c>
-      <c r="E71" s="35">
-        <v>390</v>
-      </c>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35">
-        <v>0</v>
-      </c>
-      <c r="J71" s="36">
-        <v>0.75</v>
-      </c>
-      <c r="K71" s="36">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="8">
-        <v>271</v>
-      </c>
-      <c r="B72" s="8">
-        <f>($B$51-A72)/$B$51</f>
-        <v>9.6666666666666665E-2</v>
-      </c>
-      <c r="C72" s="8">
-        <f>B72/$B$53</f>
-        <v>0.38666666666666666</v>
-      </c>
-      <c r="D72" s="8">
-        <v>297</v>
-      </c>
-      <c r="E72" s="8">
-        <v>169</v>
-      </c>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="8">
-        <v>270</v>
-      </c>
-      <c r="B73" s="8">
-        <f t="shared" ref="B73:B80" si="14">($B$51-A73)/$B$51</f>
-        <v>0.1</v>
-      </c>
-      <c r="C73" s="8">
-        <f t="shared" ref="C73:C80" si="15">B73/$B$53</f>
-        <v>0.4</v>
-      </c>
-      <c r="D73" s="8">
-        <v>402</v>
-      </c>
-      <c r="E73" s="8">
-        <v>342</v>
-      </c>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8">
-        <v>1</v>
-      </c>
-      <c r="I73" t="s">
-        <v>62</v>
-      </c>
-      <c r="J73">
-        <v>230</v>
-      </c>
-      <c r="K73">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="8">
-        <v>270</v>
-      </c>
-      <c r="B74" s="8">
-        <f t="shared" si="14"/>
-        <v>0.1</v>
-      </c>
-      <c r="C74" s="8">
-        <f t="shared" si="15"/>
-        <v>0.4</v>
-      </c>
-      <c r="D74" s="8">
-        <v>499</v>
-      </c>
-      <c r="E74" s="8">
-        <v>498</v>
-      </c>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="8">
-        <v>269</v>
-      </c>
-      <c r="B75" s="8">
-        <f t="shared" si="14"/>
-        <v>0.10333333333333333</v>
-      </c>
-      <c r="C75" s="8">
-        <f t="shared" si="15"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="D75" s="8">
-        <v>599</v>
-      </c>
-      <c r="E75" s="8">
-        <v>656</v>
-      </c>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="8">
-        <v>269</v>
-      </c>
-      <c r="B76" s="8">
-        <f t="shared" si="14"/>
-        <v>0.10333333333333333</v>
-      </c>
-      <c r="C76" s="8">
-        <f t="shared" si="15"/>
-        <v>0.41333333333333333</v>
-      </c>
-      <c r="D76" s="8">
-        <v>621</v>
-      </c>
-      <c r="E76" s="8">
-        <v>691</v>
-      </c>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="8">
-        <v>270</v>
-      </c>
-      <c r="B77" s="8">
-        <f t="shared" si="14"/>
-        <v>0.1</v>
-      </c>
-      <c r="C77" s="8">
-        <f t="shared" si="15"/>
-        <v>0.4</v>
-      </c>
-      <c r="D77" s="8">
-        <v>449</v>
-      </c>
-      <c r="E77" s="8">
-        <v>423</v>
-      </c>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="8">
-        <v>270</v>
-      </c>
-      <c r="B78" s="8">
-        <f t="shared" si="14"/>
-        <v>0.1</v>
-      </c>
-      <c r="C78" s="8">
-        <f t="shared" si="15"/>
-        <v>0.4</v>
-      </c>
-      <c r="D78" s="8">
-        <v>350</v>
-      </c>
-      <c r="E78" s="8">
-        <v>267</v>
-      </c>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="8">
-        <v>271</v>
-      </c>
-      <c r="B79" s="8">
-        <f t="shared" si="14"/>
-        <v>9.6666666666666665E-2</v>
-      </c>
-      <c r="C79" s="8">
-        <f t="shared" si="15"/>
-        <v>0.38666666666666666</v>
-      </c>
-      <c r="D79" s="8">
-        <v>249</v>
-      </c>
-      <c r="E79" s="8">
-        <v>108</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
+        <v>62</v>
+      </c>
+      <c r="J79">
+        <v>230</v>
+      </c>
+      <c r="K79">
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -9776,415 +11014,1198 @@
         <v>271</v>
       </c>
       <c r="B80" s="8">
-        <f t="shared" si="14"/>
+        <f>($B$56-A80)/$B$56</f>
         <v>9.6666666666666665E-2</v>
       </c>
       <c r="C80" s="8">
-        <f t="shared" si="15"/>
+        <f>B80/$B$58</f>
         <v>0.38666666666666666</v>
       </c>
       <c r="D80" s="8">
-        <v>200</v>
+        <v>297</v>
       </c>
       <c r="E80" s="8">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="F80" s="8"/>
       <c r="G80" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="8">
+        <v>270</v>
+      </c>
+      <c r="B81" s="8">
+        <f t="shared" ref="B81:B88" si="13">($B$56-A81)/$B$56</f>
+        <v>0.1</v>
+      </c>
+      <c r="C81" s="8">
+        <f t="shared" ref="C81:C88" si="14">B81/$B$58</f>
+        <v>0.4</v>
+      </c>
+      <c r="D81" s="8">
+        <v>402</v>
+      </c>
+      <c r="E81" s="8">
+        <v>342</v>
+      </c>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="8">
+        <v>270</v>
+      </c>
+      <c r="B82" s="8">
+        <f t="shared" si="13"/>
+        <v>0.1</v>
+      </c>
+      <c r="C82" s="8">
+        <f t="shared" si="14"/>
+        <v>0.4</v>
+      </c>
+      <c r="D82" s="8">
+        <v>499</v>
+      </c>
+      <c r="E82" s="8">
+        <v>498</v>
+      </c>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="8">
+        <v>269</v>
+      </c>
+      <c r="B83" s="8">
+        <f t="shared" si="13"/>
+        <v>0.10333333333333333</v>
+      </c>
+      <c r="C83" s="8">
+        <f t="shared" si="14"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="D83" s="8">
+        <v>599</v>
+      </c>
+      <c r="E83" s="8">
+        <v>656</v>
+      </c>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="8">
+        <v>269</v>
+      </c>
+      <c r="B84" s="8">
+        <f t="shared" si="13"/>
+        <v>0.10333333333333333</v>
+      </c>
+      <c r="C84" s="8">
+        <f t="shared" si="14"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="D84" s="8">
+        <v>621</v>
+      </c>
+      <c r="E84" s="8">
+        <v>691</v>
+      </c>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="8">
+        <v>270</v>
+      </c>
+      <c r="B85" s="8">
+        <f t="shared" si="13"/>
+        <v>0.1</v>
+      </c>
+      <c r="C85" s="8">
+        <f t="shared" si="14"/>
+        <v>0.4</v>
+      </c>
+      <c r="D85" s="8">
+        <v>449</v>
+      </c>
+      <c r="E85" s="8">
+        <v>423</v>
+      </c>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="37">
-        <v>244</v>
-      </c>
-      <c r="B81" s="37">
-        <f t="shared" ref="B81:B89" si="16">($B$51-A81)/$B$51</f>
-        <v>0.18666666666666668</v>
-      </c>
-      <c r="C81" s="37">
-        <f t="shared" ref="C81:C89" si="17">B81/$B$53</f>
-        <v>0.7466666666666667</v>
-      </c>
-      <c r="D81" s="37">
-        <v>347</v>
-      </c>
-      <c r="E81" s="37">
-        <v>35</v>
-      </c>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="37">
-        <v>244</v>
-      </c>
-      <c r="B82" s="37">
-        <f t="shared" si="16"/>
-        <v>0.18666666666666668</v>
-      </c>
-      <c r="C82" s="37">
-        <f t="shared" si="17"/>
-        <v>0.7466666666666667</v>
-      </c>
-      <c r="D82" s="37">
-        <v>449</v>
-      </c>
-      <c r="E82" s="37">
-        <v>140</v>
-      </c>
-      <c r="F82" s="37"/>
-      <c r="G82" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="37">
-        <v>244</v>
-      </c>
-      <c r="B83" s="37">
-        <f t="shared" si="16"/>
-        <v>0.18666666666666668</v>
-      </c>
-      <c r="C83" s="37">
-        <f t="shared" si="17"/>
-        <v>0.7466666666666667</v>
-      </c>
-      <c r="D83" s="37">
-        <v>502</v>
-      </c>
-      <c r="E83" s="37">
-        <v>193</v>
-      </c>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="37">
-        <v>244</v>
-      </c>
-      <c r="B84" s="37">
-        <f t="shared" si="16"/>
-        <v>0.18666666666666668</v>
-      </c>
-      <c r="C84" s="37">
-        <f t="shared" si="17"/>
-        <v>0.7466666666666667</v>
-      </c>
-      <c r="D84" s="37">
-        <v>545</v>
-      </c>
-      <c r="E84" s="37">
-        <v>237</v>
-      </c>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="37">
-        <v>244</v>
-      </c>
-      <c r="B85" s="37">
-        <f t="shared" si="16"/>
-        <v>0.18666666666666668</v>
-      </c>
-      <c r="C85" s="37">
-        <f t="shared" si="17"/>
-        <v>0.7466666666666667</v>
-      </c>
-      <c r="D85" s="37">
-        <v>603</v>
-      </c>
-      <c r="E85" s="37">
-        <v>291</v>
-      </c>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="37">
-        <v>244</v>
-      </c>
-      <c r="B86" s="37">
-        <f t="shared" si="16"/>
-        <v>0.18666666666666668</v>
-      </c>
-      <c r="C86" s="37">
-        <f t="shared" si="17"/>
-        <v>0.7466666666666667</v>
-      </c>
-      <c r="D86" s="37">
-        <v>625</v>
-      </c>
-      <c r="E86" s="37">
-        <v>316</v>
-      </c>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="37">
-        <v>244</v>
-      </c>
-      <c r="B87" s="37">
-        <f t="shared" si="16"/>
-        <v>0.18666666666666668</v>
-      </c>
-      <c r="C87" s="37">
-        <f t="shared" si="17"/>
-        <v>0.7466666666666667</v>
-      </c>
-      <c r="D87" s="37">
-        <v>573</v>
-      </c>
-      <c r="E87" s="37">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="8">
+        <v>270</v>
+      </c>
+      <c r="B86" s="8">
+        <f t="shared" si="13"/>
+        <v>0.1</v>
+      </c>
+      <c r="C86" s="8">
+        <f t="shared" si="14"/>
+        <v>0.4</v>
+      </c>
+      <c r="D86" s="8">
+        <v>350</v>
+      </c>
+      <c r="E86" s="8">
         <v>267</v>
       </c>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37">
+      <c r="F86" s="8"/>
+      <c r="G86" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="37">
-        <v>244</v>
-      </c>
-      <c r="B88" s="37">
-        <f t="shared" si="16"/>
-        <v>0.18666666666666668</v>
-      </c>
-      <c r="C88" s="37">
-        <f t="shared" si="17"/>
-        <v>0.7466666666666667</v>
-      </c>
-      <c r="D88" s="37">
-        <v>474</v>
-      </c>
-      <c r="E88" s="37">
-        <v>174</v>
-      </c>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="8">
+        <v>271</v>
+      </c>
+      <c r="B87" s="8">
+        <f t="shared" si="13"/>
+        <v>9.6666666666666665E-2</v>
+      </c>
+      <c r="C87" s="8">
+        <f t="shared" si="14"/>
+        <v>0.38666666666666666</v>
+      </c>
+      <c r="D87" s="8">
+        <v>249</v>
+      </c>
+      <c r="E87" s="8">
+        <v>108</v>
+      </c>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="37">
-        <v>244</v>
-      </c>
-      <c r="B89" s="37">
-        <f t="shared" si="16"/>
-        <v>0.18666666666666668</v>
-      </c>
-      <c r="C89" s="37">
-        <f t="shared" si="17"/>
-        <v>0.7466666666666667</v>
-      </c>
-      <c r="D89" s="37">
-        <v>373</v>
-      </c>
-      <c r="E89" s="37">
-        <v>76</v>
-      </c>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="8">
+        <v>271</v>
+      </c>
+      <c r="B88" s="8">
+        <f t="shared" si="13"/>
+        <v>9.6666666666666665E-2</v>
+      </c>
+      <c r="C88" s="8">
+        <f t="shared" si="14"/>
+        <v>0.38666666666666666</v>
+      </c>
+      <c r="D88" s="8">
+        <v>200</v>
+      </c>
+      <c r="E88" s="8">
+        <v>31</v>
+      </c>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D89" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F89" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G89" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="38">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="B90" s="38">
-        <f t="shared" ref="B90:B97" si="18">($B$51-A90)/$B$51</f>
-        <v>0.24666666666666667</v>
+        <f t="shared" ref="B90:B99" si="15">($B$56-A90)/$B$56</f>
+        <v>0.18333333333333332</v>
       </c>
       <c r="C90" s="38">
-        <f t="shared" ref="C90:C97" si="19">B90/$B$53</f>
-        <v>0.98666666666666669</v>
+        <f t="shared" ref="C90:C99" si="16">B90/$B$58</f>
+        <v>0.73333333333333328</v>
       </c>
       <c r="D90" s="38">
-        <v>510</v>
+        <v>137</v>
       </c>
       <c r="E90" s="38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F90" s="38"/>
       <c r="G90" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="38">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="B91" s="38">
-        <f t="shared" si="18"/>
-        <v>0.25</v>
+        <f t="shared" si="15"/>
+        <v>0.18666666666666668</v>
       </c>
       <c r="C91" s="38">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0.7466666666666667</v>
       </c>
       <c r="D91" s="38">
-        <v>540</v>
+        <v>347</v>
       </c>
       <c r="E91" s="38">
-        <v>11.9</v>
+        <v>35</v>
       </c>
       <c r="F91" s="38"/>
       <c r="G91" s="38">
         <v>1</v>
       </c>
-      <c r="H91" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="38">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="B92" s="38">
-        <f t="shared" si="18"/>
-        <v>0.25</v>
+        <f t="shared" si="15"/>
+        <v>0.18666666666666668</v>
       </c>
       <c r="C92" s="38">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0.7466666666666667</v>
       </c>
       <c r="D92" s="38">
-        <v>582</v>
+        <v>449</v>
       </c>
       <c r="E92" s="38">
-        <v>33.33</v>
+        <v>140</v>
       </c>
       <c r="F92" s="38"/>
       <c r="G92" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="38">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="B93" s="38">
-        <f t="shared" si="18"/>
-        <v>0.25</v>
+        <f t="shared" si="15"/>
+        <v>0.18666666666666668</v>
       </c>
       <c r="C93" s="38">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0.7466666666666667</v>
       </c>
       <c r="D93" s="38">
-        <v>604</v>
+        <v>502</v>
       </c>
       <c r="E93" s="38">
-        <v>49</v>
+        <v>193</v>
       </c>
       <c r="F93" s="38"/>
       <c r="G93" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="38">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="B94" s="38">
-        <f t="shared" si="18"/>
-        <v>0.25</v>
+        <f t="shared" si="15"/>
+        <v>0.18666666666666668</v>
       </c>
       <c r="C94" s="38">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0.7466666666666667</v>
       </c>
       <c r="D94" s="38">
-        <v>627</v>
+        <v>545</v>
       </c>
       <c r="E94" s="38">
-        <v>59</v>
+        <v>237</v>
       </c>
       <c r="F94" s="38"/>
       <c r="G94" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="38">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="B95" s="38">
-        <f t="shared" si="18"/>
-        <v>0.25</v>
+        <f t="shared" si="15"/>
+        <v>0.18666666666666668</v>
       </c>
       <c r="C95" s="38">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0.7466666666666667</v>
       </c>
       <c r="D95" s="38">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="E95" s="38">
-        <v>40</v>
+        <v>291</v>
       </c>
       <c r="F95" s="38"/>
       <c r="G95" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="38">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="B96" s="38">
-        <f t="shared" si="18"/>
-        <v>0.25</v>
+        <f t="shared" si="15"/>
+        <v>0.18666666666666668</v>
       </c>
       <c r="C96" s="38">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>0.7466666666666667</v>
       </c>
       <c r="D96" s="38">
-        <v>558</v>
+        <v>625</v>
       </c>
       <c r="E96" s="38">
-        <v>26</v>
+        <v>316</v>
       </c>
       <c r="F96" s="38"/>
       <c r="G96" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="38">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="B97" s="38">
-        <f t="shared" si="18"/>
-        <v>0.24666666666666667</v>
+        <f t="shared" si="15"/>
+        <v>0.18666666666666668</v>
       </c>
       <c r="C97" s="38">
-        <f t="shared" si="19"/>
-        <v>0.98666666666666669</v>
+        <f t="shared" si="16"/>
+        <v>0.7466666666666667</v>
       </c>
       <c r="D97" s="38">
-        <v>514</v>
+        <v>573</v>
       </c>
       <c r="E97" s="38">
-        <v>5</v>
+        <v>267</v>
       </c>
       <c r="F97" s="38"/>
       <c r="G97" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="38">
+        <v>244</v>
+      </c>
+      <c r="B98" s="38">
+        <f t="shared" si="15"/>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="C98" s="38">
+        <f t="shared" si="16"/>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="D98" s="38">
+        <v>474</v>
+      </c>
+      <c r="E98" s="38">
+        <v>174</v>
+      </c>
+      <c r="F98" s="38"/>
+      <c r="G98" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="38">
+        <v>244</v>
+      </c>
+      <c r="B99" s="38">
+        <f t="shared" si="15"/>
+        <v>0.18666666666666668</v>
+      </c>
+      <c r="C99" s="38">
+        <f t="shared" si="16"/>
+        <v>0.7466666666666667</v>
+      </c>
+      <c r="D99" s="38">
+        <v>373</v>
+      </c>
+      <c r="E99" s="38">
+        <v>76</v>
+      </c>
+      <c r="F99" s="38"/>
+      <c r="G99" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G100" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="15">
+        <v>226</v>
+      </c>
+      <c r="B101" s="15">
+        <f t="shared" ref="B101:B108" si="17">($B$56-A101)/$B$56</f>
+        <v>0.24666666666666667</v>
+      </c>
+      <c r="C101" s="15">
+        <f>B101/$B$58</f>
+        <v>0.98666666666666669</v>
+      </c>
+      <c r="D101" s="15">
+        <v>510</v>
+      </c>
+      <c r="E101" s="15">
+        <v>3</v>
+      </c>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="15">
+        <v>225</v>
+      </c>
+      <c r="B102" s="15">
+        <f t="shared" si="17"/>
+        <v>0.25</v>
+      </c>
+      <c r="C102" s="15">
+        <f t="shared" ref="C101:C108" si="18">B102/$B$58</f>
+        <v>1</v>
+      </c>
+      <c r="D102" s="15">
+        <v>540</v>
+      </c>
+      <c r="E102" s="15">
+        <v>11.9</v>
+      </c>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="15">
+        <v>225</v>
+      </c>
+      <c r="B103" s="15">
+        <f t="shared" si="17"/>
+        <v>0.25</v>
+      </c>
+      <c r="C103" s="15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D103" s="15">
+        <v>582</v>
+      </c>
+      <c r="E103" s="15">
+        <v>33.33</v>
+      </c>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="15">
+        <v>225</v>
+      </c>
+      <c r="B104" s="15">
+        <f t="shared" si="17"/>
+        <v>0.25</v>
+      </c>
+      <c r="C104" s="15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D104" s="15">
+        <v>604</v>
+      </c>
+      <c r="E104" s="15">
+        <v>49</v>
+      </c>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="15">
+        <v>225</v>
+      </c>
+      <c r="B105" s="15">
+        <f t="shared" si="17"/>
+        <v>0.25</v>
+      </c>
+      <c r="C105" s="15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D105" s="15">
+        <v>627</v>
+      </c>
+      <c r="E105" s="15">
+        <v>59</v>
+      </c>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="15">
+        <v>225</v>
+      </c>
+      <c r="B106" s="15">
+        <f t="shared" si="17"/>
+        <v>0.25</v>
+      </c>
+      <c r="C106" s="15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D106" s="15">
+        <v>590</v>
+      </c>
+      <c r="E106" s="15">
+        <v>40</v>
+      </c>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="15">
+        <v>225</v>
+      </c>
+      <c r="B107" s="15">
+        <f t="shared" si="17"/>
+        <v>0.25</v>
+      </c>
+      <c r="C107" s="15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="D107" s="15">
+        <v>558</v>
+      </c>
+      <c r="E107" s="15">
+        <v>26</v>
+      </c>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="15">
+        <v>226</v>
+      </c>
+      <c r="B108" s="15">
+        <f t="shared" si="17"/>
+        <v>0.24666666666666667</v>
+      </c>
+      <c r="C108" s="15">
+        <f t="shared" si="18"/>
+        <v>0.98666666666666669</v>
+      </c>
+      <c r="D108" s="15">
+        <v>514</v>
+      </c>
+      <c r="E108" s="15">
+        <v>5</v>
+      </c>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="15"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="15"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="15"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="15"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="15"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>63</v>
+      </c>
+      <c r="C116" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>23</v>
+      </c>
+      <c r="D117">
+        <f>(D115-D116)/D115</f>
+        <v>0.24333333333333335</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B118" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D118" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E118" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F118" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G118" s="41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="41">
+        <v>228</v>
+      </c>
+      <c r="B119" s="41">
+        <f>($D$115-A119)/$D$115</f>
+        <v>0.24</v>
+      </c>
+      <c r="C119" s="41">
+        <f>B119/$D$117</f>
+        <v>0.98630136986301364</v>
+      </c>
+      <c r="D119" s="41">
+        <v>621</v>
+      </c>
+      <c r="E119" s="41">
+        <v>47</v>
+      </c>
+      <c r="F119" s="41"/>
+      <c r="G119" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="41">
+        <v>228</v>
+      </c>
+      <c r="B120" s="41">
+        <f t="shared" ref="B120:B127" si="19">($D$115-A120)/$D$115</f>
+        <v>0.24</v>
+      </c>
+      <c r="C120" s="41">
+        <f t="shared" ref="C120:C127" si="20">B120/$D$117</f>
+        <v>0.98630136986301364</v>
+      </c>
+      <c r="D120" s="41">
+        <v>602</v>
+      </c>
+      <c r="E120" s="41">
+        <v>38</v>
+      </c>
+      <c r="F120" s="41"/>
+      <c r="G120" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="41">
+        <v>229</v>
+      </c>
+      <c r="B121" s="41">
+        <f t="shared" si="19"/>
+        <v>0.23666666666666666</v>
+      </c>
+      <c r="C121" s="41">
+        <f t="shared" si="20"/>
+        <v>0.97260273972602729</v>
+      </c>
+      <c r="D121" s="41">
+        <v>571</v>
+      </c>
+      <c r="E121" s="41">
+        <v>23</v>
+      </c>
+      <c r="F121" s="41"/>
+      <c r="G121" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="41">
+        <v>229</v>
+      </c>
+      <c r="B122" s="41">
+        <f t="shared" si="19"/>
+        <v>0.23666666666666666</v>
+      </c>
+      <c r="C122" s="41">
+        <f>B122/$D$117</f>
+        <v>0.97260273972602729</v>
+      </c>
+      <c r="D122" s="41">
+        <v>561</v>
+      </c>
+      <c r="E122" s="41">
+        <v>19</v>
+      </c>
+      <c r="F122" s="41"/>
+      <c r="G122" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="41">
+        <v>230</v>
+      </c>
+      <c r="B123" s="41">
+        <f t="shared" si="19"/>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="C123" s="41">
+        <f t="shared" si="20"/>
+        <v>0.95890410958904104</v>
+      </c>
+      <c r="D123" s="41">
+        <v>552</v>
+      </c>
+      <c r="E123" s="41">
+        <v>17</v>
+      </c>
+      <c r="F123" s="41"/>
+      <c r="G123" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="41">
+        <v>230</v>
+      </c>
+      <c r="B124" s="41">
+        <f t="shared" si="19"/>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="C124" s="41">
+        <f t="shared" si="20"/>
+        <v>0.95890410958904104</v>
+      </c>
+      <c r="D124" s="41">
+        <v>537</v>
+      </c>
+      <c r="E124" s="41">
+        <v>9</v>
+      </c>
+      <c r="F124" s="41"/>
+      <c r="G124" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="41">
+        <v>228</v>
+      </c>
+      <c r="B125" s="41">
+        <f t="shared" si="19"/>
+        <v>0.24</v>
+      </c>
+      <c r="C125" s="41">
+        <f t="shared" si="20"/>
+        <v>0.98630136986301364</v>
+      </c>
+      <c r="D125" s="41">
+        <v>581</v>
+      </c>
+      <c r="E125" s="41">
+        <v>32</v>
+      </c>
+      <c r="F125" s="41"/>
+      <c r="G125" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="41">
+        <v>228</v>
+      </c>
+      <c r="B126" s="41">
+        <f t="shared" si="19"/>
+        <v>0.24</v>
+      </c>
+      <c r="C126" s="41">
+        <f t="shared" si="20"/>
+        <v>0.98630136986301364</v>
+      </c>
+      <c r="D126" s="41">
+        <v>593</v>
+      </c>
+      <c r="E126" s="41">
+        <v>38</v>
+      </c>
+      <c r="F126" s="41"/>
+      <c r="G126" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="42">
+        <v>228</v>
+      </c>
+      <c r="B127" s="41">
+        <f t="shared" si="19"/>
+        <v>0.24</v>
+      </c>
+      <c r="C127" s="42">
+        <f t="shared" si="20"/>
+        <v>0.98630136986301364</v>
+      </c>
+      <c r="D127" s="42">
+        <v>615</v>
+      </c>
+      <c r="E127" s="42">
+        <v>49</v>
+      </c>
+      <c r="F127" s="41"/>
+      <c r="G127" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E128" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G128" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="10">
+        <v>256</v>
+      </c>
+      <c r="B129" s="10">
+        <f>($D$115-A129)/$D$115</f>
+        <v>0.14666666666666667</v>
+      </c>
+      <c r="C129" s="10">
+        <f>B129/$D$117</f>
+        <v>0.60273972602739723</v>
+      </c>
+      <c r="D129" s="10">
+        <v>285</v>
+      </c>
+      <c r="E129" s="10">
+        <v>55</v>
+      </c>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="10">
+        <v>256</v>
+      </c>
+      <c r="B130" s="10">
+        <f t="shared" ref="B130" si="21">($B$56-A130)/$B$56</f>
+        <v>0.14666666666666667</v>
+      </c>
+      <c r="C130" s="10">
+        <f t="shared" ref="C130:C137" si="22">B130/$D$117</f>
+        <v>0.60273972602739723</v>
+      </c>
+      <c r="D130" s="10">
+        <v>250</v>
+      </c>
+      <c r="E130" s="10">
+        <v>14</v>
+      </c>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="10">
+        <v>255</v>
+      </c>
+      <c r="B131" s="10">
+        <f>($B$56-A131)/$B$56</f>
+        <v>0.15</v>
+      </c>
+      <c r="C131" s="10">
+        <f t="shared" si="22"/>
+        <v>0.61643835616438347</v>
+      </c>
+      <c r="D131" s="10">
+        <v>350</v>
+      </c>
+      <c r="E131" s="10">
+        <v>135</v>
+      </c>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="10">
+        <v>255</v>
+      </c>
+      <c r="B132" s="10">
+        <f>($B$56-A132)/$B$56</f>
+        <v>0.15</v>
+      </c>
+      <c r="C132" s="10">
+        <f t="shared" si="22"/>
+        <v>0.61643835616438347</v>
+      </c>
+      <c r="D132" s="10">
+        <v>405</v>
+      </c>
+      <c r="E132" s="10">
+        <v>202</v>
+      </c>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="10">
+        <v>255</v>
+      </c>
+      <c r="B133" s="10">
+        <f>($B$56-A133)/$B$56</f>
+        <v>0.15</v>
+      </c>
+      <c r="C133" s="10">
+        <f t="shared" si="22"/>
+        <v>0.61643835616438347</v>
+      </c>
+      <c r="D133" s="10">
+        <v>500</v>
+      </c>
+      <c r="E133" s="10">
+        <v>312</v>
+      </c>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="10">
+        <v>255</v>
+      </c>
+      <c r="B134" s="10">
+        <f>($B$56-A134)/$B$56</f>
+        <v>0.15</v>
+      </c>
+      <c r="C134" s="10">
+        <f t="shared" si="22"/>
+        <v>0.61643835616438347</v>
+      </c>
+      <c r="D134" s="10">
+        <v>600</v>
+      </c>
+      <c r="E134" s="10">
+        <v>430</v>
+      </c>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="10">
+        <v>254</v>
+      </c>
+      <c r="B135" s="10">
+        <f>($B$56-A135)/$B$56</f>
+        <v>0.15333333333333332</v>
+      </c>
+      <c r="C135" s="10">
+        <f t="shared" si="22"/>
+        <v>0.63013698630136983</v>
+      </c>
+      <c r="D135" s="10">
+        <v>618</v>
+      </c>
+      <c r="E135" s="10">
+        <v>450</v>
+      </c>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="10">
+        <v>255</v>
+      </c>
+      <c r="B136" s="10">
+        <f>($B$56-A136)/$B$56</f>
+        <v>0.15</v>
+      </c>
+      <c r="C136" s="10">
+        <f t="shared" si="22"/>
+        <v>0.61643835616438347</v>
+      </c>
+      <c r="D136" s="10">
+        <v>550</v>
+      </c>
+      <c r="E136" s="10">
+        <v>371</v>
+      </c>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="10">
+        <v>256</v>
+      </c>
+      <c r="B137" s="10">
+        <f>($B$56-A137)/$B$56</f>
+        <v>0.14666666666666667</v>
+      </c>
+      <c r="C137" s="10">
+        <f t="shared" si="22"/>
+        <v>0.60273972602739723</v>
+      </c>
+      <c r="D137" s="10">
+        <v>450</v>
+      </c>
+      <c r="E137" s="10">
+        <v>258</v>
+      </c>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10">
         <v>0</v>
       </c>
     </row>
@@ -10197,8 +12218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2708FD-2F43-4DD2-A436-851B1200C17D}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11383,10 +13404,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E1E9D2-B33D-45CD-A68E-D7F65B100D82}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11461,11 +13482,11 @@
         <v>334</v>
       </c>
       <c r="B6" s="32">
-        <f>($B$1-A6)/$B$1</f>
+        <f t="shared" ref="B6:B11" si="0">($B$1-A6)/$B$1</f>
         <v>0.25942350332594233</v>
       </c>
       <c r="C6" s="32">
-        <f>B6/$B$3</f>
+        <f t="shared" ref="C6:C11" si="1">B6/$B$3</f>
         <v>1</v>
       </c>
       <c r="D6" s="32">
@@ -11486,11 +13507,11 @@
         <v>340</v>
       </c>
       <c r="B7" s="32">
-        <f t="shared" ref="B7:B11" si="0">($B$1-A7)/$B$1</f>
+        <f t="shared" si="0"/>
         <v>0.24611973392461198</v>
       </c>
       <c r="C7" s="32">
-        <f t="shared" ref="C7:C11" si="1">B7/$B$3</f>
+        <f t="shared" si="1"/>
         <v>0.94871794871794879</v>
       </c>
       <c r="D7" s="32">
@@ -11597,26 +13618,26 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
-        <v>440</v>
-      </c>
-      <c r="B12" s="13">
-        <f>($B$1-A12)/$B$1</f>
-        <v>2.4390243902439025E-2</v>
-      </c>
-      <c r="C12" s="13">
-        <f>B12/$B$3</f>
-        <v>9.401709401709403E-2</v>
-      </c>
-      <c r="D12" s="13">
-        <v>623</v>
-      </c>
-      <c r="E12" s="13">
-        <v>1281</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13">
-        <v>1</v>
+      <c r="A12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -11624,41 +13645,41 @@
         <v>440</v>
       </c>
       <c r="B13" s="13">
-        <f t="shared" ref="B13:B22" si="2">($B$1-A13)/$B$1</f>
+        <f>($B$1-A13)/$B$1</f>
         <v>2.4390243902439025E-2</v>
       </c>
       <c r="C13" s="13">
-        <f t="shared" ref="C13:C22" si="3">B13/$B$3</f>
+        <f>B13/$B$3</f>
         <v>9.401709401709403E-2</v>
       </c>
       <c r="D13" s="13">
-        <v>595</v>
+        <v>623</v>
       </c>
       <c r="E13" s="13">
-        <v>1221</v>
+        <v>1281</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B14" s="13">
-        <f t="shared" si="2"/>
-        <v>2.2172949002217297E-2</v>
+        <f t="shared" ref="B14:B23" si="2">($B$1-A14)/$B$1</f>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="C14" s="13">
-        <f t="shared" si="3"/>
-        <v>8.5470085470085486E-2</v>
+        <f t="shared" ref="C14:C23" si="3">B14/$B$3</f>
+        <v>9.401709401709403E-2</v>
       </c>
       <c r="D14" s="13">
-        <v>501</v>
+        <v>595</v>
       </c>
       <c r="E14" s="13">
-        <v>1006</v>
+        <v>1221</v>
       </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13">
@@ -11667,21 +13688,21 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B15" s="13">
         <f t="shared" si="2"/>
-        <v>1.9955654101995565E-2</v>
+        <v>2.2172949002217297E-2</v>
       </c>
       <c r="C15" s="13">
         <f t="shared" si="3"/>
-        <v>7.6923076923076927E-2</v>
+        <v>8.5470085470085486E-2</v>
       </c>
       <c r="D15" s="13">
-        <v>403</v>
+        <v>501</v>
       </c>
       <c r="E15" s="13">
-        <v>786</v>
+        <v>1006</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13">
@@ -11690,21 +13711,21 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B16" s="13">
         <f t="shared" si="2"/>
-        <v>1.7738359201773836E-2</v>
+        <v>1.9955654101995565E-2</v>
       </c>
       <c r="C16" s="13">
         <f t="shared" si="3"/>
-        <v>6.8376068376068383E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="D16" s="13">
-        <v>198</v>
+        <v>403</v>
       </c>
       <c r="E16" s="13">
-        <v>325</v>
+        <v>786</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13">
@@ -11713,21 +13734,21 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B17" s="13">
         <f t="shared" si="2"/>
-        <v>1.5521064301552107E-2</v>
+        <v>1.7738359201773836E-2</v>
       </c>
       <c r="C17" s="13">
         <f t="shared" si="3"/>
-        <v>5.9829059829059839E-2</v>
+        <v>6.8376068376068383E-2</v>
       </c>
       <c r="D17" s="13">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="E17" s="13">
-        <v>138</v>
+        <v>325</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13">
@@ -11736,44 +13757,44 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B18" s="13">
         <f t="shared" si="2"/>
-        <v>1.7738359201773836E-2</v>
+        <v>1.5521064301552107E-2</v>
       </c>
       <c r="C18" s="13">
         <f t="shared" si="3"/>
-        <v>6.8376068376068383E-2</v>
+        <v>5.9829059829059839E-2</v>
       </c>
       <c r="D18" s="13">
-        <v>251</v>
+        <v>115</v>
       </c>
       <c r="E18" s="13">
-        <v>444</v>
+        <v>138</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B19" s="13">
         <f t="shared" si="2"/>
-        <v>1.9955654101995565E-2</v>
+        <v>1.7738359201773836E-2</v>
       </c>
       <c r="C19" s="13">
         <f t="shared" si="3"/>
-        <v>7.6923076923076927E-2</v>
+        <v>6.8376068376068383E-2</v>
       </c>
       <c r="D19" s="13">
-        <v>350</v>
+        <v>251</v>
       </c>
       <c r="E19" s="13">
-        <v>663</v>
+        <v>444</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13">
@@ -11793,10 +13814,10 @@
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="D20" s="13">
-        <v>448</v>
+        <v>350</v>
       </c>
       <c r="E20" s="13">
-        <v>882</v>
+        <v>663</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13">
@@ -11805,21 +13826,21 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B21" s="13">
         <f t="shared" si="2"/>
-        <v>2.4390243902439025E-2</v>
+        <v>1.9955654101995565E-2</v>
       </c>
       <c r="C21" s="13">
         <f t="shared" si="3"/>
-        <v>9.401709401709403E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="D21" s="13">
-        <v>543</v>
+        <v>448</v>
       </c>
       <c r="E21" s="13">
-        <v>1097</v>
+        <v>882</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13">
@@ -11828,90 +13849,90 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B22" s="13">
         <f t="shared" si="2"/>
-        <v>1.9955654101995565E-2</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="C22" s="13">
         <f t="shared" si="3"/>
-        <v>7.6923076923076927E-2</v>
+        <v>9.401709401709403E-2</v>
       </c>
       <c r="D22" s="13">
-        <v>290</v>
+        <v>543</v>
       </c>
       <c r="E22" s="13">
-        <v>528</v>
+        <v>1097</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <v>442</v>
+      </c>
+      <c r="B23" s="13">
+        <f t="shared" si="2"/>
+        <v>1.9955654101995565E-2</v>
+      </c>
+      <c r="C23" s="13">
+        <f t="shared" si="3"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="D23" s="13">
+        <v>290</v>
+      </c>
+      <c r="E23" s="13">
+        <v>528</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="33">
-        <v>447</v>
-      </c>
-      <c r="B23" s="33">
-        <f t="shared" ref="B23:B32" si="4">($B$1-A23)/$B$1</f>
-        <v>8.869179600886918E-3</v>
-      </c>
-      <c r="C23" s="33">
-        <f t="shared" ref="C23:C32" si="5">B23/$B$3</f>
-        <v>3.4188034188034191E-2</v>
-      </c>
-      <c r="D23" s="33">
-        <v>234</v>
-      </c>
-      <c r="E23" s="33">
-        <v>463</v>
-      </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33">
-        <v>1</v>
-      </c>
-    </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="33">
-        <v>446</v>
-      </c>
-      <c r="B24" s="33">
-        <f t="shared" si="4"/>
-        <v>1.1086474501108648E-2</v>
-      </c>
-      <c r="C24" s="33">
-        <f t="shared" si="5"/>
-        <v>4.2735042735042743E-2</v>
-      </c>
-      <c r="D24" s="33">
-        <v>360</v>
-      </c>
-      <c r="E24" s="33">
-        <v>749</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33">
-        <v>1</v>
+      <c r="A24" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="33">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B25" s="33">
-        <f t="shared" si="4"/>
-        <v>1.3303769401330377E-2</v>
+        <f t="shared" ref="B25:B34" si="4">($B$1-A25)/$B$1</f>
+        <v>8.869179600886918E-3</v>
       </c>
       <c r="C25" s="33">
-        <f t="shared" si="5"/>
-        <v>5.1282051282051287E-2</v>
+        <f t="shared" ref="C25:C34" si="5">B25/$B$3</f>
+        <v>3.4188034188034191E-2</v>
       </c>
       <c r="D25" s="33">
-        <v>449</v>
+        <v>234</v>
       </c>
       <c r="E25" s="33">
-        <v>952</v>
+        <v>463</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33">
@@ -11920,21 +13941,21 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="33">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B26" s="33">
         <f t="shared" si="4"/>
-        <v>1.3303769401330377E-2</v>
+        <v>1.1086474501108648E-2</v>
       </c>
       <c r="C26" s="33">
         <f t="shared" si="5"/>
-        <v>5.1282051282051287E-2</v>
+        <v>4.2735042735042743E-2</v>
       </c>
       <c r="D26" s="33">
-        <v>502</v>
+        <v>360</v>
       </c>
       <c r="E26" s="33">
-        <v>1072</v>
+        <v>749</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="33">
@@ -11943,21 +13964,21 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="33">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B27" s="33">
         <f t="shared" si="4"/>
-        <v>1.5521064301552107E-2</v>
+        <v>1.3303769401330377E-2</v>
       </c>
       <c r="C27" s="33">
         <f t="shared" si="5"/>
-        <v>5.9829059829059839E-2</v>
+        <v>5.1282051282051287E-2</v>
       </c>
       <c r="D27" s="33">
-        <v>552</v>
+        <v>449</v>
       </c>
       <c r="E27" s="33">
-        <v>1185</v>
+        <v>952</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33">
@@ -11966,21 +13987,21 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="33">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B28" s="33">
         <f t="shared" si="4"/>
-        <v>1.5521064301552107E-2</v>
+        <v>1.3303769401330377E-2</v>
       </c>
       <c r="C28" s="33">
         <f t="shared" si="5"/>
-        <v>5.9829059829059839E-2</v>
+        <v>5.1282051282051287E-2</v>
       </c>
       <c r="D28" s="33">
-        <v>604</v>
+        <v>502</v>
       </c>
       <c r="E28" s="33">
-        <v>1293</v>
+        <v>1072</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="33">
@@ -11989,21 +14010,21 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="33">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B29" s="33">
         <f t="shared" si="4"/>
-        <v>1.7738359201773836E-2</v>
+        <v>1.5521064301552107E-2</v>
       </c>
       <c r="C29" s="33">
         <f t="shared" si="5"/>
-        <v>6.8376068376068383E-2</v>
+        <v>5.9829059829059839E-2</v>
       </c>
       <c r="D29" s="33">
-        <v>620</v>
+        <v>552</v>
       </c>
       <c r="E29" s="33">
-        <v>1324</v>
+        <v>1185</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33">
@@ -12023,56 +14044,56 @@
         <v>5.9829059829059839E-2</v>
       </c>
       <c r="D30" s="33">
-        <v>469</v>
+        <v>604</v>
       </c>
       <c r="E30" s="33">
-        <v>981</v>
+        <v>1293</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="33">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B31" s="33">
         <f t="shared" si="4"/>
-        <v>1.3303769401330377E-2</v>
+        <v>1.7738359201773836E-2</v>
       </c>
       <c r="C31" s="33">
         <f t="shared" si="5"/>
-        <v>5.1282051282051287E-2</v>
+        <v>6.8376068376068383E-2</v>
       </c>
       <c r="D31" s="33">
-        <v>285</v>
+        <v>620</v>
       </c>
       <c r="E31" s="33">
-        <v>561</v>
+        <v>1324</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="33">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B32" s="33">
         <f t="shared" si="4"/>
-        <v>8.869179600886918E-3</v>
+        <v>1.5521064301552107E-2</v>
       </c>
       <c r="C32" s="33">
         <f t="shared" si="5"/>
-        <v>3.4188034188034191E-2</v>
+        <v>5.9829059829059839E-2</v>
       </c>
       <c r="D32" s="33">
-        <v>164</v>
+        <v>469</v>
       </c>
       <c r="E32" s="33">
-        <v>285</v>
+        <v>981</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33">
@@ -12080,91 +14101,91 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="17">
-        <v>437</v>
-      </c>
-      <c r="B33" s="17">
-        <f t="shared" ref="B33:B43" si="6">($B$1-A33)/$B$1</f>
-        <v>3.1042128603104215E-2</v>
-      </c>
-      <c r="C33" s="17">
-        <f t="shared" ref="C33:C43" si="7">B33/$B$3</f>
-        <v>0.11965811965811968</v>
-      </c>
-      <c r="D33" s="17">
-        <v>175</v>
-      </c>
-      <c r="E33" s="17">
-        <v>108</v>
-      </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17">
-        <v>1</v>
+      <c r="A33" s="33">
+        <v>445</v>
+      </c>
+      <c r="B33" s="33">
+        <f t="shared" si="4"/>
+        <v>1.3303769401330377E-2</v>
+      </c>
+      <c r="C33" s="33">
+        <f t="shared" si="5"/>
+        <v>5.1282051282051287E-2</v>
+      </c>
+      <c r="D33" s="33">
+        <v>285</v>
+      </c>
+      <c r="E33" s="33">
+        <v>561</v>
+      </c>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="17">
-        <v>432</v>
-      </c>
-      <c r="B34" s="17">
-        <f t="shared" si="6"/>
-        <v>4.2128603104212861E-2</v>
-      </c>
-      <c r="C34" s="17">
-        <f t="shared" si="7"/>
-        <v>0.1623931623931624</v>
-      </c>
-      <c r="D34" s="17">
-        <v>249</v>
-      </c>
-      <c r="E34" s="17">
-        <v>267</v>
-      </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17">
-        <v>1</v>
+      <c r="A34" s="33">
+        <v>447</v>
+      </c>
+      <c r="B34" s="33">
+        <f t="shared" si="4"/>
+        <v>8.869179600886918E-3</v>
+      </c>
+      <c r="C34" s="33">
+        <f t="shared" si="5"/>
+        <v>3.4188034188034191E-2</v>
+      </c>
+      <c r="D34" s="33">
+        <v>164</v>
+      </c>
+      <c r="E34" s="33">
+        <v>285</v>
+      </c>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="17">
-        <v>431</v>
-      </c>
-      <c r="B35" s="17">
-        <f t="shared" si="6"/>
-        <v>4.4345898004434593E-2</v>
-      </c>
-      <c r="C35" s="17">
-        <f t="shared" si="7"/>
-        <v>0.17094017094017097</v>
-      </c>
-      <c r="D35" s="17">
-        <v>301</v>
-      </c>
-      <c r="E35" s="17">
-        <v>380</v>
-      </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17">
-        <v>1</v>
+      <c r="A35" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B36" s="17">
-        <f t="shared" si="6"/>
-        <v>4.4345898004434593E-2</v>
+        <f t="shared" ref="B36:B46" si="6">($B$1-A36)/$B$1</f>
+        <v>3.1042128603104215E-2</v>
       </c>
       <c r="C36" s="17">
-        <f t="shared" si="7"/>
-        <v>0.17094017094017097</v>
+        <f t="shared" ref="C36:C46" si="7">B36/$B$3</f>
+        <v>0.11965811965811968</v>
       </c>
       <c r="D36" s="17">
-        <v>402</v>
+        <v>175</v>
       </c>
       <c r="E36" s="17">
-        <v>591</v>
+        <v>108</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="17">
@@ -12173,21 +14194,21 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B37" s="17">
         <f t="shared" si="6"/>
-        <v>4.6563192904656318E-2</v>
+        <v>4.2128603104212861E-2</v>
       </c>
       <c r="C37" s="17">
         <f t="shared" si="7"/>
-        <v>0.17948717948717949</v>
+        <v>0.1623931623931624</v>
       </c>
       <c r="D37" s="17">
-        <v>498</v>
+        <v>249</v>
       </c>
       <c r="E37" s="17">
-        <v>794</v>
+        <v>267</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="17">
@@ -12196,21 +14217,21 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B38" s="17">
         <f t="shared" si="6"/>
-        <v>4.878048780487805E-2</v>
+        <v>4.4345898004434593E-2</v>
       </c>
       <c r="C38" s="17">
         <f t="shared" si="7"/>
-        <v>0.18803418803418806</v>
+        <v>0.17094017094017097</v>
       </c>
       <c r="D38" s="17">
-        <v>598</v>
+        <v>301</v>
       </c>
       <c r="E38" s="17">
-        <v>1003</v>
+        <v>380</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17">
@@ -12219,21 +14240,21 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B39" s="17">
         <f t="shared" si="6"/>
-        <v>4.878048780487805E-2</v>
+        <v>4.4345898004434593E-2</v>
       </c>
       <c r="C39" s="17">
         <f t="shared" si="7"/>
-        <v>0.18803418803418806</v>
+        <v>0.17094017094017097</v>
       </c>
       <c r="D39" s="17">
-        <v>615</v>
+        <v>402</v>
       </c>
       <c r="E39" s="17">
-        <v>1038</v>
+        <v>591</v>
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="17">
@@ -12242,90 +14263,90 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="17">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B40" s="17">
         <f t="shared" si="6"/>
-        <v>4.878048780487805E-2</v>
+        <v>4.6563192904656318E-2</v>
       </c>
       <c r="C40" s="17">
         <f t="shared" si="7"/>
-        <v>0.18803418803418806</v>
+        <v>0.17948717948717949</v>
       </c>
       <c r="D40" s="17">
-        <v>555</v>
+        <v>498</v>
       </c>
       <c r="E40" s="17">
-        <v>915</v>
+        <v>794</v>
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B41" s="17">
         <f t="shared" si="6"/>
-        <v>4.6563192904656318E-2</v>
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="C41" s="17">
         <f t="shared" si="7"/>
-        <v>0.17948717948717949</v>
+        <v>0.18803418803418806</v>
       </c>
       <c r="D41" s="17">
-        <v>455</v>
+        <v>598</v>
       </c>
       <c r="E41" s="17">
-        <v>710</v>
+        <v>1003</v>
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="17">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B42" s="17">
         <f t="shared" si="6"/>
-        <v>4.4345898004434593E-2</v>
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="C42" s="17">
         <f t="shared" si="7"/>
-        <v>0.17094017094017097</v>
+        <v>0.18803418803418806</v>
       </c>
       <c r="D42" s="17">
-        <v>346</v>
+        <v>615</v>
       </c>
       <c r="E42" s="17">
-        <v>481</v>
+        <v>1038</v>
       </c>
       <c r="F42" s="17"/>
       <c r="G42" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B43" s="17">
         <f t="shared" si="6"/>
-        <v>4.2128603104212861E-2</v>
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="C43" s="17">
         <f t="shared" si="7"/>
-        <v>0.1623931623931624</v>
+        <v>0.18803418803418806</v>
       </c>
       <c r="D43" s="17">
-        <v>201</v>
+        <v>555</v>
       </c>
       <c r="E43" s="17">
-        <v>180</v>
+        <v>915</v>
       </c>
       <c r="F43" s="17"/>
       <c r="G43" s="17">
@@ -12333,114 +14354,114 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="16">
-        <v>414</v>
-      </c>
-      <c r="B44" s="16">
-        <f t="shared" ref="B44:B54" si="8">($B$1-A44)/$B$1</f>
-        <v>8.2039911308203997E-2</v>
-      </c>
-      <c r="C44" s="16">
-        <f t="shared" ref="C44:C54" si="9">B44/$B$3</f>
-        <v>0.31623931623931628</v>
-      </c>
-      <c r="D44" s="16">
-        <v>145</v>
-      </c>
-      <c r="E44" s="16">
+      <c r="A44" s="17">
+        <v>430</v>
+      </c>
+      <c r="B44" s="17">
+        <f t="shared" si="6"/>
+        <v>4.6563192904656318E-2</v>
+      </c>
+      <c r="C44" s="17">
+        <f t="shared" si="7"/>
+        <v>0.17948717948717949</v>
+      </c>
+      <c r="D44" s="17">
+        <v>455</v>
+      </c>
+      <c r="E44" s="17">
+        <v>710</v>
+      </c>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17">
         <v>0</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16">
-        <v>1</v>
-      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="16">
-        <v>414</v>
-      </c>
-      <c r="B45" s="16">
-        <f t="shared" si="8"/>
-        <v>8.2039911308203997E-2</v>
-      </c>
-      <c r="C45" s="16">
-        <f t="shared" si="9"/>
-        <v>0.31623931623931628</v>
-      </c>
-      <c r="D45" s="16">
-        <v>250</v>
-      </c>
-      <c r="E45" s="16">
-        <v>134</v>
-      </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16">
-        <v>1</v>
+      <c r="A45" s="17">
+        <v>431</v>
+      </c>
+      <c r="B45" s="17">
+        <f t="shared" si="6"/>
+        <v>4.4345898004434593E-2</v>
+      </c>
+      <c r="C45" s="17">
+        <f t="shared" si="7"/>
+        <v>0.17094017094017097</v>
+      </c>
+      <c r="D45" s="17">
+        <v>346</v>
+      </c>
+      <c r="E45" s="17">
+        <v>481</v>
+      </c>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="16">
-        <v>413</v>
-      </c>
-      <c r="B46" s="16">
-        <f t="shared" si="8"/>
-        <v>8.4257206208425722E-2</v>
-      </c>
-      <c r="C46" s="16">
-        <f t="shared" si="9"/>
-        <v>0.3247863247863248</v>
-      </c>
-      <c r="D46" s="16">
-        <v>350</v>
-      </c>
-      <c r="E46" s="16">
-        <v>317</v>
-      </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16">
-        <v>1</v>
+      <c r="A46" s="17">
+        <v>432</v>
+      </c>
+      <c r="B46" s="17">
+        <f t="shared" si="6"/>
+        <v>4.2128603104212861E-2</v>
+      </c>
+      <c r="C46" s="17">
+        <f t="shared" si="7"/>
+        <v>0.1623931623931624</v>
+      </c>
+      <c r="D46" s="17">
+        <v>201</v>
+      </c>
+      <c r="E46" s="17">
+        <v>180</v>
+      </c>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="16">
-        <v>411</v>
-      </c>
-      <c r="B47" s="16">
-        <f t="shared" si="8"/>
-        <v>8.8691796008869186E-2</v>
-      </c>
-      <c r="C47" s="16">
-        <f t="shared" si="9"/>
-        <v>0.34188034188034194</v>
-      </c>
-      <c r="D47" s="16">
-        <v>451</v>
-      </c>
-      <c r="E47" s="16">
-        <v>500</v>
-      </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16">
-        <v>1</v>
+      <c r="A47" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B48" s="16">
-        <f t="shared" si="8"/>
-        <v>8.8691796008869186E-2</v>
+        <f t="shared" ref="B48:B58" si="8">($B$1-A48)/$B$1</f>
+        <v>8.2039911308203997E-2</v>
       </c>
       <c r="C48" s="16">
-        <f t="shared" si="9"/>
-        <v>0.34188034188034194</v>
+        <f t="shared" ref="C48:C58" si="9">B48/$B$3</f>
+        <v>0.31623931623931628</v>
       </c>
       <c r="D48" s="16">
-        <v>501</v>
+        <v>145</v>
       </c>
       <c r="E48" s="16">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16">
@@ -12449,21 +14470,21 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B49" s="16">
         <f t="shared" si="8"/>
-        <v>9.0909090909090912E-2</v>
+        <v>8.2039911308203997E-2</v>
       </c>
       <c r="C49" s="16">
         <f t="shared" si="9"/>
-        <v>0.35042735042735046</v>
+        <v>0.31623931623931628</v>
       </c>
       <c r="D49" s="16">
-        <v>550</v>
+        <v>250</v>
       </c>
       <c r="E49" s="16">
-        <v>670</v>
+        <v>134</v>
       </c>
       <c r="F49" s="16"/>
       <c r="G49" s="16">
@@ -12472,21 +14493,21 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="16">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B50" s="16">
         <f t="shared" si="8"/>
-        <v>9.0909090909090912E-2</v>
+        <v>8.4257206208425722E-2</v>
       </c>
       <c r="C50" s="16">
         <f t="shared" si="9"/>
-        <v>0.35042735042735046</v>
+        <v>0.3247863247863248</v>
       </c>
       <c r="D50" s="16">
-        <v>603</v>
+        <v>350</v>
       </c>
       <c r="E50" s="16">
-        <v>758</v>
+        <v>317</v>
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16">
@@ -12495,21 +14516,21 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B51" s="16">
         <f t="shared" si="8"/>
-        <v>9.3126385809312637E-2</v>
+        <v>8.8691796008869186E-2</v>
       </c>
       <c r="C51" s="16">
         <f t="shared" si="9"/>
-        <v>0.35897435897435898</v>
+        <v>0.34188034188034194</v>
       </c>
       <c r="D51" s="16">
-        <v>621</v>
+        <v>451</v>
       </c>
       <c r="E51" s="16">
-        <v>790</v>
+        <v>500</v>
       </c>
       <c r="F51" s="16"/>
       <c r="G51" s="16">
@@ -12529,61 +14550,535 @@
         <v>0.34188034188034194</v>
       </c>
       <c r="D52" s="16">
-        <v>399</v>
+        <v>501</v>
       </c>
       <c r="E52" s="16">
-        <v>417</v>
+        <v>585</v>
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B53" s="16">
         <f t="shared" si="8"/>
-        <v>8.4257206208425722E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="C53" s="16">
         <f t="shared" si="9"/>
-        <v>0.3247863247863248</v>
+        <v>0.35042735042735046</v>
       </c>
       <c r="D53" s="16">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="E53" s="16">
-        <v>250</v>
+        <v>670</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="16">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B54" s="16">
         <f t="shared" si="8"/>
-        <v>8.2039911308203997E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="C54" s="16">
         <f t="shared" si="9"/>
-        <v>0.31623931623931628</v>
+        <v>0.35042735042735046</v>
       </c>
       <c r="D54" s="16">
-        <v>199</v>
+        <v>603</v>
       </c>
       <c r="E54" s="16">
-        <v>75</v>
+        <v>758</v>
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="16">
+        <v>409</v>
+      </c>
+      <c r="B55" s="16">
+        <f t="shared" si="8"/>
+        <v>9.3126385809312637E-2</v>
+      </c>
+      <c r="C55" s="16">
+        <f t="shared" si="9"/>
+        <v>0.35897435897435898</v>
+      </c>
+      <c r="D55" s="16">
+        <v>621</v>
+      </c>
+      <c r="E55" s="16">
+        <v>790</v>
+      </c>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="16">
+        <v>411</v>
+      </c>
+      <c r="B56" s="16">
+        <f t="shared" si="8"/>
+        <v>8.8691796008869186E-2</v>
+      </c>
+      <c r="C56" s="16">
+        <f t="shared" si="9"/>
+        <v>0.34188034188034194</v>
+      </c>
+      <c r="D56" s="16">
+        <v>399</v>
+      </c>
+      <c r="E56" s="16">
+        <v>417</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16">
         <v>0</v>
       </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="16">
+        <v>413</v>
+      </c>
+      <c r="B57" s="16">
+        <f t="shared" si="8"/>
+        <v>8.4257206208425722E-2</v>
+      </c>
+      <c r="C57" s="16">
+        <f t="shared" si="9"/>
+        <v>0.3247863247863248</v>
+      </c>
+      <c r="D57" s="16">
+        <v>300</v>
+      </c>
+      <c r="E57" s="16">
+        <v>250</v>
+      </c>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="16">
+        <v>414</v>
+      </c>
+      <c r="B58" s="16">
+        <f t="shared" si="8"/>
+        <v>8.2039911308203997E-2</v>
+      </c>
+      <c r="C58" s="16">
+        <f t="shared" si="9"/>
+        <v>0.31623931623931628</v>
+      </c>
+      <c r="D58" s="16">
+        <v>199</v>
+      </c>
+      <c r="E58" s="16">
+        <v>75</v>
+      </c>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63">
+        <f>(B61-B62)/B61</f>
+        <v>0.24833702882483372</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="43">
+        <v>372</v>
+      </c>
+      <c r="B65" s="43">
+        <f>($B$1-A65)/$B$1</f>
+        <v>0.17516629711751663</v>
+      </c>
+      <c r="C65" s="43">
+        <f>B65/$B$63</f>
+        <v>0.70535714285714279</v>
+      </c>
+      <c r="D65" s="43">
+        <v>612</v>
+      </c>
+      <c r="E65" s="43">
+        <v>330</v>
+      </c>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="43">
+        <v>373</v>
+      </c>
+      <c r="B66" s="43">
+        <f t="shared" ref="B65:B78" si="10">($B$1-A66)/$B$1</f>
+        <v>0.17294900221729489</v>
+      </c>
+      <c r="C66" s="43">
+        <f t="shared" ref="C66:C72" si="11">B66/$B$63</f>
+        <v>0.6964285714285714</v>
+      </c>
+      <c r="D66" s="43">
+        <v>500</v>
+      </c>
+      <c r="E66" s="43">
+        <v>221</v>
+      </c>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="43">
+        <v>374</v>
+      </c>
+      <c r="B67" s="43">
+        <f t="shared" si="10"/>
+        <v>0.17073170731707318</v>
+      </c>
+      <c r="C67" s="43">
+        <f t="shared" si="11"/>
+        <v>0.6875</v>
+      </c>
+      <c r="D67" s="43">
+        <v>400</v>
+      </c>
+      <c r="E67" s="43">
+        <v>114</v>
+      </c>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="43">
+        <v>374</v>
+      </c>
+      <c r="B68" s="43">
+        <f t="shared" si="10"/>
+        <v>0.17073170731707318</v>
+      </c>
+      <c r="C68" s="43">
+        <f t="shared" si="11"/>
+        <v>0.6875</v>
+      </c>
+      <c r="D68" s="43">
+        <v>301</v>
+      </c>
+      <c r="E68" s="43">
+        <v>11</v>
+      </c>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="43">
+        <v>374</v>
+      </c>
+      <c r="B69" s="43">
+        <f t="shared" si="10"/>
+        <v>0.17073170731707318</v>
+      </c>
+      <c r="C69" s="43">
+        <f t="shared" si="11"/>
+        <v>0.6875</v>
+      </c>
+      <c r="D69" s="43">
+        <v>348</v>
+      </c>
+      <c r="E69" s="43">
+        <v>62</v>
+      </c>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="43">
+        <v>373</v>
+      </c>
+      <c r="B70" s="43">
+        <f t="shared" si="10"/>
+        <v>0.17294900221729489</v>
+      </c>
+      <c r="C70" s="43">
+        <f t="shared" si="11"/>
+        <v>0.6964285714285714</v>
+      </c>
+      <c r="D70" s="43">
+        <v>450</v>
+      </c>
+      <c r="E70" s="43">
+        <v>172</v>
+      </c>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="43">
+        <v>372</v>
+      </c>
+      <c r="B71" s="43">
+        <f t="shared" si="10"/>
+        <v>0.17516629711751663</v>
+      </c>
+      <c r="C71" s="43">
+        <f t="shared" si="11"/>
+        <v>0.70535714285714279</v>
+      </c>
+      <c r="D71" s="43">
+        <v>550</v>
+      </c>
+      <c r="E71" s="43">
+        <v>278</v>
+      </c>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="43">
+        <v>372</v>
+      </c>
+      <c r="B72" s="43">
+        <f t="shared" si="10"/>
+        <v>0.17516629711751663</v>
+      </c>
+      <c r="C72" s="43">
+        <f t="shared" si="11"/>
+        <v>0.70535714285714279</v>
+      </c>
+      <c r="D72" s="43">
+        <v>628</v>
+      </c>
+      <c r="E72" s="43">
+        <v>361</v>
+      </c>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="12">
+        <v>341</v>
+      </c>
+      <c r="B74" s="12">
+        <f t="shared" si="10"/>
+        <v>0.24390243902439024</v>
+      </c>
+      <c r="C74" s="12">
+        <f>B74/$B$63</f>
+        <v>0.9821428571428571</v>
+      </c>
+      <c r="D74" s="12">
+        <v>615</v>
+      </c>
+      <c r="E74" s="12">
+        <v>27</v>
+      </c>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="12">
+        <v>342</v>
+      </c>
+      <c r="B75" s="12">
+        <f t="shared" si="10"/>
+        <v>0.24168514412416853</v>
+      </c>
+      <c r="C75" s="12">
+        <f>B75/$B$63</f>
+        <v>0.9732142857142857</v>
+      </c>
+      <c r="D75" s="12">
+        <v>594</v>
+      </c>
+      <c r="E75" s="12">
+        <v>18</v>
+      </c>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="12">
+        <v>342</v>
+      </c>
+      <c r="B76" s="12">
+        <f t="shared" si="10"/>
+        <v>0.24168514412416853</v>
+      </c>
+      <c r="C76" s="12">
+        <f>B76/$B$63</f>
+        <v>0.9732142857142857</v>
+      </c>
+      <c r="D76" s="12">
+        <v>571</v>
+      </c>
+      <c r="E76" s="12">
+        <v>9</v>
+      </c>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="12">
+        <v>342</v>
+      </c>
+      <c r="B77" s="12">
+        <f t="shared" si="10"/>
+        <v>0.24168514412416853</v>
+      </c>
+      <c r="C77" s="12">
+        <f>B77/$B$63</f>
+        <v>0.9732142857142857</v>
+      </c>
+      <c r="D77" s="12">
+        <v>582</v>
+      </c>
+      <c r="E77" s="12">
+        <v>19</v>
+      </c>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="12">
+        <v>342</v>
+      </c>
+      <c r="B78" s="12">
+        <f t="shared" si="10"/>
+        <v>0.24168514412416853</v>
+      </c>
+      <c r="C78" s="12">
+        <f>B78/$B$63</f>
+        <v>0.9732142857142857</v>
+      </c>
+      <c r="D78" s="12">
+        <v>600</v>
+      </c>
+      <c r="E78" s="12">
+        <v>31</v>
+      </c>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12592,10 +15087,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBF1152-E7B1-408E-98FD-CDD3D8B4640C}">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12693,11 +15188,11 @@
         <v>385</v>
       </c>
       <c r="B6" s="13">
-        <f>($B$1-A6)/$B$1</f>
+        <f t="shared" ref="B6:B11" si="0">($B$1-A6)/$B$1</f>
         <v>0.24361493123772102</v>
       </c>
       <c r="C6" s="13">
-        <f>B6/$B$3</f>
+        <f t="shared" ref="C6:C11" si="1">B6/$B$3</f>
         <v>1</v>
       </c>
       <c r="D6" s="13">
@@ -12721,11 +15216,11 @@
         <v>391</v>
       </c>
       <c r="B7" s="13">
-        <f t="shared" ref="B7:B11" si="0">($B$1-A7)/$B$1</f>
+        <f t="shared" si="0"/>
         <v>0.23182711198428291</v>
       </c>
       <c r="C7" s="13">
-        <f t="shared" ref="C7:C11" si="1">B7/$B$3</f>
+        <f t="shared" si="1"/>
         <v>0.95161290322580649</v>
       </c>
       <c r="D7" s="13">
@@ -12831,68 +15326,68 @@
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>499</v>
-      </c>
-      <c r="B12" s="11">
-        <f>($B$1-A12)/$B$1</f>
-        <v>1.9646365422396856E-2</v>
-      </c>
-      <c r="C12" s="11">
-        <f>B12/$B$3</f>
-        <v>8.0645161290322578E-2</v>
-      </c>
-      <c r="D12" s="11">
-        <v>624</v>
-      </c>
-      <c r="E12" s="11">
-        <v>1316</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11">
-        <v>1</v>
+      <c r="A12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B13" s="11">
-        <f t="shared" ref="B13:B20" si="2">($B$1-A13)/$B$1</f>
-        <v>1.5717092337917484E-2</v>
+        <f>($B$1-A13)/$B$1</f>
+        <v>1.9646365422396856E-2</v>
       </c>
       <c r="C13" s="11">
-        <f t="shared" ref="C13:C20" si="3">B13/$B$3</f>
-        <v>6.4516129032258063E-2</v>
+        <f>B13/$B$3</f>
+        <v>8.0645161290322578E-2</v>
       </c>
       <c r="D13" s="11">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="E13" s="11">
-        <v>1259</v>
+        <v>1316</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B14" s="11">
-        <f t="shared" si="2"/>
-        <v>1.37524557956778E-2</v>
+        <f t="shared" ref="B14:B21" si="2">($B$1-A14)/$B$1</f>
+        <v>1.5717092337917484E-2</v>
       </c>
       <c r="C14" s="11">
-        <f t="shared" si="3"/>
-        <v>5.6451612903225812E-2</v>
+        <f t="shared" ref="C14:C21" si="3">B14/$B$3</f>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="D14" s="11">
-        <v>495</v>
+        <v>600</v>
       </c>
       <c r="E14" s="11">
-        <v>1013</v>
+        <v>1259</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11">
@@ -12901,21 +15396,21 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B15" s="11">
         <f t="shared" si="2"/>
-        <v>9.823182711198428E-3</v>
+        <v>1.37524557956778E-2</v>
       </c>
       <c r="C15" s="11">
         <f t="shared" si="3"/>
-        <v>4.0322580645161289E-2</v>
+        <v>5.6451612903225812E-2</v>
       </c>
       <c r="D15" s="11">
-        <v>403</v>
+        <v>495</v>
       </c>
       <c r="E15" s="11">
-        <v>811</v>
+        <v>1013</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11">
@@ -12924,21 +15419,21 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B16" s="11">
         <f t="shared" si="2"/>
-        <v>7.8585461689587421E-3</v>
+        <v>9.823182711198428E-3</v>
       </c>
       <c r="C16" s="11">
         <f t="shared" si="3"/>
-        <v>3.2258064516129031E-2</v>
+        <v>4.0322580645161289E-2</v>
       </c>
       <c r="D16" s="11">
-        <v>305</v>
+        <v>403</v>
       </c>
       <c r="E16" s="11">
-        <v>588</v>
+        <v>811</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11">
@@ -12958,10 +15453,10 @@
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="D17" s="11">
-        <v>202</v>
+        <v>305</v>
       </c>
       <c r="E17" s="11">
-        <v>355</v>
+        <v>588</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11">
@@ -12970,21 +15465,21 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B18" s="11">
         <f t="shared" si="2"/>
-        <v>5.893909626719057E-3</v>
+        <v>7.8585461689587421E-3</v>
       </c>
       <c r="C18" s="11">
         <f t="shared" si="3"/>
-        <v>2.4193548387096774E-2</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="D18" s="11">
-        <v>90</v>
+        <v>202</v>
       </c>
       <c r="E18" s="11">
-        <v>106</v>
+        <v>355</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11">
@@ -13004,33 +15499,33 @@
         <v>2.4193548387096774E-2</v>
       </c>
       <c r="D19" s="11">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="E19" s="11">
-        <v>444</v>
+        <v>106</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B20" s="11">
         <f t="shared" si="2"/>
-        <v>1.1787819253438114E-2</v>
+        <v>5.893909626719057E-3</v>
       </c>
       <c r="C20" s="11">
         <f t="shared" si="3"/>
-        <v>4.8387096774193547E-2</v>
+        <v>2.4193548387096774E-2</v>
       </c>
       <c r="D20" s="11">
-        <v>355</v>
+        <v>240</v>
       </c>
       <c r="E20" s="11">
-        <v>704</v>
+        <v>444</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11">
@@ -13038,68 +15533,68 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>419</v>
-      </c>
-      <c r="B21" s="8">
-        <f t="shared" ref="B21:B28" si="4">($B$1-A21)/$B$1</f>
-        <v>0.17681728880157171</v>
-      </c>
-      <c r="C21" s="8">
-        <f t="shared" ref="C21:C28" si="5">B21/$B$3</f>
-        <v>0.72580645161290325</v>
-      </c>
-      <c r="D21" s="8">
-        <v>335</v>
-      </c>
-      <c r="E21" s="8">
-        <v>5</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8">
+      <c r="A21" s="11">
+        <v>503</v>
+      </c>
+      <c r="B21" s="11">
+        <f t="shared" si="2"/>
+        <v>1.1787819253438114E-2</v>
+      </c>
+      <c r="C21" s="11">
+        <f t="shared" si="3"/>
+        <v>4.8387096774193547E-2</v>
+      </c>
+      <c r="D21" s="11">
+        <v>355</v>
+      </c>
+      <c r="E21" s="11">
+        <v>704</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <v>416</v>
-      </c>
-      <c r="B22" s="8">
-        <f t="shared" si="4"/>
-        <v>0.18271119842829076</v>
-      </c>
-      <c r="C22" s="8">
-        <f t="shared" si="5"/>
-        <v>0.75</v>
-      </c>
-      <c r="D22" s="8">
-        <v>403</v>
-      </c>
-      <c r="E22" s="8">
-        <v>101</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8">
-        <v>1</v>
+      <c r="A22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B23" s="8">
-        <f t="shared" si="4"/>
-        <v>0.18271119842829076</v>
+        <f t="shared" ref="B23:B30" si="4">($B$1-A23)/$B$1</f>
+        <v>0.17681728880157171</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" si="5"/>
-        <v>0.75</v>
+        <f t="shared" ref="C23:C30" si="5">B23/$B$3</f>
+        <v>0.72580645161290325</v>
       </c>
       <c r="D23" s="8">
-        <v>500</v>
+        <v>335</v>
       </c>
       <c r="E23" s="8">
-        <v>207</v>
+        <v>5</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8">
@@ -13108,21 +15603,21 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B24" s="8">
         <f t="shared" si="4"/>
-        <v>0.18664047151277013</v>
+        <v>0.18271119842829076</v>
       </c>
       <c r="C24" s="8">
         <f t="shared" si="5"/>
-        <v>0.7661290322580645</v>
+        <v>0.75</v>
       </c>
       <c r="D24" s="8">
-        <v>550</v>
+        <v>403</v>
       </c>
       <c r="E24" s="8">
-        <v>263</v>
+        <v>101</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8">
@@ -13131,21 +15626,21 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B25" s="8">
         <f t="shared" si="4"/>
-        <v>0.18664047151277013</v>
+        <v>0.18271119842829076</v>
       </c>
       <c r="C25" s="8">
         <f t="shared" si="5"/>
-        <v>0.7661290322580645</v>
+        <v>0.75</v>
       </c>
       <c r="D25" s="8">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E25" s="8">
-        <v>316</v>
+        <v>207</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8">
@@ -13165,10 +15660,10 @@
         <v>0.7661290322580645</v>
       </c>
       <c r="D26" s="8">
-        <v>620</v>
+        <v>550</v>
       </c>
       <c r="E26" s="8">
-        <v>340</v>
+        <v>263</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8">
@@ -13177,136 +15672,136 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B27" s="8">
         <f t="shared" si="4"/>
-        <v>0.18074656188605109</v>
+        <v>0.18664047151277013</v>
       </c>
       <c r="C27" s="8">
         <f t="shared" si="5"/>
-        <v>0.74193548387096786</v>
+        <v>0.7661290322580645</v>
       </c>
       <c r="D27" s="8">
-        <v>447</v>
+        <v>600</v>
       </c>
       <c r="E27" s="8">
-        <v>163</v>
+        <v>316</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B28" s="8">
         <f t="shared" si="4"/>
-        <v>0.18074656188605109</v>
+        <v>0.18664047151277013</v>
       </c>
       <c r="C28" s="8">
         <f t="shared" si="5"/>
-        <v>0.74193548387096786</v>
+        <v>0.7661290322580645</v>
       </c>
       <c r="D28" s="8">
-        <v>376</v>
+        <v>620</v>
       </c>
       <c r="E28" s="8">
-        <v>90</v>
+        <v>340</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>417</v>
+      </c>
+      <c r="B29" s="8">
+        <f t="shared" si="4"/>
+        <v>0.18074656188605109</v>
+      </c>
+      <c r="C29" s="8">
+        <f t="shared" si="5"/>
+        <v>0.74193548387096786</v>
+      </c>
+      <c r="D29" s="8">
+        <v>447</v>
+      </c>
+      <c r="E29" s="8">
+        <v>163</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="15">
-        <v>458</v>
-      </c>
-      <c r="B29" s="15">
-        <f>($B$1-A29)/$B$1</f>
-        <v>0.10019646365422397</v>
-      </c>
-      <c r="C29" s="15">
-        <f>B29/$B$3</f>
-        <v>0.41129032258064518</v>
-      </c>
-      <c r="D29" s="15">
-        <v>187</v>
-      </c>
-      <c r="E29" s="15">
-        <v>4</v>
-      </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15">
-        <v>1</v>
-      </c>
-    </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="15">
-        <v>456</v>
-      </c>
-      <c r="B30" s="15">
-        <f t="shared" ref="B30:B40" si="6">($B$1-A30)/$B$1</f>
-        <v>0.10412573673870335</v>
-      </c>
-      <c r="C30" s="15">
-        <f t="shared" ref="C30:C40" si="7">B30/$B$3</f>
-        <v>0.42741935483870969</v>
-      </c>
-      <c r="D30" s="15">
-        <v>252</v>
-      </c>
-      <c r="E30" s="15">
-        <v>113</v>
-      </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15">
-        <v>1</v>
+      <c r="A30" s="8">
+        <v>417</v>
+      </c>
+      <c r="B30" s="8">
+        <f t="shared" si="4"/>
+        <v>0.18074656188605109</v>
+      </c>
+      <c r="C30" s="8">
+        <f t="shared" si="5"/>
+        <v>0.74193548387096786</v>
+      </c>
+      <c r="D30" s="8">
+        <v>376</v>
+      </c>
+      <c r="E30" s="8">
+        <v>90</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="15">
-        <v>455</v>
-      </c>
-      <c r="B31" s="15">
-        <f t="shared" si="6"/>
-        <v>0.10609037328094302</v>
-      </c>
-      <c r="C31" s="15">
-        <f t="shared" si="7"/>
-        <v>0.43548387096774194</v>
-      </c>
-      <c r="D31" s="15">
-        <v>300</v>
-      </c>
-      <c r="E31" s="15">
-        <v>194</v>
-      </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15">
-        <v>1</v>
+      <c r="A31" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B32" s="15">
-        <f t="shared" si="6"/>
-        <v>0.10805500982318271</v>
+        <f>($B$1-A32)/$B$1</f>
+        <v>0.10019646365422397</v>
       </c>
       <c r="C32" s="15">
-        <f t="shared" si="7"/>
-        <v>0.44354838709677419</v>
+        <f>B32/$B$3</f>
+        <v>0.41129032258064518</v>
       </c>
       <c r="D32" s="15">
-        <v>400</v>
+        <v>187</v>
       </c>
       <c r="E32" s="15">
-        <v>360</v>
+        <v>4</v>
       </c>
       <c r="F32" s="15"/>
       <c r="G32" s="15">
@@ -13315,21 +15810,21 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B33" s="15">
-        <f t="shared" si="6"/>
-        <v>0.10805500982318271</v>
+        <f t="shared" ref="B33:B43" si="6">($B$1-A33)/$B$1</f>
+        <v>0.10412573673870335</v>
       </c>
       <c r="C33" s="15">
-        <f t="shared" si="7"/>
-        <v>0.44354838709677419</v>
+        <f t="shared" ref="C33:C43" si="7">B33/$B$3</f>
+        <v>0.42741935483870969</v>
       </c>
       <c r="D33" s="15">
-        <v>501</v>
+        <v>252</v>
       </c>
       <c r="E33" s="15">
-        <v>525</v>
+        <v>113</v>
       </c>
       <c r="F33" s="15"/>
       <c r="G33" s="15">
@@ -13338,21 +15833,21 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B34" s="15">
         <f t="shared" si="6"/>
-        <v>0.11198428290766209</v>
+        <v>0.10609037328094302</v>
       </c>
       <c r="C34" s="15">
         <f t="shared" si="7"/>
-        <v>0.45967741935483875</v>
+        <v>0.43548387096774194</v>
       </c>
       <c r="D34" s="15">
-        <v>550</v>
+        <v>300</v>
       </c>
       <c r="E34" s="15">
-        <v>604</v>
+        <v>194</v>
       </c>
       <c r="F34" s="15"/>
       <c r="G34" s="15">
@@ -13361,21 +15856,21 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B35" s="15">
         <f t="shared" si="6"/>
-        <v>0.11198428290766209</v>
+        <v>0.10805500982318271</v>
       </c>
       <c r="C35" s="15">
         <f t="shared" si="7"/>
-        <v>0.45967741935483875</v>
+        <v>0.44354838709677419</v>
       </c>
       <c r="D35" s="15">
-        <v>601</v>
+        <v>400</v>
       </c>
       <c r="E35" s="15">
-        <v>688</v>
+        <v>360</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="15">
@@ -13384,21 +15879,21 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B36" s="15">
         <f t="shared" si="6"/>
-        <v>0.11198428290766209</v>
+        <v>0.10805500982318271</v>
       </c>
       <c r="C36" s="15">
         <f t="shared" si="7"/>
-        <v>0.45967741935483875</v>
+        <v>0.44354838709677419</v>
       </c>
       <c r="D36" s="15">
-        <v>622</v>
+        <v>501</v>
       </c>
       <c r="E36" s="15">
-        <v>720</v>
+        <v>525</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="15">
@@ -13407,71 +15902,71 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B37" s="15">
         <f t="shared" si="6"/>
-        <v>0.10609037328094302</v>
+        <v>0.11198428290766209</v>
       </c>
       <c r="C37" s="15">
         <f t="shared" si="7"/>
-        <v>0.43548387096774194</v>
+        <v>0.45967741935483875</v>
       </c>
       <c r="D37" s="15">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="E37" s="15">
-        <v>566</v>
+        <v>604</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B38" s="15">
         <f t="shared" si="6"/>
-        <v>0.10609037328094302</v>
+        <v>0.11198428290766209</v>
       </c>
       <c r="C38" s="15">
         <f t="shared" si="7"/>
-        <v>0.43548387096774194</v>
+        <v>0.45967741935483875</v>
       </c>
       <c r="D38" s="15">
-        <v>349</v>
+        <v>601</v>
       </c>
       <c r="E38" s="15">
-        <v>282</v>
+        <v>688</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B39" s="15">
         <f t="shared" si="6"/>
-        <v>0.10216110019646366</v>
+        <v>0.11198428290766209</v>
       </c>
       <c r="C39" s="15">
         <f t="shared" si="7"/>
-        <v>0.41935483870967744</v>
+        <v>0.45967741935483875</v>
       </c>
       <c r="D39" s="15">
-        <v>201</v>
+        <v>622</v>
       </c>
       <c r="E39" s="15">
-        <v>39</v>
+        <v>720</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -13487,125 +15982,125 @@
         <v>0.43548387096774194</v>
       </c>
       <c r="D40" s="15">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="E40" s="15">
-        <v>446</v>
+        <v>566</v>
       </c>
       <c r="F40" s="15"/>
       <c r="G40" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="15">
+        <v>455</v>
+      </c>
+      <c r="B41" s="15">
+        <f t="shared" si="6"/>
+        <v>0.10609037328094302</v>
+      </c>
+      <c r="C41" s="15">
+        <f t="shared" si="7"/>
+        <v>0.43548387096774194</v>
+      </c>
+      <c r="D41" s="15">
+        <v>349</v>
+      </c>
+      <c r="E41" s="15">
+        <v>282</v>
+      </c>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="15">
+        <v>457</v>
+      </c>
+      <c r="B42" s="15">
+        <f t="shared" si="6"/>
+        <v>0.10216110019646366</v>
+      </c>
+      <c r="C42" s="15">
+        <f t="shared" si="7"/>
+        <v>0.41935483870967744</v>
+      </c>
+      <c r="D42" s="15">
+        <v>201</v>
+      </c>
+      <c r="E42" s="15">
+        <v>39</v>
+      </c>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="15">
+        <v>455</v>
+      </c>
+      <c r="B43" s="15">
+        <f t="shared" si="6"/>
+        <v>0.10609037328094302</v>
+      </c>
+      <c r="C43" s="15">
+        <f t="shared" si="7"/>
+        <v>0.43548387096774194</v>
+      </c>
+      <c r="D43" s="15">
+        <v>450</v>
+      </c>
+      <c r="E43" s="15">
+        <v>446</v>
+      </c>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="16">
-        <v>482</v>
-      </c>
-      <c r="B41" s="16">
-        <f t="shared" ref="B41:B53" si="8">($B$1-A41)/$B$1</f>
-        <v>5.304518664047151E-2</v>
-      </c>
-      <c r="C41" s="16">
-        <f t="shared" ref="C41:C53" si="9">B41/$B$3</f>
-        <v>0.21774193548387097</v>
-      </c>
-      <c r="D41" s="16">
-        <v>130</v>
-      </c>
-      <c r="E41" s="16">
-        <v>4.3</v>
-      </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="16">
-        <v>481</v>
-      </c>
-      <c r="B42" s="16">
-        <f t="shared" si="8"/>
-        <v>5.50098231827112E-2</v>
-      </c>
-      <c r="C42" s="16">
-        <f t="shared" si="9"/>
-        <v>0.22580645161290325</v>
-      </c>
-      <c r="D42" s="16">
-        <v>201</v>
-      </c>
-      <c r="E42" s="16">
-        <v>149</v>
-      </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="16">
-        <v>481</v>
-      </c>
-      <c r="B43" s="16">
-        <f t="shared" si="8"/>
-        <v>5.50098231827112E-2</v>
-      </c>
-      <c r="C43" s="16">
-        <f t="shared" si="9"/>
-        <v>0.22580645161290325</v>
-      </c>
-      <c r="D43" s="16">
-        <v>299</v>
-      </c>
-      <c r="E43" s="16">
-        <v>356</v>
-      </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16">
-        <v>1</v>
-      </c>
-    </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="16">
-        <v>480</v>
-      </c>
-      <c r="B44" s="16">
-        <f t="shared" si="8"/>
-        <v>5.6974459724950882E-2</v>
-      </c>
-      <c r="C44" s="16">
-        <f t="shared" si="9"/>
-        <v>0.23387096774193547</v>
-      </c>
-      <c r="D44" s="16">
-        <v>402</v>
-      </c>
-      <c r="E44" s="16">
-        <v>563</v>
-      </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16">
-        <v>1</v>
+      <c r="A44" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="16">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B45" s="16">
-        <f t="shared" si="8"/>
-        <v>5.8939096267190572E-2</v>
+        <f t="shared" ref="B45:B57" si="8">($B$1-A45)/$B$1</f>
+        <v>5.304518664047151E-2</v>
       </c>
       <c r="C45" s="16">
-        <f t="shared" si="9"/>
-        <v>0.24193548387096775</v>
+        <f t="shared" ref="C45:C57" si="9">B45/$B$3</f>
+        <v>0.21774193548387097</v>
       </c>
       <c r="D45" s="16">
-        <v>450</v>
+        <v>130</v>
       </c>
       <c r="E45" s="16">
-        <v>622</v>
+        <v>4.3</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="16">
@@ -13614,21 +16109,21 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B46" s="16">
         <f t="shared" si="8"/>
-        <v>5.8939096267190572E-2</v>
+        <v>5.50098231827112E-2</v>
       </c>
       <c r="C46" s="16">
         <f t="shared" si="9"/>
-        <v>0.24193548387096775</v>
+        <v>0.22580645161290325</v>
       </c>
       <c r="D46" s="16">
-        <v>501</v>
+        <v>201</v>
       </c>
       <c r="E46" s="16">
-        <v>762</v>
+        <v>149</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16">
@@ -13637,21 +16132,21 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B47" s="16">
         <f t="shared" si="8"/>
-        <v>6.0903732809430254E-2</v>
+        <v>5.50098231827112E-2</v>
       </c>
       <c r="C47" s="16">
         <f t="shared" si="9"/>
-        <v>0.25</v>
+        <v>0.22580645161290325</v>
       </c>
       <c r="D47" s="16">
-        <v>603</v>
+        <v>299</v>
       </c>
       <c r="E47" s="16">
-        <v>967</v>
+        <v>356</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="16">
@@ -13660,21 +16155,21 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B48" s="16">
         <f t="shared" si="8"/>
-        <v>6.0903732809430254E-2</v>
+        <v>5.6974459724950882E-2</v>
       </c>
       <c r="C48" s="16">
         <f t="shared" si="9"/>
-        <v>0.25</v>
+        <v>0.23387096774193547</v>
       </c>
       <c r="D48" s="16">
-        <v>622</v>
+        <v>402</v>
       </c>
       <c r="E48" s="16">
-        <v>1006</v>
+        <v>563</v>
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16">
@@ -13683,25 +16178,25 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="16">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B49" s="16">
         <f t="shared" si="8"/>
-        <v>6.0903732809430254E-2</v>
+        <v>5.8939096267190572E-2</v>
       </c>
       <c r="C49" s="16">
         <f t="shared" si="9"/>
-        <v>0.25</v>
+        <v>0.24193548387096775</v>
       </c>
       <c r="D49" s="16">
-        <v>553</v>
+        <v>450</v>
       </c>
       <c r="E49" s="16">
-        <v>868</v>
+        <v>622</v>
       </c>
       <c r="F49" s="16"/>
       <c r="G49" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -13717,56 +16212,56 @@
         <v>0.24193548387096775</v>
       </c>
       <c r="D50" s="16">
-        <v>348</v>
+        <v>501</v>
       </c>
       <c r="E50" s="16">
-        <v>456</v>
+        <v>762</v>
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="16">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B51" s="16">
         <f t="shared" si="8"/>
-        <v>5.6974459724950882E-2</v>
+        <v>6.0903732809430254E-2</v>
       </c>
       <c r="C51" s="16">
         <f t="shared" si="9"/>
-        <v>0.23387096774193547</v>
+        <v>0.25</v>
       </c>
       <c r="D51" s="16">
-        <v>252</v>
+        <v>603</v>
       </c>
       <c r="E51" s="16">
-        <v>261</v>
+        <v>967</v>
       </c>
       <c r="F51" s="16"/>
       <c r="G51" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="16">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B52" s="16">
         <f t="shared" si="8"/>
-        <v>5.6974459724950882E-2</v>
+        <v>6.0903732809430254E-2</v>
       </c>
       <c r="C52" s="16">
         <f t="shared" si="9"/>
-        <v>0.23387096774193547</v>
+        <v>0.25</v>
       </c>
       <c r="D52" s="16">
-        <v>376</v>
+        <v>622</v>
       </c>
       <c r="E52" s="16">
-        <v>515</v>
+        <v>1006</v>
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16">
@@ -13786,24 +16281,116 @@
         <v>0.25</v>
       </c>
       <c r="D53" s="16">
-        <v>476</v>
+        <v>553</v>
       </c>
       <c r="E53" s="16">
-        <v>714</v>
+        <v>868</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="16">
+        <v>479</v>
+      </c>
+      <c r="B54" s="16">
+        <f t="shared" si="8"/>
+        <v>5.8939096267190572E-2</v>
+      </c>
+      <c r="C54" s="16">
+        <f t="shared" si="9"/>
+        <v>0.24193548387096775</v>
+      </c>
+      <c r="D54" s="16">
+        <v>348</v>
+      </c>
+      <c r="E54" s="16">
+        <v>456</v>
+      </c>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="16">
+        <v>480</v>
+      </c>
+      <c r="B55" s="16">
+        <f t="shared" si="8"/>
+        <v>5.6974459724950882E-2</v>
+      </c>
+      <c r="C55" s="16">
+        <f t="shared" si="9"/>
+        <v>0.23387096774193547</v>
+      </c>
+      <c r="D55" s="16">
+        <v>252</v>
+      </c>
+      <c r="E55" s="16">
+        <v>261</v>
+      </c>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="16">
+        <v>480</v>
+      </c>
+      <c r="B56" s="16">
+        <f t="shared" si="8"/>
+        <v>5.6974459724950882E-2</v>
+      </c>
+      <c r="C56" s="16">
+        <f t="shared" si="9"/>
+        <v>0.23387096774193547</v>
+      </c>
+      <c r="D56" s="16">
+        <v>376</v>
+      </c>
+      <c r="E56" s="16">
+        <v>515</v>
+      </c>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="16">
+        <v>478</v>
+      </c>
+      <c r="B57" s="16">
+        <f t="shared" si="8"/>
+        <v>6.0903732809430254E-2</v>
+      </c>
+      <c r="C57" s="16">
+        <f t="shared" si="9"/>
+        <v>0.25</v>
+      </c>
+      <c r="D57" s="16">
+        <v>476</v>
+      </c>
+      <c r="E57" s="16">
+        <v>714</v>
+      </c>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
